--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCE7A2E-B0A0-4D9C-8E11-DC36A7D9CABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18182571-1564-4AE5-AE12-18D809D9975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18182571-1564-4AE5-AE12-18D809D9975E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF558CC-6FE4-46B2-9559-2122052172AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
   <si>
     <t>Matemáticas y emprendimiento</t>
   </si>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:CD1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2019,238 +2019,316 @@
         <v>0.55249999999999999</v>
       </c>
       <c r="E5" s="9">
-        <v>61.424242419999999</v>
+        <f>AVERAGE(E6:E38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="F5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="F5:G5" si="0">AVERAGE(F6:F38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>50.757575757575758</v>
       </c>
       <c r="H5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="H5" si="1">AVERAGE(H6:H38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="I5" s="9">
+        <f t="shared" ref="I5" si="2">AVERAGE(I6:I38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="J5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="J5" si="3">AVERAGE(J6:J38)</f>
+        <v>49.151515151515149</v>
       </c>
       <c r="K5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="K5" si="4">AVERAGE(K6:K38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="L5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="L5" si="5">AVERAGE(L6:L38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" ref="M5" si="6">AVERAGE(M6:M38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="N5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="N5" si="7">AVERAGE(N6:N38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5" si="8">AVERAGE(O6:O38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="P5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="P5" si="9">AVERAGE(P6:P38)</f>
+        <v>49.151515151515149</v>
       </c>
       <c r="Q5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="Q5" si="10">AVERAGE(Q6:Q38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="R5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="R5" si="11">AVERAGE(R6:R38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" ref="S5" si="12">AVERAGE(S6:S38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="T5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="T5" si="13">AVERAGE(T6:T38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" ref="U5" si="14">AVERAGE(U6:U38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="V5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="V5" si="15">AVERAGE(V6:V38)</f>
+        <v>49.151515151515149</v>
       </c>
       <c r="W5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="W5" si="16">AVERAGE(W6:W38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="X5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="X5" si="17">AVERAGE(X6:X38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" ref="Y5" si="18">AVERAGE(Y6:Y38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="Z5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="Z5" si="19">AVERAGE(Z6:Z38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" ref="AA5" si="20">AVERAGE(AA6:AA38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AB5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="AB5" si="21">AVERAGE(AB6:AB38)</f>
+        <v>49.151515151515149</v>
       </c>
       <c r="AC5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="AC5" si="22">AVERAGE(AC6:AC38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="AD5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AD5" si="23">AVERAGE(AD6:AD38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" ref="AE5" si="24">AVERAGE(AE6:AE38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AF5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AF5" si="25">AVERAGE(AF6:AF38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" ref="AG5" si="26">AVERAGE(AG6:AG38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AH5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="AH5" si="27">AVERAGE(AH6:AH38)</f>
+        <v>49.151515151515149</v>
       </c>
       <c r="AI5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AI5" si="28">AVERAGE(AI6:AI38)</f>
+        <v>61.424242424242422</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f t="shared" ref="AJ5" si="29">AVERAGE(AJ6:AJ38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AK5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="AL5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AK5" si="30">AVERAGE(AK6:AK38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="AL5" s="9">
+        <f t="shared" ref="AL5" si="31">AVERAGE(AL6:AL38)</f>
+        <v>55.060606060606062</v>
       </c>
       <c r="AM5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="AM5" si="32">AVERAGE(AM6:AM38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AN5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="AO5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AN5" si="33">AVERAGE(AN6:AN38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="AO5" s="9">
+        <f t="shared" ref="AO5" si="34">AVERAGE(AO6:AO38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="AP5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="AQ5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AP5" si="35">AVERAGE(AP6:AP38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="AQ5" s="9">
+        <f t="shared" ref="AQ5" si="36">AVERAGE(AQ6:AQ38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AR5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="AR5" si="37">AVERAGE(AR6:AR38)</f>
+        <v>55.060606060606062</v>
       </c>
       <c r="AS5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="AS5" si="38">AVERAGE(AS6:AS38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AT5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="AU5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AT5" si="39">AVERAGE(AT6:AT38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="AU5" s="9">
+        <f t="shared" ref="AU5" si="40">AVERAGE(AU6:AU38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="AV5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="AW5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AV5" si="41">AVERAGE(AV6:AV38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="AW5" s="9">
+        <f t="shared" ref="AW5" si="42">AVERAGE(AW6:AW38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AX5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="AX5" si="43">AVERAGE(AX6:AX38)</f>
+        <v>55.060606060606062</v>
       </c>
       <c r="AY5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="AY5" si="44">AVERAGE(AY6:AY38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="AZ5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="BA5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="AZ5" si="45">AVERAGE(AZ6:AZ38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="BA5" s="9">
+        <f t="shared" ref="BA5" si="46">AVERAGE(BA6:BA38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="BB5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="BC5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BB5" si="47">AVERAGE(BB6:BB38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="BC5" s="9">
+        <f t="shared" ref="BC5" si="48">AVERAGE(BC6:BC38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BD5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="BD5" si="49">AVERAGE(BD6:BD38)</f>
+        <v>55.060606060606062</v>
       </c>
       <c r="BE5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="BE5" si="50">AVERAGE(BE6:BE38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BF5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="BG5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BF5" si="51">AVERAGE(BF6:BF38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="BG5" s="9">
+        <f t="shared" ref="BG5" si="52">AVERAGE(BG6:BG38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="BH5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BH5" si="53">AVERAGE(BH6:BH38)</f>
+        <v>55.363636363636367</v>
+      </c>
+      <c r="BI5" s="9">
+        <f t="shared" ref="BI5" si="54">AVERAGE(BI6:BI38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BJ5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="BJ5" si="55">AVERAGE(BJ6:BJ38)</f>
+        <v>55.060606060606062</v>
       </c>
       <c r="BK5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="BK5" si="56">AVERAGE(BK6:BK38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BL5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="BM5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BL5" si="57">AVERAGE(BL6:BL38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="BM5" s="9">
+        <f t="shared" ref="BM5" si="58">AVERAGE(BM6:BM38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="BN5" s="9">
-        <v>55.060606059999998</v>
+        <f t="shared" ref="BN5" si="59">AVERAGE(BN6:BN38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BO5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="BO5" si="60">AVERAGE(BO6:BO38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BP5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="BQ5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BP5" si="61">AVERAGE(BP6:BP38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="BQ5" s="9">
+        <f t="shared" ref="BQ5" si="62">AVERAGE(BQ6:BQ38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BR5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="BS5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BR5" si="63">AVERAGE(BR6:BR38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="BS5" s="9">
+        <f t="shared" ref="BS5" si="64">AVERAGE(BS6:BS38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="BT5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="BT5" si="65">AVERAGE(BT6:BT38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BU5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="BU5" si="66">AVERAGE(BU6:BU38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BV5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="BW5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BV5" si="67">AVERAGE(BV6:BV38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="BW5" s="9">
+        <f t="shared" ref="BW5" si="68">AVERAGE(BW6:BW38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="BX5" s="9">
-        <v>55.060606059999998</v>
-      </c>
-      <c r="BY5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="BX5" si="69">AVERAGE(BX6:BX38)</f>
+        <v>49.151515151515149</v>
+      </c>
+      <c r="BY5" s="9">
+        <f t="shared" ref="BY5" si="70">AVERAGE(BY6:BY38)</f>
+        <v>61.424242424242422</v>
       </c>
       <c r="BZ5" s="9">
-        <v>49.151515150000002</v>
+        <f t="shared" ref="BZ5" si="71">AVERAGE(BZ6:BZ38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="CA5" s="9">
-        <v>61.424242419999999</v>
+        <f t="shared" ref="CA5" si="72">AVERAGE(CA6:CA38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="CB5" s="9">
-        <v>55.363636360000001</v>
-      </c>
-      <c r="CC5" s="9" t="s">
-        <v>1</v>
+        <f t="shared" ref="CB5" si="73">AVERAGE(CB6:CB38)</f>
+        <v>55.060606060606062</v>
+      </c>
+      <c r="CC5" s="9">
+        <f t="shared" ref="CC5" si="74">AVERAGE(CC6:CC38)</f>
+        <v>55.363636363636367</v>
       </c>
       <c r="CD5" s="9">
-        <v>55.060606059999998</v>
+        <f t="shared" ref="CD5" si="75">AVERAGE(CD6:CD38)</f>
+        <v>49.151515151515149</v>
       </c>
     </row>
     <row r="6" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
@@ -2272,11 +2350,15 @@
       <c r="F6" s="10">
         <v>0</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
       <c r="H6" s="10">
         <v>0</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
       <c r="J6" s="10">
         <v>0</v>
       </c>
@@ -2286,11 +2368,15 @@
       <c r="L6" s="10">
         <v>0</v>
       </c>
-      <c r="M6" s="10"/>
+      <c r="M6" s="10">
+        <v>0</v>
+      </c>
       <c r="N6" s="10">
         <v>0</v>
       </c>
-      <c r="O6" s="10"/>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
       <c r="P6" s="10">
         <v>0</v>
       </c>
@@ -2300,11 +2386,15 @@
       <c r="R6" s="10">
         <v>0</v>
       </c>
-      <c r="S6" s="10"/>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
       <c r="T6" s="10">
         <v>0</v>
       </c>
-      <c r="U6" s="10"/>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
       <c r="V6" s="10">
         <v>0</v>
       </c>
@@ -2314,11 +2404,15 @@
       <c r="X6" s="10">
         <v>0</v>
       </c>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="10">
+        <v>0</v>
+      </c>
       <c r="Z6" s="10">
         <v>0</v>
       </c>
-      <c r="AA6" s="10"/>
+      <c r="AA6" s="10">
+        <v>0</v>
+      </c>
       <c r="AB6" s="10">
         <v>0</v>
       </c>
@@ -2328,11 +2422,15 @@
       <c r="AD6" s="10">
         <v>0</v>
       </c>
-      <c r="AE6" s="10"/>
+      <c r="AE6" s="10">
+        <v>0</v>
+      </c>
       <c r="AF6" s="10">
         <v>0</v>
       </c>
-      <c r="AG6" s="10"/>
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
       <c r="AH6" s="10">
         <v>0</v>
       </c>
@@ -2342,11 +2440,15 @@
       <c r="AJ6" s="10">
         <v>0</v>
       </c>
-      <c r="AK6" s="10"/>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
       <c r="AL6" s="10">
         <v>0</v>
       </c>
-      <c r="AM6" s="10"/>
+      <c r="AM6" s="10">
+        <v>0</v>
+      </c>
       <c r="AN6" s="10">
         <v>0</v>
       </c>
@@ -2356,11 +2458,15 @@
       <c r="AP6" s="10">
         <v>0</v>
       </c>
-      <c r="AQ6" s="10"/>
+      <c r="AQ6" s="10">
+        <v>0</v>
+      </c>
       <c r="AR6" s="10">
         <v>0</v>
       </c>
-      <c r="AS6" s="10"/>
+      <c r="AS6" s="10">
+        <v>0</v>
+      </c>
       <c r="AT6" s="10">
         <v>0</v>
       </c>
@@ -2370,11 +2476,15 @@
       <c r="AV6" s="10">
         <v>0</v>
       </c>
-      <c r="AW6" s="10"/>
+      <c r="AW6" s="10">
+        <v>0</v>
+      </c>
       <c r="AX6" s="10">
         <v>0</v>
       </c>
-      <c r="AY6" s="10"/>
+      <c r="AY6" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ6" s="10">
         <v>0</v>
       </c>
@@ -2384,11 +2494,15 @@
       <c r="BB6" s="10">
         <v>0</v>
       </c>
-      <c r="BC6" s="10"/>
+      <c r="BC6" s="10">
+        <v>0</v>
+      </c>
       <c r="BD6" s="10">
         <v>0</v>
       </c>
-      <c r="BE6" s="10"/>
+      <c r="BE6" s="10">
+        <v>0</v>
+      </c>
       <c r="BF6" s="10">
         <v>0</v>
       </c>
@@ -2398,11 +2512,15 @@
       <c r="BH6" s="10">
         <v>0</v>
       </c>
-      <c r="BI6" s="10"/>
+      <c r="BI6" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ6" s="10">
         <v>0</v>
       </c>
-      <c r="BK6" s="10"/>
+      <c r="BK6" s="10">
+        <v>0</v>
+      </c>
       <c r="BL6" s="10">
         <v>0</v>
       </c>
@@ -2412,11 +2530,15 @@
       <c r="BN6" s="10">
         <v>0</v>
       </c>
-      <c r="BO6" s="10"/>
+      <c r="BO6" s="10">
+        <v>0</v>
+      </c>
       <c r="BP6" s="10">
         <v>0</v>
       </c>
-      <c r="BQ6" s="10"/>
+      <c r="BQ6" s="10">
+        <v>0</v>
+      </c>
       <c r="BR6" s="10">
         <v>0</v>
       </c>
@@ -2426,11 +2548,15 @@
       <c r="BT6" s="10">
         <v>0</v>
       </c>
-      <c r="BU6" s="10"/>
+      <c r="BU6" s="10">
+        <v>0</v>
+      </c>
       <c r="BV6" s="10">
         <v>0</v>
       </c>
-      <c r="BW6" s="10"/>
+      <c r="BW6" s="10">
+        <v>0</v>
+      </c>
       <c r="BX6" s="10">
         <v>0</v>
       </c>
@@ -2440,11 +2566,15 @@
       <c r="BZ6" s="10">
         <v>0</v>
       </c>
-      <c r="CA6" s="10"/>
+      <c r="CA6" s="10">
+        <v>0</v>
+      </c>
       <c r="CB6" s="10">
         <v>0</v>
       </c>
-      <c r="CC6" s="10"/>
+      <c r="CC6" s="10">
+        <v>0</v>
+      </c>
       <c r="CD6" s="10">
         <v>0</v>
       </c>
@@ -2468,11 +2598,15 @@
       <c r="F7" s="10">
         <v>0</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="10">
+        <v>100</v>
+      </c>
       <c r="H7" s="10">
         <v>0</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
       <c r="J7" s="10">
         <v>0</v>
       </c>
@@ -2482,11 +2616,15 @@
       <c r="L7" s="10">
         <v>0</v>
       </c>
-      <c r="M7" s="10"/>
+      <c r="M7" s="10">
+        <v>0</v>
+      </c>
       <c r="N7" s="10">
         <v>0</v>
       </c>
-      <c r="O7" s="10"/>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
       <c r="P7" s="10">
         <v>0</v>
       </c>
@@ -2496,11 +2634,15 @@
       <c r="R7" s="10">
         <v>0</v>
       </c>
-      <c r="S7" s="10"/>
+      <c r="S7" s="10">
+        <v>0</v>
+      </c>
       <c r="T7" s="10">
         <v>0</v>
       </c>
-      <c r="U7" s="10"/>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
       <c r="V7" s="10">
         <v>0</v>
       </c>
@@ -2510,11 +2652,15 @@
       <c r="X7" s="10">
         <v>0</v>
       </c>
-      <c r="Y7" s="10"/>
+      <c r="Y7" s="10">
+        <v>0</v>
+      </c>
       <c r="Z7" s="10">
         <v>0</v>
       </c>
-      <c r="AA7" s="10"/>
+      <c r="AA7" s="10">
+        <v>0</v>
+      </c>
       <c r="AB7" s="10">
         <v>0</v>
       </c>
@@ -2524,11 +2670,15 @@
       <c r="AD7" s="10">
         <v>0</v>
       </c>
-      <c r="AE7" s="10"/>
+      <c r="AE7" s="10">
+        <v>0</v>
+      </c>
       <c r="AF7" s="10">
         <v>0</v>
       </c>
-      <c r="AG7" s="10"/>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
       <c r="AH7" s="10">
         <v>0</v>
       </c>
@@ -2538,11 +2688,15 @@
       <c r="AJ7" s="10">
         <v>0</v>
       </c>
-      <c r="AK7" s="10"/>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
       <c r="AL7" s="10">
         <v>0</v>
       </c>
-      <c r="AM7" s="10"/>
+      <c r="AM7" s="10">
+        <v>0</v>
+      </c>
       <c r="AN7" s="10">
         <v>0</v>
       </c>
@@ -2552,11 +2706,15 @@
       <c r="AP7" s="10">
         <v>0</v>
       </c>
-      <c r="AQ7" s="10"/>
+      <c r="AQ7" s="10">
+        <v>0</v>
+      </c>
       <c r="AR7" s="10">
         <v>0</v>
       </c>
-      <c r="AS7" s="10"/>
+      <c r="AS7" s="10">
+        <v>0</v>
+      </c>
       <c r="AT7" s="10">
         <v>0</v>
       </c>
@@ -2566,11 +2724,15 @@
       <c r="AV7" s="10">
         <v>0</v>
       </c>
-      <c r="AW7" s="10"/>
+      <c r="AW7" s="10">
+        <v>0</v>
+      </c>
       <c r="AX7" s="10">
         <v>0</v>
       </c>
-      <c r="AY7" s="10"/>
+      <c r="AY7" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ7" s="10">
         <v>0</v>
       </c>
@@ -2580,11 +2742,15 @@
       <c r="BB7" s="10">
         <v>0</v>
       </c>
-      <c r="BC7" s="10"/>
+      <c r="BC7" s="10">
+        <v>0</v>
+      </c>
       <c r="BD7" s="10">
         <v>0</v>
       </c>
-      <c r="BE7" s="10"/>
+      <c r="BE7" s="10">
+        <v>0</v>
+      </c>
       <c r="BF7" s="10">
         <v>0</v>
       </c>
@@ -2594,11 +2760,15 @@
       <c r="BH7" s="10">
         <v>0</v>
       </c>
-      <c r="BI7" s="10"/>
+      <c r="BI7" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ7" s="10">
         <v>0</v>
       </c>
-      <c r="BK7" s="10"/>
+      <c r="BK7" s="10">
+        <v>0</v>
+      </c>
       <c r="BL7" s="10">
         <v>0</v>
       </c>
@@ -2608,11 +2778,15 @@
       <c r="BN7" s="10">
         <v>0</v>
       </c>
-      <c r="BO7" s="10"/>
+      <c r="BO7" s="10">
+        <v>0</v>
+      </c>
       <c r="BP7" s="10">
         <v>0</v>
       </c>
-      <c r="BQ7" s="10"/>
+      <c r="BQ7" s="10">
+        <v>0</v>
+      </c>
       <c r="BR7" s="10">
         <v>0</v>
       </c>
@@ -2622,11 +2796,15 @@
       <c r="BT7" s="10">
         <v>0</v>
       </c>
-      <c r="BU7" s="10"/>
+      <c r="BU7" s="10">
+        <v>0</v>
+      </c>
       <c r="BV7" s="10">
         <v>0</v>
       </c>
-      <c r="BW7" s="10"/>
+      <c r="BW7" s="10">
+        <v>0</v>
+      </c>
       <c r="BX7" s="10">
         <v>0</v>
       </c>
@@ -2636,11 +2814,15 @@
       <c r="BZ7" s="10">
         <v>0</v>
       </c>
-      <c r="CA7" s="10"/>
+      <c r="CA7" s="10">
+        <v>0</v>
+      </c>
       <c r="CB7" s="10">
         <v>0</v>
       </c>
-      <c r="CC7" s="10"/>
+      <c r="CC7" s="10">
+        <v>0</v>
+      </c>
       <c r="CD7" s="10">
         <v>0</v>
       </c>
@@ -2664,11 +2846,15 @@
       <c r="F8" s="10">
         <v>100</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="10">
+        <v>85</v>
+      </c>
       <c r="H8" s="10">
         <v>100</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="10">
+        <v>100</v>
+      </c>
       <c r="J8" s="10">
         <v>100</v>
       </c>
@@ -2678,11 +2864,15 @@
       <c r="L8" s="10">
         <v>100</v>
       </c>
-      <c r="M8" s="10"/>
+      <c r="M8" s="10">
+        <v>100</v>
+      </c>
       <c r="N8" s="10">
         <v>100</v>
       </c>
-      <c r="O8" s="10"/>
+      <c r="O8" s="10">
+        <v>100</v>
+      </c>
       <c r="P8" s="10">
         <v>100</v>
       </c>
@@ -2692,11 +2882,15 @@
       <c r="R8" s="10">
         <v>100</v>
       </c>
-      <c r="S8" s="10"/>
+      <c r="S8" s="10">
+        <v>100</v>
+      </c>
       <c r="T8" s="10">
         <v>100</v>
       </c>
-      <c r="U8" s="10"/>
+      <c r="U8" s="10">
+        <v>100</v>
+      </c>
       <c r="V8" s="10">
         <v>100</v>
       </c>
@@ -2706,11 +2900,15 @@
       <c r="X8" s="10">
         <v>100</v>
       </c>
-      <c r="Y8" s="10"/>
+      <c r="Y8" s="10">
+        <v>100</v>
+      </c>
       <c r="Z8" s="10">
         <v>100</v>
       </c>
-      <c r="AA8" s="10"/>
+      <c r="AA8" s="10">
+        <v>100</v>
+      </c>
       <c r="AB8" s="10">
         <v>100</v>
       </c>
@@ -2720,11 +2918,15 @@
       <c r="AD8" s="10">
         <v>100</v>
       </c>
-      <c r="AE8" s="10"/>
+      <c r="AE8" s="10">
+        <v>100</v>
+      </c>
       <c r="AF8" s="10">
         <v>100</v>
       </c>
-      <c r="AG8" s="10"/>
+      <c r="AG8" s="10">
+        <v>100</v>
+      </c>
       <c r="AH8" s="10">
         <v>100</v>
       </c>
@@ -2734,11 +2936,15 @@
       <c r="AJ8" s="10">
         <v>100</v>
       </c>
-      <c r="AK8" s="10"/>
+      <c r="AK8" s="10">
+        <v>100</v>
+      </c>
       <c r="AL8" s="10">
         <v>100</v>
       </c>
-      <c r="AM8" s="10"/>
+      <c r="AM8" s="10">
+        <v>100</v>
+      </c>
       <c r="AN8" s="10">
         <v>100</v>
       </c>
@@ -2748,11 +2954,15 @@
       <c r="AP8" s="10">
         <v>100</v>
       </c>
-      <c r="AQ8" s="10"/>
+      <c r="AQ8" s="10">
+        <v>100</v>
+      </c>
       <c r="AR8" s="10">
         <v>100</v>
       </c>
-      <c r="AS8" s="10"/>
+      <c r="AS8" s="10">
+        <v>100</v>
+      </c>
       <c r="AT8" s="10">
         <v>100</v>
       </c>
@@ -2762,11 +2972,15 @@
       <c r="AV8" s="10">
         <v>100</v>
       </c>
-      <c r="AW8" s="10"/>
+      <c r="AW8" s="10">
+        <v>100</v>
+      </c>
       <c r="AX8" s="10">
         <v>100</v>
       </c>
-      <c r="AY8" s="10"/>
+      <c r="AY8" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ8" s="10">
         <v>100</v>
       </c>
@@ -2776,11 +2990,15 @@
       <c r="BB8" s="10">
         <v>100</v>
       </c>
-      <c r="BC8" s="10"/>
+      <c r="BC8" s="10">
+        <v>100</v>
+      </c>
       <c r="BD8" s="10">
         <v>100</v>
       </c>
-      <c r="BE8" s="10"/>
+      <c r="BE8" s="10">
+        <v>100</v>
+      </c>
       <c r="BF8" s="10">
         <v>100</v>
       </c>
@@ -2790,11 +3008,15 @@
       <c r="BH8" s="10">
         <v>100</v>
       </c>
-      <c r="BI8" s="10"/>
+      <c r="BI8" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ8" s="10">
         <v>100</v>
       </c>
-      <c r="BK8" s="10"/>
+      <c r="BK8" s="10">
+        <v>100</v>
+      </c>
       <c r="BL8" s="10">
         <v>100</v>
       </c>
@@ -2804,11 +3026,15 @@
       <c r="BN8" s="10">
         <v>100</v>
       </c>
-      <c r="BO8" s="10"/>
+      <c r="BO8" s="10">
+        <v>100</v>
+      </c>
       <c r="BP8" s="10">
         <v>100</v>
       </c>
-      <c r="BQ8" s="10"/>
+      <c r="BQ8" s="10">
+        <v>100</v>
+      </c>
       <c r="BR8" s="10">
         <v>100</v>
       </c>
@@ -2818,11 +3044,15 @@
       <c r="BT8" s="10">
         <v>100</v>
       </c>
-      <c r="BU8" s="10"/>
+      <c r="BU8" s="10">
+        <v>100</v>
+      </c>
       <c r="BV8" s="10">
         <v>100</v>
       </c>
-      <c r="BW8" s="10"/>
+      <c r="BW8" s="10">
+        <v>100</v>
+      </c>
       <c r="BX8" s="10">
         <v>100</v>
       </c>
@@ -2832,11 +3062,15 @@
       <c r="BZ8" s="10">
         <v>100</v>
       </c>
-      <c r="CA8" s="10"/>
+      <c r="CA8" s="10">
+        <v>100</v>
+      </c>
       <c r="CB8" s="10">
         <v>100</v>
       </c>
-      <c r="CC8" s="10"/>
+      <c r="CC8" s="10">
+        <v>100</v>
+      </c>
       <c r="CD8" s="10">
         <v>100</v>
       </c>
@@ -2860,11 +3094,15 @@
       <c r="F9" s="10">
         <v>95</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
       <c r="H9" s="10">
         <v>100</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="10">
+        <v>95</v>
+      </c>
       <c r="J9" s="10">
         <v>0</v>
       </c>
@@ -2874,11 +3112,15 @@
       <c r="L9" s="10">
         <v>95</v>
       </c>
-      <c r="M9" s="10"/>
+      <c r="M9" s="10">
+        <v>95</v>
+      </c>
       <c r="N9" s="10">
         <v>100</v>
       </c>
-      <c r="O9" s="10"/>
+      <c r="O9" s="10">
+        <v>95</v>
+      </c>
       <c r="P9" s="10">
         <v>0</v>
       </c>
@@ -2888,11 +3130,15 @@
       <c r="R9" s="10">
         <v>95</v>
       </c>
-      <c r="S9" s="10"/>
+      <c r="S9" s="10">
+        <v>95</v>
+      </c>
       <c r="T9" s="10">
         <v>100</v>
       </c>
-      <c r="U9" s="10"/>
+      <c r="U9" s="10">
+        <v>95</v>
+      </c>
       <c r="V9" s="10">
         <v>0</v>
       </c>
@@ -2902,11 +3148,15 @@
       <c r="X9" s="10">
         <v>95</v>
       </c>
-      <c r="Y9" s="10"/>
+      <c r="Y9" s="10">
+        <v>95</v>
+      </c>
       <c r="Z9" s="10">
         <v>100</v>
       </c>
-      <c r="AA9" s="10"/>
+      <c r="AA9" s="10">
+        <v>95</v>
+      </c>
       <c r="AB9" s="10">
         <v>0</v>
       </c>
@@ -2916,11 +3166,15 @@
       <c r="AD9" s="10">
         <v>95</v>
       </c>
-      <c r="AE9" s="10"/>
+      <c r="AE9" s="10">
+        <v>95</v>
+      </c>
       <c r="AF9" s="10">
         <v>100</v>
       </c>
-      <c r="AG9" s="10"/>
+      <c r="AG9" s="10">
+        <v>95</v>
+      </c>
       <c r="AH9" s="10">
         <v>0</v>
       </c>
@@ -2930,11 +3184,15 @@
       <c r="AJ9" s="10">
         <v>95</v>
       </c>
-      <c r="AK9" s="10"/>
+      <c r="AK9" s="10">
+        <v>95</v>
+      </c>
       <c r="AL9" s="10">
         <v>100</v>
       </c>
-      <c r="AM9" s="10"/>
+      <c r="AM9" s="10">
+        <v>95</v>
+      </c>
       <c r="AN9" s="10">
         <v>0</v>
       </c>
@@ -2944,11 +3202,15 @@
       <c r="AP9" s="10">
         <v>95</v>
       </c>
-      <c r="AQ9" s="10"/>
+      <c r="AQ9" s="10">
+        <v>95</v>
+      </c>
       <c r="AR9" s="10">
         <v>100</v>
       </c>
-      <c r="AS9" s="10"/>
+      <c r="AS9" s="10">
+        <v>95</v>
+      </c>
       <c r="AT9" s="10">
         <v>0</v>
       </c>
@@ -2958,11 +3220,15 @@
       <c r="AV9" s="10">
         <v>95</v>
       </c>
-      <c r="AW9" s="10"/>
+      <c r="AW9" s="10">
+        <v>95</v>
+      </c>
       <c r="AX9" s="10">
         <v>100</v>
       </c>
-      <c r="AY9" s="10"/>
+      <c r="AY9" s="10">
+        <v>95</v>
+      </c>
       <c r="AZ9" s="10">
         <v>0</v>
       </c>
@@ -2972,11 +3238,15 @@
       <c r="BB9" s="10">
         <v>95</v>
       </c>
-      <c r="BC9" s="10"/>
+      <c r="BC9" s="10">
+        <v>95</v>
+      </c>
       <c r="BD9" s="10">
         <v>100</v>
       </c>
-      <c r="BE9" s="10"/>
+      <c r="BE9" s="10">
+        <v>95</v>
+      </c>
       <c r="BF9" s="10">
         <v>0</v>
       </c>
@@ -2986,11 +3256,15 @@
       <c r="BH9" s="10">
         <v>95</v>
       </c>
-      <c r="BI9" s="10"/>
+      <c r="BI9" s="10">
+        <v>95</v>
+      </c>
       <c r="BJ9" s="10">
         <v>100</v>
       </c>
-      <c r="BK9" s="10"/>
+      <c r="BK9" s="10">
+        <v>95</v>
+      </c>
       <c r="BL9" s="10">
         <v>0</v>
       </c>
@@ -3000,11 +3274,15 @@
       <c r="BN9" s="10">
         <v>95</v>
       </c>
-      <c r="BO9" s="10"/>
+      <c r="BO9" s="10">
+        <v>95</v>
+      </c>
       <c r="BP9" s="10">
         <v>100</v>
       </c>
-      <c r="BQ9" s="10"/>
+      <c r="BQ9" s="10">
+        <v>95</v>
+      </c>
       <c r="BR9" s="10">
         <v>0</v>
       </c>
@@ -3014,11 +3292,15 @@
       <c r="BT9" s="10">
         <v>95</v>
       </c>
-      <c r="BU9" s="10"/>
+      <c r="BU9" s="10">
+        <v>95</v>
+      </c>
       <c r="BV9" s="10">
         <v>100</v>
       </c>
-      <c r="BW9" s="10"/>
+      <c r="BW9" s="10">
+        <v>95</v>
+      </c>
       <c r="BX9" s="10">
         <v>0</v>
       </c>
@@ -3028,11 +3310,15 @@
       <c r="BZ9" s="10">
         <v>95</v>
       </c>
-      <c r="CA9" s="10"/>
+      <c r="CA9" s="10">
+        <v>95</v>
+      </c>
       <c r="CB9" s="10">
         <v>100</v>
       </c>
-      <c r="CC9" s="10"/>
+      <c r="CC9" s="10">
+        <v>95</v>
+      </c>
       <c r="CD9" s="10">
         <v>0</v>
       </c>
@@ -3056,11 +3342,15 @@
       <c r="F10" s="10">
         <v>100</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
       <c r="H10" s="10">
         <v>100</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="10">
+        <v>100</v>
+      </c>
       <c r="J10" s="10">
         <v>100</v>
       </c>
@@ -3070,11 +3360,15 @@
       <c r="L10" s="10">
         <v>100</v>
       </c>
-      <c r="M10" s="10"/>
+      <c r="M10" s="10">
+        <v>100</v>
+      </c>
       <c r="N10" s="10">
         <v>100</v>
       </c>
-      <c r="O10" s="10"/>
+      <c r="O10" s="10">
+        <v>100</v>
+      </c>
       <c r="P10" s="10">
         <v>100</v>
       </c>
@@ -3084,11 +3378,15 @@
       <c r="R10" s="10">
         <v>100</v>
       </c>
-      <c r="S10" s="10"/>
+      <c r="S10" s="10">
+        <v>100</v>
+      </c>
       <c r="T10" s="10">
         <v>100</v>
       </c>
-      <c r="U10" s="10"/>
+      <c r="U10" s="10">
+        <v>100</v>
+      </c>
       <c r="V10" s="10">
         <v>100</v>
       </c>
@@ -3098,11 +3396,15 @@
       <c r="X10" s="10">
         <v>100</v>
       </c>
-      <c r="Y10" s="10"/>
+      <c r="Y10" s="10">
+        <v>100</v>
+      </c>
       <c r="Z10" s="10">
         <v>100</v>
       </c>
-      <c r="AA10" s="10"/>
+      <c r="AA10" s="10">
+        <v>100</v>
+      </c>
       <c r="AB10" s="10">
         <v>100</v>
       </c>
@@ -3112,11 +3414,15 @@
       <c r="AD10" s="10">
         <v>100</v>
       </c>
-      <c r="AE10" s="10"/>
+      <c r="AE10" s="10">
+        <v>100</v>
+      </c>
       <c r="AF10" s="10">
         <v>100</v>
       </c>
-      <c r="AG10" s="10"/>
+      <c r="AG10" s="10">
+        <v>100</v>
+      </c>
       <c r="AH10" s="10">
         <v>100</v>
       </c>
@@ -3126,11 +3432,15 @@
       <c r="AJ10" s="10">
         <v>100</v>
       </c>
-      <c r="AK10" s="10"/>
+      <c r="AK10" s="10">
+        <v>100</v>
+      </c>
       <c r="AL10" s="10">
         <v>100</v>
       </c>
-      <c r="AM10" s="10"/>
+      <c r="AM10" s="10">
+        <v>100</v>
+      </c>
       <c r="AN10" s="10">
         <v>100</v>
       </c>
@@ -3140,11 +3450,15 @@
       <c r="AP10" s="10">
         <v>100</v>
       </c>
-      <c r="AQ10" s="10"/>
+      <c r="AQ10" s="10">
+        <v>100</v>
+      </c>
       <c r="AR10" s="10">
         <v>100</v>
       </c>
-      <c r="AS10" s="10"/>
+      <c r="AS10" s="10">
+        <v>100</v>
+      </c>
       <c r="AT10" s="10">
         <v>100</v>
       </c>
@@ -3154,11 +3468,15 @@
       <c r="AV10" s="10">
         <v>100</v>
       </c>
-      <c r="AW10" s="10"/>
+      <c r="AW10" s="10">
+        <v>100</v>
+      </c>
       <c r="AX10" s="10">
         <v>100</v>
       </c>
-      <c r="AY10" s="10"/>
+      <c r="AY10" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ10" s="10">
         <v>100</v>
       </c>
@@ -3168,11 +3486,15 @@
       <c r="BB10" s="10">
         <v>100</v>
       </c>
-      <c r="BC10" s="10"/>
+      <c r="BC10" s="10">
+        <v>100</v>
+      </c>
       <c r="BD10" s="10">
         <v>100</v>
       </c>
-      <c r="BE10" s="10"/>
+      <c r="BE10" s="10">
+        <v>100</v>
+      </c>
       <c r="BF10" s="10">
         <v>100</v>
       </c>
@@ -3182,11 +3504,15 @@
       <c r="BH10" s="10">
         <v>100</v>
       </c>
-      <c r="BI10" s="10"/>
+      <c r="BI10" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ10" s="10">
         <v>100</v>
       </c>
-      <c r="BK10" s="10"/>
+      <c r="BK10" s="10">
+        <v>100</v>
+      </c>
       <c r="BL10" s="10">
         <v>100</v>
       </c>
@@ -3196,11 +3522,15 @@
       <c r="BN10" s="10">
         <v>100</v>
       </c>
-      <c r="BO10" s="10"/>
+      <c r="BO10" s="10">
+        <v>100</v>
+      </c>
       <c r="BP10" s="10">
         <v>100</v>
       </c>
-      <c r="BQ10" s="10"/>
+      <c r="BQ10" s="10">
+        <v>100</v>
+      </c>
       <c r="BR10" s="10">
         <v>100</v>
       </c>
@@ -3210,11 +3540,15 @@
       <c r="BT10" s="10">
         <v>100</v>
       </c>
-      <c r="BU10" s="10"/>
+      <c r="BU10" s="10">
+        <v>100</v>
+      </c>
       <c r="BV10" s="10">
         <v>100</v>
       </c>
-      <c r="BW10" s="10"/>
+      <c r="BW10" s="10">
+        <v>100</v>
+      </c>
       <c r="BX10" s="10">
         <v>100</v>
       </c>
@@ -3224,11 +3558,15 @@
       <c r="BZ10" s="10">
         <v>100</v>
       </c>
-      <c r="CA10" s="10"/>
+      <c r="CA10" s="10">
+        <v>100</v>
+      </c>
       <c r="CB10" s="10">
         <v>100</v>
       </c>
-      <c r="CC10" s="10"/>
+      <c r="CC10" s="10">
+        <v>100</v>
+      </c>
       <c r="CD10" s="10">
         <v>100</v>
       </c>
@@ -3252,11 +3590,15 @@
       <c r="F11" s="10">
         <v>80</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="10">
+        <v>40</v>
+      </c>
       <c r="H11" s="10">
         <v>0</v>
       </c>
-      <c r="I11" s="10"/>
+      <c r="I11" s="10">
+        <v>80</v>
+      </c>
       <c r="J11" s="10">
         <v>85</v>
       </c>
@@ -3266,11 +3608,15 @@
       <c r="L11" s="10">
         <v>80</v>
       </c>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10">
+        <v>80</v>
+      </c>
       <c r="N11" s="10">
         <v>0</v>
       </c>
-      <c r="O11" s="10"/>
+      <c r="O11" s="10">
+        <v>80</v>
+      </c>
       <c r="P11" s="10">
         <v>85</v>
       </c>
@@ -3280,11 +3626,15 @@
       <c r="R11" s="10">
         <v>80</v>
       </c>
-      <c r="S11" s="10"/>
+      <c r="S11" s="10">
+        <v>80</v>
+      </c>
       <c r="T11" s="10">
         <v>0</v>
       </c>
-      <c r="U11" s="10"/>
+      <c r="U11" s="10">
+        <v>80</v>
+      </c>
       <c r="V11" s="10">
         <v>85</v>
       </c>
@@ -3294,11 +3644,15 @@
       <c r="X11" s="10">
         <v>80</v>
       </c>
-      <c r="Y11" s="10"/>
+      <c r="Y11" s="10">
+        <v>80</v>
+      </c>
       <c r="Z11" s="10">
         <v>0</v>
       </c>
-      <c r="AA11" s="10"/>
+      <c r="AA11" s="10">
+        <v>80</v>
+      </c>
       <c r="AB11" s="10">
         <v>85</v>
       </c>
@@ -3308,11 +3662,15 @@
       <c r="AD11" s="10">
         <v>80</v>
       </c>
-      <c r="AE11" s="10"/>
+      <c r="AE11" s="10">
+        <v>80</v>
+      </c>
       <c r="AF11" s="10">
         <v>0</v>
       </c>
-      <c r="AG11" s="10"/>
+      <c r="AG11" s="10">
+        <v>80</v>
+      </c>
       <c r="AH11" s="10">
         <v>85</v>
       </c>
@@ -3322,11 +3680,15 @@
       <c r="AJ11" s="10">
         <v>80</v>
       </c>
-      <c r="AK11" s="10"/>
+      <c r="AK11" s="10">
+        <v>80</v>
+      </c>
       <c r="AL11" s="10">
         <v>0</v>
       </c>
-      <c r="AM11" s="10"/>
+      <c r="AM11" s="10">
+        <v>80</v>
+      </c>
       <c r="AN11" s="10">
         <v>85</v>
       </c>
@@ -3336,11 +3698,15 @@
       <c r="AP11" s="10">
         <v>80</v>
       </c>
-      <c r="AQ11" s="10"/>
+      <c r="AQ11" s="10">
+        <v>80</v>
+      </c>
       <c r="AR11" s="10">
         <v>0</v>
       </c>
-      <c r="AS11" s="10"/>
+      <c r="AS11" s="10">
+        <v>80</v>
+      </c>
       <c r="AT11" s="10">
         <v>85</v>
       </c>
@@ -3350,11 +3716,15 @@
       <c r="AV11" s="10">
         <v>80</v>
       </c>
-      <c r="AW11" s="10"/>
+      <c r="AW11" s="10">
+        <v>80</v>
+      </c>
       <c r="AX11" s="10">
         <v>0</v>
       </c>
-      <c r="AY11" s="10"/>
+      <c r="AY11" s="10">
+        <v>80</v>
+      </c>
       <c r="AZ11" s="10">
         <v>85</v>
       </c>
@@ -3364,11 +3734,15 @@
       <c r="BB11" s="10">
         <v>80</v>
       </c>
-      <c r="BC11" s="10"/>
+      <c r="BC11" s="10">
+        <v>80</v>
+      </c>
       <c r="BD11" s="10">
         <v>0</v>
       </c>
-      <c r="BE11" s="10"/>
+      <c r="BE11" s="10">
+        <v>80</v>
+      </c>
       <c r="BF11" s="10">
         <v>85</v>
       </c>
@@ -3378,11 +3752,15 @@
       <c r="BH11" s="10">
         <v>80</v>
       </c>
-      <c r="BI11" s="10"/>
+      <c r="BI11" s="10">
+        <v>80</v>
+      </c>
       <c r="BJ11" s="10">
         <v>0</v>
       </c>
-      <c r="BK11" s="10"/>
+      <c r="BK11" s="10">
+        <v>80</v>
+      </c>
       <c r="BL11" s="10">
         <v>85</v>
       </c>
@@ -3392,11 +3770,15 @@
       <c r="BN11" s="10">
         <v>80</v>
       </c>
-      <c r="BO11" s="10"/>
+      <c r="BO11" s="10">
+        <v>80</v>
+      </c>
       <c r="BP11" s="10">
         <v>0</v>
       </c>
-      <c r="BQ11" s="10"/>
+      <c r="BQ11" s="10">
+        <v>80</v>
+      </c>
       <c r="BR11" s="10">
         <v>85</v>
       </c>
@@ -3406,11 +3788,15 @@
       <c r="BT11" s="10">
         <v>80</v>
       </c>
-      <c r="BU11" s="10"/>
+      <c r="BU11" s="10">
+        <v>80</v>
+      </c>
       <c r="BV11" s="10">
         <v>0</v>
       </c>
-      <c r="BW11" s="10"/>
+      <c r="BW11" s="10">
+        <v>80</v>
+      </c>
       <c r="BX11" s="10">
         <v>85</v>
       </c>
@@ -3420,11 +3806,15 @@
       <c r="BZ11" s="10">
         <v>80</v>
       </c>
-      <c r="CA11" s="10"/>
+      <c r="CA11" s="10">
+        <v>80</v>
+      </c>
       <c r="CB11" s="10">
         <v>0</v>
       </c>
-      <c r="CC11" s="10"/>
+      <c r="CC11" s="10">
+        <v>80</v>
+      </c>
       <c r="CD11" s="10">
         <v>85</v>
       </c>
@@ -3448,11 +3838,15 @@
       <c r="F12" s="10">
         <v>85</v>
       </c>
-      <c r="G12" s="10"/>
+      <c r="G12" s="10">
+        <v>100</v>
+      </c>
       <c r="H12" s="10">
         <v>0</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10">
+        <v>85</v>
+      </c>
       <c r="J12" s="10">
         <v>0</v>
       </c>
@@ -3462,11 +3856,15 @@
       <c r="L12" s="10">
         <v>85</v>
       </c>
-      <c r="M12" s="10"/>
+      <c r="M12" s="10">
+        <v>85</v>
+      </c>
       <c r="N12" s="10">
         <v>0</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="10">
+        <v>85</v>
+      </c>
       <c r="P12" s="10">
         <v>0</v>
       </c>
@@ -3476,11 +3874,15 @@
       <c r="R12" s="10">
         <v>85</v>
       </c>
-      <c r="S12" s="10"/>
+      <c r="S12" s="10">
+        <v>85</v>
+      </c>
       <c r="T12" s="10">
         <v>0</v>
       </c>
-      <c r="U12" s="10"/>
+      <c r="U12" s="10">
+        <v>85</v>
+      </c>
       <c r="V12" s="10">
         <v>0</v>
       </c>
@@ -3490,11 +3892,15 @@
       <c r="X12" s="10">
         <v>85</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="10">
+        <v>85</v>
+      </c>
       <c r="Z12" s="10">
         <v>0</v>
       </c>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="10">
+        <v>85</v>
+      </c>
       <c r="AB12" s="10">
         <v>0</v>
       </c>
@@ -3504,11 +3910,15 @@
       <c r="AD12" s="10">
         <v>85</v>
       </c>
-      <c r="AE12" s="10"/>
+      <c r="AE12" s="10">
+        <v>85</v>
+      </c>
       <c r="AF12" s="10">
         <v>0</v>
       </c>
-      <c r="AG12" s="10"/>
+      <c r="AG12" s="10">
+        <v>85</v>
+      </c>
       <c r="AH12" s="10">
         <v>0</v>
       </c>
@@ -3518,11 +3928,15 @@
       <c r="AJ12" s="10">
         <v>85</v>
       </c>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="10">
+        <v>85</v>
+      </c>
       <c r="AL12" s="10">
         <v>0</v>
       </c>
-      <c r="AM12" s="10"/>
+      <c r="AM12" s="10">
+        <v>85</v>
+      </c>
       <c r="AN12" s="10">
         <v>0</v>
       </c>
@@ -3532,11 +3946,15 @@
       <c r="AP12" s="10">
         <v>85</v>
       </c>
-      <c r="AQ12" s="10"/>
+      <c r="AQ12" s="10">
+        <v>85</v>
+      </c>
       <c r="AR12" s="10">
         <v>0</v>
       </c>
-      <c r="AS12" s="10"/>
+      <c r="AS12" s="10">
+        <v>85</v>
+      </c>
       <c r="AT12" s="10">
         <v>0</v>
       </c>
@@ -3546,11 +3964,15 @@
       <c r="AV12" s="10">
         <v>85</v>
       </c>
-      <c r="AW12" s="10"/>
+      <c r="AW12" s="10">
+        <v>85</v>
+      </c>
       <c r="AX12" s="10">
         <v>0</v>
       </c>
-      <c r="AY12" s="10"/>
+      <c r="AY12" s="10">
+        <v>85</v>
+      </c>
       <c r="AZ12" s="10">
         <v>0</v>
       </c>
@@ -3560,11 +3982,15 @@
       <c r="BB12" s="10">
         <v>85</v>
       </c>
-      <c r="BC12" s="10"/>
+      <c r="BC12" s="10">
+        <v>85</v>
+      </c>
       <c r="BD12" s="10">
         <v>0</v>
       </c>
-      <c r="BE12" s="10"/>
+      <c r="BE12" s="10">
+        <v>85</v>
+      </c>
       <c r="BF12" s="10">
         <v>0</v>
       </c>
@@ -3574,11 +4000,15 @@
       <c r="BH12" s="10">
         <v>85</v>
       </c>
-      <c r="BI12" s="10"/>
+      <c r="BI12" s="10">
+        <v>85</v>
+      </c>
       <c r="BJ12" s="10">
         <v>0</v>
       </c>
-      <c r="BK12" s="10"/>
+      <c r="BK12" s="10">
+        <v>85</v>
+      </c>
       <c r="BL12" s="10">
         <v>0</v>
       </c>
@@ -3588,11 +4018,15 @@
       <c r="BN12" s="10">
         <v>85</v>
       </c>
-      <c r="BO12" s="10"/>
+      <c r="BO12" s="10">
+        <v>85</v>
+      </c>
       <c r="BP12" s="10">
         <v>0</v>
       </c>
-      <c r="BQ12" s="10"/>
+      <c r="BQ12" s="10">
+        <v>85</v>
+      </c>
       <c r="BR12" s="10">
         <v>0</v>
       </c>
@@ -3602,11 +4036,15 @@
       <c r="BT12" s="10">
         <v>85</v>
       </c>
-      <c r="BU12" s="10"/>
+      <c r="BU12" s="10">
+        <v>85</v>
+      </c>
       <c r="BV12" s="10">
         <v>0</v>
       </c>
-      <c r="BW12" s="10"/>
+      <c r="BW12" s="10">
+        <v>85</v>
+      </c>
       <c r="BX12" s="10">
         <v>0</v>
       </c>
@@ -3616,11 +4054,15 @@
       <c r="BZ12" s="10">
         <v>85</v>
       </c>
-      <c r="CA12" s="10"/>
+      <c r="CA12" s="10">
+        <v>85</v>
+      </c>
       <c r="CB12" s="10">
         <v>0</v>
       </c>
-      <c r="CC12" s="10"/>
+      <c r="CC12" s="10">
+        <v>85</v>
+      </c>
       <c r="CD12" s="10">
         <v>0</v>
       </c>
@@ -3644,11 +4086,15 @@
       <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="10"/>
+      <c r="G13" s="10">
+        <v>60</v>
+      </c>
       <c r="H13" s="10">
         <v>0</v>
       </c>
-      <c r="I13" s="10"/>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
       <c r="J13" s="10">
         <v>0</v>
       </c>
@@ -3658,11 +4104,15 @@
       <c r="L13" s="10">
         <v>0</v>
       </c>
-      <c r="M13" s="10"/>
+      <c r="M13" s="10">
+        <v>0</v>
+      </c>
       <c r="N13" s="10">
         <v>0</v>
       </c>
-      <c r="O13" s="10"/>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
       <c r="P13" s="10">
         <v>0</v>
       </c>
@@ -3672,11 +4122,15 @@
       <c r="R13" s="10">
         <v>0</v>
       </c>
-      <c r="S13" s="10"/>
+      <c r="S13" s="10">
+        <v>0</v>
+      </c>
       <c r="T13" s="10">
         <v>0</v>
       </c>
-      <c r="U13" s="10"/>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
       <c r="V13" s="10">
         <v>0</v>
       </c>
@@ -3686,11 +4140,15 @@
       <c r="X13" s="10">
         <v>0</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="10">
+        <v>0</v>
+      </c>
       <c r="Z13" s="10">
         <v>0</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="10">
+        <v>0</v>
+      </c>
       <c r="AB13" s="10">
         <v>0</v>
       </c>
@@ -3700,11 +4158,15 @@
       <c r="AD13" s="10">
         <v>0</v>
       </c>
-      <c r="AE13" s="10"/>
+      <c r="AE13" s="10">
+        <v>0</v>
+      </c>
       <c r="AF13" s="10">
         <v>0</v>
       </c>
-      <c r="AG13" s="10"/>
+      <c r="AG13" s="10">
+        <v>0</v>
+      </c>
       <c r="AH13" s="10">
         <v>0</v>
       </c>
@@ -3714,11 +4176,15 @@
       <c r="AJ13" s="10">
         <v>0</v>
       </c>
-      <c r="AK13" s="10"/>
+      <c r="AK13" s="10">
+        <v>0</v>
+      </c>
       <c r="AL13" s="10">
         <v>0</v>
       </c>
-      <c r="AM13" s="10"/>
+      <c r="AM13" s="10">
+        <v>0</v>
+      </c>
       <c r="AN13" s="10">
         <v>0</v>
       </c>
@@ -3728,11 +4194,15 @@
       <c r="AP13" s="10">
         <v>0</v>
       </c>
-      <c r="AQ13" s="10"/>
+      <c r="AQ13" s="10">
+        <v>0</v>
+      </c>
       <c r="AR13" s="10">
         <v>0</v>
       </c>
-      <c r="AS13" s="10"/>
+      <c r="AS13" s="10">
+        <v>0</v>
+      </c>
       <c r="AT13" s="10">
         <v>0</v>
       </c>
@@ -3742,11 +4212,15 @@
       <c r="AV13" s="10">
         <v>0</v>
       </c>
-      <c r="AW13" s="10"/>
+      <c r="AW13" s="10">
+        <v>0</v>
+      </c>
       <c r="AX13" s="10">
         <v>0</v>
       </c>
-      <c r="AY13" s="10"/>
+      <c r="AY13" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ13" s="10">
         <v>0</v>
       </c>
@@ -3756,11 +4230,15 @@
       <c r="BB13" s="10">
         <v>0</v>
       </c>
-      <c r="BC13" s="10"/>
+      <c r="BC13" s="10">
+        <v>0</v>
+      </c>
       <c r="BD13" s="10">
         <v>0</v>
       </c>
-      <c r="BE13" s="10"/>
+      <c r="BE13" s="10">
+        <v>0</v>
+      </c>
       <c r="BF13" s="10">
         <v>0</v>
       </c>
@@ -3770,11 +4248,15 @@
       <c r="BH13" s="10">
         <v>0</v>
       </c>
-      <c r="BI13" s="10"/>
+      <c r="BI13" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ13" s="10">
         <v>0</v>
       </c>
-      <c r="BK13" s="10"/>
+      <c r="BK13" s="10">
+        <v>0</v>
+      </c>
       <c r="BL13" s="10">
         <v>0</v>
       </c>
@@ -3784,11 +4266,15 @@
       <c r="BN13" s="10">
         <v>0</v>
       </c>
-      <c r="BO13" s="10"/>
+      <c r="BO13" s="10">
+        <v>0</v>
+      </c>
       <c r="BP13" s="10">
         <v>0</v>
       </c>
-      <c r="BQ13" s="10"/>
+      <c r="BQ13" s="10">
+        <v>0</v>
+      </c>
       <c r="BR13" s="10">
         <v>0</v>
       </c>
@@ -3798,11 +4284,15 @@
       <c r="BT13" s="10">
         <v>0</v>
       </c>
-      <c r="BU13" s="10"/>
+      <c r="BU13" s="10">
+        <v>0</v>
+      </c>
       <c r="BV13" s="10">
         <v>0</v>
       </c>
-      <c r="BW13" s="10"/>
+      <c r="BW13" s="10">
+        <v>0</v>
+      </c>
       <c r="BX13" s="10">
         <v>0</v>
       </c>
@@ -3812,11 +4302,15 @@
       <c r="BZ13" s="10">
         <v>0</v>
       </c>
-      <c r="CA13" s="10"/>
+      <c r="CA13" s="10">
+        <v>0</v>
+      </c>
       <c r="CB13" s="10">
         <v>0</v>
       </c>
-      <c r="CC13" s="10"/>
+      <c r="CC13" s="10">
+        <v>0</v>
+      </c>
       <c r="CD13" s="10">
         <v>0</v>
       </c>
@@ -3840,11 +4334,15 @@
       <c r="F14" s="10">
         <v>70</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="10">
+        <v>100</v>
+      </c>
       <c r="H14" s="10">
         <v>0</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10">
+        <v>70</v>
+      </c>
       <c r="J14" s="10">
         <v>40</v>
       </c>
@@ -3854,11 +4352,15 @@
       <c r="L14" s="10">
         <v>70</v>
       </c>
-      <c r="M14" s="10"/>
+      <c r="M14" s="10">
+        <v>70</v>
+      </c>
       <c r="N14" s="10">
         <v>0</v>
       </c>
-      <c r="O14" s="10"/>
+      <c r="O14" s="10">
+        <v>70</v>
+      </c>
       <c r="P14" s="10">
         <v>40</v>
       </c>
@@ -3868,11 +4370,15 @@
       <c r="R14" s="10">
         <v>70</v>
       </c>
-      <c r="S14" s="10"/>
+      <c r="S14" s="10">
+        <v>70</v>
+      </c>
       <c r="T14" s="10">
         <v>0</v>
       </c>
-      <c r="U14" s="10"/>
+      <c r="U14" s="10">
+        <v>70</v>
+      </c>
       <c r="V14" s="10">
         <v>40</v>
       </c>
@@ -3882,11 +4388,15 @@
       <c r="X14" s="10">
         <v>70</v>
       </c>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="10">
+        <v>70</v>
+      </c>
       <c r="Z14" s="10">
         <v>0</v>
       </c>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="10">
+        <v>70</v>
+      </c>
       <c r="AB14" s="10">
         <v>40</v>
       </c>
@@ -3896,11 +4406,15 @@
       <c r="AD14" s="10">
         <v>70</v>
       </c>
-      <c r="AE14" s="10"/>
+      <c r="AE14" s="10">
+        <v>70</v>
+      </c>
       <c r="AF14" s="10">
         <v>0</v>
       </c>
-      <c r="AG14" s="10"/>
+      <c r="AG14" s="10">
+        <v>70</v>
+      </c>
       <c r="AH14" s="10">
         <v>40</v>
       </c>
@@ -3910,11 +4424,15 @@
       <c r="AJ14" s="10">
         <v>70</v>
       </c>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="10">
+        <v>70</v>
+      </c>
       <c r="AL14" s="10">
         <v>0</v>
       </c>
-      <c r="AM14" s="10"/>
+      <c r="AM14" s="10">
+        <v>70</v>
+      </c>
       <c r="AN14" s="10">
         <v>40</v>
       </c>
@@ -3924,11 +4442,15 @@
       <c r="AP14" s="10">
         <v>70</v>
       </c>
-      <c r="AQ14" s="10"/>
+      <c r="AQ14" s="10">
+        <v>70</v>
+      </c>
       <c r="AR14" s="10">
         <v>0</v>
       </c>
-      <c r="AS14" s="10"/>
+      <c r="AS14" s="10">
+        <v>70</v>
+      </c>
       <c r="AT14" s="10">
         <v>40</v>
       </c>
@@ -3938,11 +4460,15 @@
       <c r="AV14" s="10">
         <v>70</v>
       </c>
-      <c r="AW14" s="10"/>
+      <c r="AW14" s="10">
+        <v>70</v>
+      </c>
       <c r="AX14" s="10">
         <v>0</v>
       </c>
-      <c r="AY14" s="10"/>
+      <c r="AY14" s="10">
+        <v>70</v>
+      </c>
       <c r="AZ14" s="10">
         <v>40</v>
       </c>
@@ -3952,11 +4478,15 @@
       <c r="BB14" s="10">
         <v>70</v>
       </c>
-      <c r="BC14" s="10"/>
+      <c r="BC14" s="10">
+        <v>70</v>
+      </c>
       <c r="BD14" s="10">
         <v>0</v>
       </c>
-      <c r="BE14" s="10"/>
+      <c r="BE14" s="10">
+        <v>70</v>
+      </c>
       <c r="BF14" s="10">
         <v>40</v>
       </c>
@@ -3966,11 +4496,15 @@
       <c r="BH14" s="10">
         <v>70</v>
       </c>
-      <c r="BI14" s="10"/>
+      <c r="BI14" s="10">
+        <v>70</v>
+      </c>
       <c r="BJ14" s="10">
         <v>0</v>
       </c>
-      <c r="BK14" s="10"/>
+      <c r="BK14" s="10">
+        <v>70</v>
+      </c>
       <c r="BL14" s="10">
         <v>40</v>
       </c>
@@ -3980,11 +4514,15 @@
       <c r="BN14" s="10">
         <v>70</v>
       </c>
-      <c r="BO14" s="10"/>
+      <c r="BO14" s="10">
+        <v>70</v>
+      </c>
       <c r="BP14" s="10">
         <v>0</v>
       </c>
-      <c r="BQ14" s="10"/>
+      <c r="BQ14" s="10">
+        <v>70</v>
+      </c>
       <c r="BR14" s="10">
         <v>40</v>
       </c>
@@ -3994,11 +4532,15 @@
       <c r="BT14" s="10">
         <v>70</v>
       </c>
-      <c r="BU14" s="10"/>
+      <c r="BU14" s="10">
+        <v>70</v>
+      </c>
       <c r="BV14" s="10">
         <v>0</v>
       </c>
-      <c r="BW14" s="10"/>
+      <c r="BW14" s="10">
+        <v>70</v>
+      </c>
       <c r="BX14" s="10">
         <v>40</v>
       </c>
@@ -4008,11 +4550,15 @@
       <c r="BZ14" s="10">
         <v>70</v>
       </c>
-      <c r="CA14" s="10"/>
+      <c r="CA14" s="10">
+        <v>70</v>
+      </c>
       <c r="CB14" s="10">
         <v>0</v>
       </c>
-      <c r="CC14" s="10"/>
+      <c r="CC14" s="10">
+        <v>70</v>
+      </c>
       <c r="CD14" s="10">
         <v>40</v>
       </c>
@@ -4036,11 +4582,15 @@
       <c r="F15" s="10">
         <v>100</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
       <c r="H15" s="10">
         <v>100</v>
       </c>
-      <c r="I15" s="10"/>
+      <c r="I15" s="10">
+        <v>100</v>
+      </c>
       <c r="J15" s="10">
         <v>100</v>
       </c>
@@ -4050,11 +4600,15 @@
       <c r="L15" s="10">
         <v>100</v>
       </c>
-      <c r="M15" s="10"/>
+      <c r="M15" s="10">
+        <v>100</v>
+      </c>
       <c r="N15" s="10">
         <v>100</v>
       </c>
-      <c r="O15" s="10"/>
+      <c r="O15" s="10">
+        <v>100</v>
+      </c>
       <c r="P15" s="10">
         <v>100</v>
       </c>
@@ -4064,11 +4618,15 @@
       <c r="R15" s="10">
         <v>100</v>
       </c>
-      <c r="S15" s="10"/>
+      <c r="S15" s="10">
+        <v>100</v>
+      </c>
       <c r="T15" s="10">
         <v>100</v>
       </c>
-      <c r="U15" s="10"/>
+      <c r="U15" s="10">
+        <v>100</v>
+      </c>
       <c r="V15" s="10">
         <v>100</v>
       </c>
@@ -4078,11 +4636,15 @@
       <c r="X15" s="10">
         <v>100</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="10">
+        <v>100</v>
+      </c>
       <c r="Z15" s="10">
         <v>100</v>
       </c>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="10">
+        <v>100</v>
+      </c>
       <c r="AB15" s="10">
         <v>100</v>
       </c>
@@ -4092,11 +4654,15 @@
       <c r="AD15" s="10">
         <v>100</v>
       </c>
-      <c r="AE15" s="10"/>
+      <c r="AE15" s="10">
+        <v>100</v>
+      </c>
       <c r="AF15" s="10">
         <v>100</v>
       </c>
-      <c r="AG15" s="10"/>
+      <c r="AG15" s="10">
+        <v>100</v>
+      </c>
       <c r="AH15" s="10">
         <v>100</v>
       </c>
@@ -4106,11 +4672,15 @@
       <c r="AJ15" s="10">
         <v>100</v>
       </c>
-      <c r="AK15" s="10"/>
+      <c r="AK15" s="10">
+        <v>100</v>
+      </c>
       <c r="AL15" s="10">
         <v>100</v>
       </c>
-      <c r="AM15" s="10"/>
+      <c r="AM15" s="10">
+        <v>100</v>
+      </c>
       <c r="AN15" s="10">
         <v>100</v>
       </c>
@@ -4120,11 +4690,15 @@
       <c r="AP15" s="10">
         <v>100</v>
       </c>
-      <c r="AQ15" s="10"/>
+      <c r="AQ15" s="10">
+        <v>100</v>
+      </c>
       <c r="AR15" s="10">
         <v>100</v>
       </c>
-      <c r="AS15" s="10"/>
+      <c r="AS15" s="10">
+        <v>100</v>
+      </c>
       <c r="AT15" s="10">
         <v>100</v>
       </c>
@@ -4134,11 +4708,15 @@
       <c r="AV15" s="10">
         <v>100</v>
       </c>
-      <c r="AW15" s="10"/>
+      <c r="AW15" s="10">
+        <v>100</v>
+      </c>
       <c r="AX15" s="10">
         <v>100</v>
       </c>
-      <c r="AY15" s="10"/>
+      <c r="AY15" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ15" s="10">
         <v>100</v>
       </c>
@@ -4148,11 +4726,15 @@
       <c r="BB15" s="10">
         <v>100</v>
       </c>
-      <c r="BC15" s="10"/>
+      <c r="BC15" s="10">
+        <v>100</v>
+      </c>
       <c r="BD15" s="10">
         <v>100</v>
       </c>
-      <c r="BE15" s="10"/>
+      <c r="BE15" s="10">
+        <v>100</v>
+      </c>
       <c r="BF15" s="10">
         <v>100</v>
       </c>
@@ -4162,11 +4744,15 @@
       <c r="BH15" s="10">
         <v>100</v>
       </c>
-      <c r="BI15" s="10"/>
+      <c r="BI15" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ15" s="10">
         <v>100</v>
       </c>
-      <c r="BK15" s="10"/>
+      <c r="BK15" s="10">
+        <v>100</v>
+      </c>
       <c r="BL15" s="10">
         <v>100</v>
       </c>
@@ -4176,11 +4762,15 @@
       <c r="BN15" s="10">
         <v>100</v>
       </c>
-      <c r="BO15" s="10"/>
+      <c r="BO15" s="10">
+        <v>100</v>
+      </c>
       <c r="BP15" s="10">
         <v>100</v>
       </c>
-      <c r="BQ15" s="10"/>
+      <c r="BQ15" s="10">
+        <v>100</v>
+      </c>
       <c r="BR15" s="10">
         <v>100</v>
       </c>
@@ -4190,11 +4780,15 @@
       <c r="BT15" s="10">
         <v>100</v>
       </c>
-      <c r="BU15" s="10"/>
+      <c r="BU15" s="10">
+        <v>100</v>
+      </c>
       <c r="BV15" s="10">
         <v>100</v>
       </c>
-      <c r="BW15" s="10"/>
+      <c r="BW15" s="10">
+        <v>100</v>
+      </c>
       <c r="BX15" s="10">
         <v>100</v>
       </c>
@@ -4204,11 +4798,15 @@
       <c r="BZ15" s="10">
         <v>100</v>
       </c>
-      <c r="CA15" s="10"/>
+      <c r="CA15" s="10">
+        <v>100</v>
+      </c>
       <c r="CB15" s="10">
         <v>100</v>
       </c>
-      <c r="CC15" s="10"/>
+      <c r="CC15" s="10">
+        <v>100</v>
+      </c>
       <c r="CD15" s="10">
         <v>100</v>
       </c>
@@ -4232,11 +4830,15 @@
       <c r="F16" s="10">
         <v>0</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="10">
+        <v>80</v>
+      </c>
       <c r="H16" s="10">
         <v>97</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="10">
+        <v>0</v>
+      </c>
       <c r="J16" s="10">
         <v>60</v>
       </c>
@@ -4246,11 +4848,15 @@
       <c r="L16" s="10">
         <v>0</v>
       </c>
-      <c r="M16" s="10"/>
+      <c r="M16" s="10">
+        <v>0</v>
+      </c>
       <c r="N16" s="10">
         <v>97</v>
       </c>
-      <c r="O16" s="10"/>
+      <c r="O16" s="10">
+        <v>0</v>
+      </c>
       <c r="P16" s="10">
         <v>60</v>
       </c>
@@ -4260,11 +4866,15 @@
       <c r="R16" s="10">
         <v>0</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
       <c r="T16" s="10">
         <v>97</v>
       </c>
-      <c r="U16" s="10"/>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
       <c r="V16" s="10">
         <v>60</v>
       </c>
@@ -4274,11 +4884,15 @@
       <c r="X16" s="10">
         <v>0</v>
       </c>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="10">
+        <v>0</v>
+      </c>
       <c r="Z16" s="10">
         <v>97</v>
       </c>
-      <c r="AA16" s="10"/>
+      <c r="AA16" s="10">
+        <v>0</v>
+      </c>
       <c r="AB16" s="10">
         <v>60</v>
       </c>
@@ -4288,11 +4902,15 @@
       <c r="AD16" s="10">
         <v>0</v>
       </c>
-      <c r="AE16" s="10"/>
+      <c r="AE16" s="10">
+        <v>0</v>
+      </c>
       <c r="AF16" s="10">
         <v>97</v>
       </c>
-      <c r="AG16" s="10"/>
+      <c r="AG16" s="10">
+        <v>0</v>
+      </c>
       <c r="AH16" s="10">
         <v>60</v>
       </c>
@@ -4302,11 +4920,15 @@
       <c r="AJ16" s="10">
         <v>0</v>
       </c>
-      <c r="AK16" s="10"/>
+      <c r="AK16" s="10">
+        <v>0</v>
+      </c>
       <c r="AL16" s="10">
         <v>97</v>
       </c>
-      <c r="AM16" s="10"/>
+      <c r="AM16" s="10">
+        <v>0</v>
+      </c>
       <c r="AN16" s="10">
         <v>60</v>
       </c>
@@ -4316,11 +4938,15 @@
       <c r="AP16" s="10">
         <v>0</v>
       </c>
-      <c r="AQ16" s="10"/>
+      <c r="AQ16" s="10">
+        <v>0</v>
+      </c>
       <c r="AR16" s="10">
         <v>97</v>
       </c>
-      <c r="AS16" s="10"/>
+      <c r="AS16" s="10">
+        <v>0</v>
+      </c>
       <c r="AT16" s="10">
         <v>60</v>
       </c>
@@ -4330,11 +4956,15 @@
       <c r="AV16" s="10">
         <v>0</v>
       </c>
-      <c r="AW16" s="10"/>
+      <c r="AW16" s="10">
+        <v>0</v>
+      </c>
       <c r="AX16" s="10">
         <v>97</v>
       </c>
-      <c r="AY16" s="10"/>
+      <c r="AY16" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ16" s="10">
         <v>60</v>
       </c>
@@ -4344,11 +4974,15 @@
       <c r="BB16" s="10">
         <v>0</v>
       </c>
-      <c r="BC16" s="10"/>
+      <c r="BC16" s="10">
+        <v>0</v>
+      </c>
       <c r="BD16" s="10">
         <v>97</v>
       </c>
-      <c r="BE16" s="10"/>
+      <c r="BE16" s="10">
+        <v>0</v>
+      </c>
       <c r="BF16" s="10">
         <v>60</v>
       </c>
@@ -4358,11 +4992,15 @@
       <c r="BH16" s="10">
         <v>0</v>
       </c>
-      <c r="BI16" s="10"/>
+      <c r="BI16" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ16" s="10">
         <v>97</v>
       </c>
-      <c r="BK16" s="10"/>
+      <c r="BK16" s="10">
+        <v>0</v>
+      </c>
       <c r="BL16" s="10">
         <v>60</v>
       </c>
@@ -4372,11 +5010,15 @@
       <c r="BN16" s="10">
         <v>0</v>
       </c>
-      <c r="BO16" s="10"/>
+      <c r="BO16" s="10">
+        <v>0</v>
+      </c>
       <c r="BP16" s="10">
         <v>97</v>
       </c>
-      <c r="BQ16" s="10"/>
+      <c r="BQ16" s="10">
+        <v>0</v>
+      </c>
       <c r="BR16" s="10">
         <v>60</v>
       </c>
@@ -4386,11 +5028,15 @@
       <c r="BT16" s="10">
         <v>0</v>
       </c>
-      <c r="BU16" s="10"/>
+      <c r="BU16" s="10">
+        <v>0</v>
+      </c>
       <c r="BV16" s="10">
         <v>97</v>
       </c>
-      <c r="BW16" s="10"/>
+      <c r="BW16" s="10">
+        <v>0</v>
+      </c>
       <c r="BX16" s="10">
         <v>60</v>
       </c>
@@ -4400,11 +5046,15 @@
       <c r="BZ16" s="10">
         <v>0</v>
       </c>
-      <c r="CA16" s="10"/>
+      <c r="CA16" s="10">
+        <v>0</v>
+      </c>
       <c r="CB16" s="10">
         <v>97</v>
       </c>
-      <c r="CC16" s="10"/>
+      <c r="CC16" s="10">
+        <v>0</v>
+      </c>
       <c r="CD16" s="10">
         <v>60</v>
       </c>
@@ -4428,11 +5078,15 @@
       <c r="F17" s="10">
         <v>100</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
       <c r="H17" s="10">
         <v>100</v>
       </c>
-      <c r="I17" s="10"/>
+      <c r="I17" s="10">
+        <v>100</v>
+      </c>
       <c r="J17" s="10">
         <v>100</v>
       </c>
@@ -4442,11 +5096,15 @@
       <c r="L17" s="10">
         <v>100</v>
       </c>
-      <c r="M17" s="10"/>
+      <c r="M17" s="10">
+        <v>100</v>
+      </c>
       <c r="N17" s="10">
         <v>100</v>
       </c>
-      <c r="O17" s="10"/>
+      <c r="O17" s="10">
+        <v>100</v>
+      </c>
       <c r="P17" s="10">
         <v>100</v>
       </c>
@@ -4456,11 +5114,15 @@
       <c r="R17" s="10">
         <v>100</v>
       </c>
-      <c r="S17" s="10"/>
+      <c r="S17" s="10">
+        <v>100</v>
+      </c>
       <c r="T17" s="10">
         <v>100</v>
       </c>
-      <c r="U17" s="10"/>
+      <c r="U17" s="10">
+        <v>100</v>
+      </c>
       <c r="V17" s="10">
         <v>100</v>
       </c>
@@ -4470,11 +5132,15 @@
       <c r="X17" s="10">
         <v>100</v>
       </c>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="10">
+        <v>100</v>
+      </c>
       <c r="Z17" s="10">
         <v>100</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="10">
+        <v>100</v>
+      </c>
       <c r="AB17" s="10">
         <v>100</v>
       </c>
@@ -4484,11 +5150,15 @@
       <c r="AD17" s="10">
         <v>100</v>
       </c>
-      <c r="AE17" s="10"/>
+      <c r="AE17" s="10">
+        <v>100</v>
+      </c>
       <c r="AF17" s="10">
         <v>100</v>
       </c>
-      <c r="AG17" s="10"/>
+      <c r="AG17" s="10">
+        <v>100</v>
+      </c>
       <c r="AH17" s="10">
         <v>100</v>
       </c>
@@ -4498,11 +5168,15 @@
       <c r="AJ17" s="10">
         <v>100</v>
       </c>
-      <c r="AK17" s="10"/>
+      <c r="AK17" s="10">
+        <v>100</v>
+      </c>
       <c r="AL17" s="10">
         <v>100</v>
       </c>
-      <c r="AM17" s="10"/>
+      <c r="AM17" s="10">
+        <v>100</v>
+      </c>
       <c r="AN17" s="10">
         <v>100</v>
       </c>
@@ -4512,11 +5186,15 @@
       <c r="AP17" s="10">
         <v>100</v>
       </c>
-      <c r="AQ17" s="10"/>
+      <c r="AQ17" s="10">
+        <v>100</v>
+      </c>
       <c r="AR17" s="10">
         <v>100</v>
       </c>
-      <c r="AS17" s="10"/>
+      <c r="AS17" s="10">
+        <v>100</v>
+      </c>
       <c r="AT17" s="10">
         <v>100</v>
       </c>
@@ -4526,11 +5204,15 @@
       <c r="AV17" s="10">
         <v>100</v>
       </c>
-      <c r="AW17" s="10"/>
+      <c r="AW17" s="10">
+        <v>100</v>
+      </c>
       <c r="AX17" s="10">
         <v>100</v>
       </c>
-      <c r="AY17" s="10"/>
+      <c r="AY17" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ17" s="10">
         <v>100</v>
       </c>
@@ -4540,11 +5222,15 @@
       <c r="BB17" s="10">
         <v>100</v>
       </c>
-      <c r="BC17" s="10"/>
+      <c r="BC17" s="10">
+        <v>100</v>
+      </c>
       <c r="BD17" s="10">
         <v>100</v>
       </c>
-      <c r="BE17" s="10"/>
+      <c r="BE17" s="10">
+        <v>100</v>
+      </c>
       <c r="BF17" s="10">
         <v>100</v>
       </c>
@@ -4554,11 +5240,15 @@
       <c r="BH17" s="10">
         <v>100</v>
       </c>
-      <c r="BI17" s="10"/>
+      <c r="BI17" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ17" s="10">
         <v>100</v>
       </c>
-      <c r="BK17" s="10"/>
+      <c r="BK17" s="10">
+        <v>100</v>
+      </c>
       <c r="BL17" s="10">
         <v>100</v>
       </c>
@@ -4568,11 +5258,15 @@
       <c r="BN17" s="10">
         <v>100</v>
       </c>
-      <c r="BO17" s="10"/>
+      <c r="BO17" s="10">
+        <v>100</v>
+      </c>
       <c r="BP17" s="10">
         <v>100</v>
       </c>
-      <c r="BQ17" s="10"/>
+      <c r="BQ17" s="10">
+        <v>100</v>
+      </c>
       <c r="BR17" s="10">
         <v>100</v>
       </c>
@@ -4582,11 +5276,15 @@
       <c r="BT17" s="10">
         <v>100</v>
       </c>
-      <c r="BU17" s="10"/>
+      <c r="BU17" s="10">
+        <v>100</v>
+      </c>
       <c r="BV17" s="10">
         <v>100</v>
       </c>
-      <c r="BW17" s="10"/>
+      <c r="BW17" s="10">
+        <v>100</v>
+      </c>
       <c r="BX17" s="10">
         <v>100</v>
       </c>
@@ -4596,11 +5294,15 @@
       <c r="BZ17" s="10">
         <v>100</v>
       </c>
-      <c r="CA17" s="10"/>
+      <c r="CA17" s="10">
+        <v>100</v>
+      </c>
       <c r="CB17" s="10">
         <v>100</v>
       </c>
-      <c r="CC17" s="10"/>
+      <c r="CC17" s="10">
+        <v>100</v>
+      </c>
       <c r="CD17" s="10">
         <v>100</v>
       </c>
@@ -4624,11 +5326,15 @@
       <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10">
+        <v>90</v>
+      </c>
       <c r="H18" s="10">
         <v>0</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="10">
+        <v>0</v>
+      </c>
       <c r="J18" s="10">
         <v>0</v>
       </c>
@@ -4638,11 +5344,15 @@
       <c r="L18" s="10">
         <v>0</v>
       </c>
-      <c r="M18" s="10"/>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
       <c r="N18" s="10">
         <v>0</v>
       </c>
-      <c r="O18" s="10"/>
+      <c r="O18" s="10">
+        <v>0</v>
+      </c>
       <c r="P18" s="10">
         <v>0</v>
       </c>
@@ -4652,11 +5362,15 @@
       <c r="R18" s="10">
         <v>0</v>
       </c>
-      <c r="S18" s="10"/>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
       <c r="T18" s="10">
         <v>0</v>
       </c>
-      <c r="U18" s="10"/>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
       <c r="V18" s="10">
         <v>0</v>
       </c>
@@ -4666,11 +5380,15 @@
       <c r="X18" s="10">
         <v>0</v>
       </c>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="10">
+        <v>0</v>
+      </c>
       <c r="Z18" s="10">
         <v>0</v>
       </c>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="10">
+        <v>0</v>
+      </c>
       <c r="AB18" s="10">
         <v>0</v>
       </c>
@@ -4680,11 +5398,15 @@
       <c r="AD18" s="10">
         <v>0</v>
       </c>
-      <c r="AE18" s="10"/>
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
       <c r="AF18" s="10">
         <v>0</v>
       </c>
-      <c r="AG18" s="10"/>
+      <c r="AG18" s="10">
+        <v>0</v>
+      </c>
       <c r="AH18" s="10">
         <v>0</v>
       </c>
@@ -4694,11 +5416,15 @@
       <c r="AJ18" s="10">
         <v>0</v>
       </c>
-      <c r="AK18" s="10"/>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
       <c r="AL18" s="10">
         <v>0</v>
       </c>
-      <c r="AM18" s="10"/>
+      <c r="AM18" s="10">
+        <v>0</v>
+      </c>
       <c r="AN18" s="10">
         <v>0</v>
       </c>
@@ -4708,11 +5434,15 @@
       <c r="AP18" s="10">
         <v>0</v>
       </c>
-      <c r="AQ18" s="10"/>
+      <c r="AQ18" s="10">
+        <v>0</v>
+      </c>
       <c r="AR18" s="10">
         <v>0</v>
       </c>
-      <c r="AS18" s="10"/>
+      <c r="AS18" s="10">
+        <v>0</v>
+      </c>
       <c r="AT18" s="10">
         <v>0</v>
       </c>
@@ -4722,11 +5452,15 @@
       <c r="AV18" s="10">
         <v>0</v>
       </c>
-      <c r="AW18" s="10"/>
+      <c r="AW18" s="10">
+        <v>0</v>
+      </c>
       <c r="AX18" s="10">
         <v>0</v>
       </c>
-      <c r="AY18" s="10"/>
+      <c r="AY18" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ18" s="10">
         <v>0</v>
       </c>
@@ -4736,11 +5470,15 @@
       <c r="BB18" s="10">
         <v>0</v>
       </c>
-      <c r="BC18" s="10"/>
+      <c r="BC18" s="10">
+        <v>0</v>
+      </c>
       <c r="BD18" s="10">
         <v>0</v>
       </c>
-      <c r="BE18" s="10"/>
+      <c r="BE18" s="10">
+        <v>0</v>
+      </c>
       <c r="BF18" s="10">
         <v>0</v>
       </c>
@@ -4750,11 +5488,15 @@
       <c r="BH18" s="10">
         <v>0</v>
       </c>
-      <c r="BI18" s="10"/>
+      <c r="BI18" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ18" s="10">
         <v>0</v>
       </c>
-      <c r="BK18" s="10"/>
+      <c r="BK18" s="10">
+        <v>0</v>
+      </c>
       <c r="BL18" s="10">
         <v>0</v>
       </c>
@@ -4764,11 +5506,15 @@
       <c r="BN18" s="10">
         <v>0</v>
       </c>
-      <c r="BO18" s="10"/>
+      <c r="BO18" s="10">
+        <v>0</v>
+      </c>
       <c r="BP18" s="10">
         <v>0</v>
       </c>
-      <c r="BQ18" s="10"/>
+      <c r="BQ18" s="10">
+        <v>0</v>
+      </c>
       <c r="BR18" s="10">
         <v>0</v>
       </c>
@@ -4778,11 +5524,15 @@
       <c r="BT18" s="10">
         <v>0</v>
       </c>
-      <c r="BU18" s="10"/>
+      <c r="BU18" s="10">
+        <v>0</v>
+      </c>
       <c r="BV18" s="10">
         <v>0</v>
       </c>
-      <c r="BW18" s="10"/>
+      <c r="BW18" s="10">
+        <v>0</v>
+      </c>
       <c r="BX18" s="10">
         <v>0</v>
       </c>
@@ -4792,11 +5542,15 @@
       <c r="BZ18" s="10">
         <v>0</v>
       </c>
-      <c r="CA18" s="10"/>
+      <c r="CA18" s="10">
+        <v>0</v>
+      </c>
       <c r="CB18" s="10">
         <v>0</v>
       </c>
-      <c r="CC18" s="10"/>
+      <c r="CC18" s="10">
+        <v>0</v>
+      </c>
       <c r="CD18" s="10">
         <v>0</v>
       </c>
@@ -4820,11 +5574,15 @@
       <c r="F19" s="10">
         <v>95</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10">
+        <v>90</v>
+      </c>
       <c r="H19" s="10">
         <v>100</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10">
+        <v>95</v>
+      </c>
       <c r="J19" s="10">
         <v>80</v>
       </c>
@@ -4834,11 +5592,15 @@
       <c r="L19" s="10">
         <v>95</v>
       </c>
-      <c r="M19" s="10"/>
+      <c r="M19" s="10">
+        <v>95</v>
+      </c>
       <c r="N19" s="10">
         <v>100</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10">
+        <v>95</v>
+      </c>
       <c r="P19" s="10">
         <v>80</v>
       </c>
@@ -4848,11 +5610,15 @@
       <c r="R19" s="10">
         <v>95</v>
       </c>
-      <c r="S19" s="10"/>
+      <c r="S19" s="10">
+        <v>95</v>
+      </c>
       <c r="T19" s="10">
         <v>100</v>
       </c>
-      <c r="U19" s="10"/>
+      <c r="U19" s="10">
+        <v>95</v>
+      </c>
       <c r="V19" s="10">
         <v>80</v>
       </c>
@@ -4862,11 +5628,15 @@
       <c r="X19" s="10">
         <v>95</v>
       </c>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="10">
+        <v>95</v>
+      </c>
       <c r="Z19" s="10">
         <v>100</v>
       </c>
-      <c r="AA19" s="10"/>
+      <c r="AA19" s="10">
+        <v>95</v>
+      </c>
       <c r="AB19" s="10">
         <v>80</v>
       </c>
@@ -4876,11 +5646,15 @@
       <c r="AD19" s="10">
         <v>95</v>
       </c>
-      <c r="AE19" s="10"/>
+      <c r="AE19" s="10">
+        <v>95</v>
+      </c>
       <c r="AF19" s="10">
         <v>100</v>
       </c>
-      <c r="AG19" s="10"/>
+      <c r="AG19" s="10">
+        <v>95</v>
+      </c>
       <c r="AH19" s="10">
         <v>80</v>
       </c>
@@ -4890,11 +5664,15 @@
       <c r="AJ19" s="10">
         <v>95</v>
       </c>
-      <c r="AK19" s="10"/>
+      <c r="AK19" s="10">
+        <v>95</v>
+      </c>
       <c r="AL19" s="10">
         <v>100</v>
       </c>
-      <c r="AM19" s="10"/>
+      <c r="AM19" s="10">
+        <v>95</v>
+      </c>
       <c r="AN19" s="10">
         <v>80</v>
       </c>
@@ -4904,11 +5682,15 @@
       <c r="AP19" s="10">
         <v>95</v>
       </c>
-      <c r="AQ19" s="10"/>
+      <c r="AQ19" s="10">
+        <v>95</v>
+      </c>
       <c r="AR19" s="10">
         <v>100</v>
       </c>
-      <c r="AS19" s="10"/>
+      <c r="AS19" s="10">
+        <v>95</v>
+      </c>
       <c r="AT19" s="10">
         <v>80</v>
       </c>
@@ -4918,11 +5700,15 @@
       <c r="AV19" s="10">
         <v>95</v>
       </c>
-      <c r="AW19" s="10"/>
+      <c r="AW19" s="10">
+        <v>95</v>
+      </c>
       <c r="AX19" s="10">
         <v>100</v>
       </c>
-      <c r="AY19" s="10"/>
+      <c r="AY19" s="10">
+        <v>95</v>
+      </c>
       <c r="AZ19" s="10">
         <v>80</v>
       </c>
@@ -4932,11 +5718,15 @@
       <c r="BB19" s="10">
         <v>95</v>
       </c>
-      <c r="BC19" s="10"/>
+      <c r="BC19" s="10">
+        <v>95</v>
+      </c>
       <c r="BD19" s="10">
         <v>100</v>
       </c>
-      <c r="BE19" s="10"/>
+      <c r="BE19" s="10">
+        <v>95</v>
+      </c>
       <c r="BF19" s="10">
         <v>80</v>
       </c>
@@ -4946,11 +5736,15 @@
       <c r="BH19" s="10">
         <v>95</v>
       </c>
-      <c r="BI19" s="10"/>
+      <c r="BI19" s="10">
+        <v>95</v>
+      </c>
       <c r="BJ19" s="10">
         <v>100</v>
       </c>
-      <c r="BK19" s="10"/>
+      <c r="BK19" s="10">
+        <v>95</v>
+      </c>
       <c r="BL19" s="10">
         <v>80</v>
       </c>
@@ -4960,11 +5754,15 @@
       <c r="BN19" s="10">
         <v>95</v>
       </c>
-      <c r="BO19" s="10"/>
+      <c r="BO19" s="10">
+        <v>95</v>
+      </c>
       <c r="BP19" s="10">
         <v>100</v>
       </c>
-      <c r="BQ19" s="10"/>
+      <c r="BQ19" s="10">
+        <v>95</v>
+      </c>
       <c r="BR19" s="10">
         <v>80</v>
       </c>
@@ -4974,11 +5772,15 @@
       <c r="BT19" s="10">
         <v>95</v>
       </c>
-      <c r="BU19" s="10"/>
+      <c r="BU19" s="10">
+        <v>95</v>
+      </c>
       <c r="BV19" s="10">
         <v>100</v>
       </c>
-      <c r="BW19" s="10"/>
+      <c r="BW19" s="10">
+        <v>95</v>
+      </c>
       <c r="BX19" s="10">
         <v>80</v>
       </c>
@@ -4988,11 +5790,15 @@
       <c r="BZ19" s="10">
         <v>95</v>
       </c>
-      <c r="CA19" s="10"/>
+      <c r="CA19" s="10">
+        <v>95</v>
+      </c>
       <c r="CB19" s="10">
         <v>100</v>
       </c>
-      <c r="CC19" s="10"/>
+      <c r="CC19" s="10">
+        <v>95</v>
+      </c>
       <c r="CD19" s="10">
         <v>80</v>
       </c>
@@ -5016,11 +5822,15 @@
       <c r="F20" s="10">
         <v>0</v>
       </c>
-      <c r="G20" s="10"/>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
       <c r="H20" s="10">
         <v>95</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
       <c r="J20" s="10">
         <v>0</v>
       </c>
@@ -5030,11 +5840,15 @@
       <c r="L20" s="10">
         <v>0</v>
       </c>
-      <c r="M20" s="10"/>
+      <c r="M20" s="10">
+        <v>0</v>
+      </c>
       <c r="N20" s="10">
         <v>95</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
       <c r="P20" s="10">
         <v>0</v>
       </c>
@@ -5044,11 +5858,15 @@
       <c r="R20" s="10">
         <v>0</v>
       </c>
-      <c r="S20" s="10"/>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
       <c r="T20" s="10">
         <v>95</v>
       </c>
-      <c r="U20" s="10"/>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
       <c r="V20" s="10">
         <v>0</v>
       </c>
@@ -5058,11 +5876,15 @@
       <c r="X20" s="10">
         <v>0</v>
       </c>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="10">
+        <v>0</v>
+      </c>
       <c r="Z20" s="10">
         <v>95</v>
       </c>
-      <c r="AA20" s="10"/>
+      <c r="AA20" s="10">
+        <v>0</v>
+      </c>
       <c r="AB20" s="10">
         <v>0</v>
       </c>
@@ -5072,11 +5894,15 @@
       <c r="AD20" s="10">
         <v>0</v>
       </c>
-      <c r="AE20" s="10"/>
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
       <c r="AF20" s="10">
         <v>95</v>
       </c>
-      <c r="AG20" s="10"/>
+      <c r="AG20" s="10">
+        <v>0</v>
+      </c>
       <c r="AH20" s="10">
         <v>0</v>
       </c>
@@ -5086,11 +5912,15 @@
       <c r="AJ20" s="10">
         <v>0</v>
       </c>
-      <c r="AK20" s="10"/>
+      <c r="AK20" s="10">
+        <v>0</v>
+      </c>
       <c r="AL20" s="10">
         <v>95</v>
       </c>
-      <c r="AM20" s="10"/>
+      <c r="AM20" s="10">
+        <v>0</v>
+      </c>
       <c r="AN20" s="10">
         <v>0</v>
       </c>
@@ -5100,11 +5930,15 @@
       <c r="AP20" s="10">
         <v>0</v>
       </c>
-      <c r="AQ20" s="10"/>
+      <c r="AQ20" s="10">
+        <v>0</v>
+      </c>
       <c r="AR20" s="10">
         <v>95</v>
       </c>
-      <c r="AS20" s="10"/>
+      <c r="AS20" s="10">
+        <v>0</v>
+      </c>
       <c r="AT20" s="10">
         <v>0</v>
       </c>
@@ -5114,11 +5948,15 @@
       <c r="AV20" s="10">
         <v>0</v>
       </c>
-      <c r="AW20" s="10"/>
+      <c r="AW20" s="10">
+        <v>0</v>
+      </c>
       <c r="AX20" s="10">
         <v>95</v>
       </c>
-      <c r="AY20" s="10"/>
+      <c r="AY20" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ20" s="10">
         <v>0</v>
       </c>
@@ -5128,11 +5966,15 @@
       <c r="BB20" s="10">
         <v>0</v>
       </c>
-      <c r="BC20" s="10"/>
+      <c r="BC20" s="10">
+        <v>0</v>
+      </c>
       <c r="BD20" s="10">
         <v>95</v>
       </c>
-      <c r="BE20" s="10"/>
+      <c r="BE20" s="10">
+        <v>0</v>
+      </c>
       <c r="BF20" s="10">
         <v>0</v>
       </c>
@@ -5142,11 +5984,15 @@
       <c r="BH20" s="10">
         <v>0</v>
       </c>
-      <c r="BI20" s="10"/>
+      <c r="BI20" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ20" s="10">
         <v>95</v>
       </c>
-      <c r="BK20" s="10"/>
+      <c r="BK20" s="10">
+        <v>0</v>
+      </c>
       <c r="BL20" s="10">
         <v>0</v>
       </c>
@@ -5156,11 +6002,15 @@
       <c r="BN20" s="10">
         <v>0</v>
       </c>
-      <c r="BO20" s="10"/>
+      <c r="BO20" s="10">
+        <v>0</v>
+      </c>
       <c r="BP20" s="10">
         <v>95</v>
       </c>
-      <c r="BQ20" s="10"/>
+      <c r="BQ20" s="10">
+        <v>0</v>
+      </c>
       <c r="BR20" s="10">
         <v>0</v>
       </c>
@@ -5170,11 +6020,15 @@
       <c r="BT20" s="10">
         <v>0</v>
       </c>
-      <c r="BU20" s="10"/>
+      <c r="BU20" s="10">
+        <v>0</v>
+      </c>
       <c r="BV20" s="10">
         <v>95</v>
       </c>
-      <c r="BW20" s="10"/>
+      <c r="BW20" s="10">
+        <v>0</v>
+      </c>
       <c r="BX20" s="10">
         <v>0</v>
       </c>
@@ -5184,11 +6038,15 @@
       <c r="BZ20" s="10">
         <v>0</v>
       </c>
-      <c r="CA20" s="10"/>
+      <c r="CA20" s="10">
+        <v>0</v>
+      </c>
       <c r="CB20" s="10">
         <v>95</v>
       </c>
-      <c r="CC20" s="10"/>
+      <c r="CC20" s="10">
+        <v>0</v>
+      </c>
       <c r="CD20" s="10">
         <v>0</v>
       </c>
@@ -5212,11 +6070,15 @@
       <c r="F21" s="10">
         <v>100</v>
       </c>
-      <c r="G21" s="10"/>
+      <c r="G21" s="10">
+        <v>100</v>
+      </c>
       <c r="H21" s="10">
         <v>100</v>
       </c>
-      <c r="I21" s="10"/>
+      <c r="I21" s="10">
+        <v>100</v>
+      </c>
       <c r="J21" s="10">
         <v>90</v>
       </c>
@@ -5226,11 +6088,15 @@
       <c r="L21" s="10">
         <v>100</v>
       </c>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10">
+        <v>100</v>
+      </c>
       <c r="N21" s="10">
         <v>100</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10">
+        <v>100</v>
+      </c>
       <c r="P21" s="10">
         <v>90</v>
       </c>
@@ -5240,11 +6106,15 @@
       <c r="R21" s="10">
         <v>100</v>
       </c>
-      <c r="S21" s="10"/>
+      <c r="S21" s="10">
+        <v>100</v>
+      </c>
       <c r="T21" s="10">
         <v>100</v>
       </c>
-      <c r="U21" s="10"/>
+      <c r="U21" s="10">
+        <v>100</v>
+      </c>
       <c r="V21" s="10">
         <v>90</v>
       </c>
@@ -5254,11 +6124,15 @@
       <c r="X21" s="10">
         <v>100</v>
       </c>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="10">
+        <v>100</v>
+      </c>
       <c r="Z21" s="10">
         <v>100</v>
       </c>
-      <c r="AA21" s="10"/>
+      <c r="AA21" s="10">
+        <v>100</v>
+      </c>
       <c r="AB21" s="10">
         <v>90</v>
       </c>
@@ -5268,11 +6142,15 @@
       <c r="AD21" s="10">
         <v>100</v>
       </c>
-      <c r="AE21" s="10"/>
+      <c r="AE21" s="10">
+        <v>100</v>
+      </c>
       <c r="AF21" s="10">
         <v>100</v>
       </c>
-      <c r="AG21" s="10"/>
+      <c r="AG21" s="10">
+        <v>100</v>
+      </c>
       <c r="AH21" s="10">
         <v>90</v>
       </c>
@@ -5282,11 +6160,15 @@
       <c r="AJ21" s="10">
         <v>100</v>
       </c>
-      <c r="AK21" s="10"/>
+      <c r="AK21" s="10">
+        <v>100</v>
+      </c>
       <c r="AL21" s="10">
         <v>100</v>
       </c>
-      <c r="AM21" s="10"/>
+      <c r="AM21" s="10">
+        <v>100</v>
+      </c>
       <c r="AN21" s="10">
         <v>90</v>
       </c>
@@ -5296,11 +6178,15 @@
       <c r="AP21" s="10">
         <v>100</v>
       </c>
-      <c r="AQ21" s="10"/>
+      <c r="AQ21" s="10">
+        <v>100</v>
+      </c>
       <c r="AR21" s="10">
         <v>100</v>
       </c>
-      <c r="AS21" s="10"/>
+      <c r="AS21" s="10">
+        <v>100</v>
+      </c>
       <c r="AT21" s="10">
         <v>90</v>
       </c>
@@ -5310,11 +6196,15 @@
       <c r="AV21" s="10">
         <v>100</v>
       </c>
-      <c r="AW21" s="10"/>
+      <c r="AW21" s="10">
+        <v>100</v>
+      </c>
       <c r="AX21" s="10">
         <v>100</v>
       </c>
-      <c r="AY21" s="10"/>
+      <c r="AY21" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ21" s="10">
         <v>90</v>
       </c>
@@ -5324,11 +6214,15 @@
       <c r="BB21" s="10">
         <v>100</v>
       </c>
-      <c r="BC21" s="10"/>
+      <c r="BC21" s="10">
+        <v>100</v>
+      </c>
       <c r="BD21" s="10">
         <v>100</v>
       </c>
-      <c r="BE21" s="10"/>
+      <c r="BE21" s="10">
+        <v>100</v>
+      </c>
       <c r="BF21" s="10">
         <v>90</v>
       </c>
@@ -5338,11 +6232,15 @@
       <c r="BH21" s="10">
         <v>100</v>
       </c>
-      <c r="BI21" s="10"/>
+      <c r="BI21" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ21" s="10">
         <v>100</v>
       </c>
-      <c r="BK21" s="10"/>
+      <c r="BK21" s="10">
+        <v>100</v>
+      </c>
       <c r="BL21" s="10">
         <v>90</v>
       </c>
@@ -5352,11 +6250,15 @@
       <c r="BN21" s="10">
         <v>100</v>
       </c>
-      <c r="BO21" s="10"/>
+      <c r="BO21" s="10">
+        <v>100</v>
+      </c>
       <c r="BP21" s="10">
         <v>100</v>
       </c>
-      <c r="BQ21" s="10"/>
+      <c r="BQ21" s="10">
+        <v>100</v>
+      </c>
       <c r="BR21" s="10">
         <v>90</v>
       </c>
@@ -5366,11 +6268,15 @@
       <c r="BT21" s="10">
         <v>100</v>
       </c>
-      <c r="BU21" s="10"/>
+      <c r="BU21" s="10">
+        <v>100</v>
+      </c>
       <c r="BV21" s="10">
         <v>100</v>
       </c>
-      <c r="BW21" s="10"/>
+      <c r="BW21" s="10">
+        <v>100</v>
+      </c>
       <c r="BX21" s="10">
         <v>90</v>
       </c>
@@ -5380,11 +6286,15 @@
       <c r="BZ21" s="10">
         <v>100</v>
       </c>
-      <c r="CA21" s="10"/>
+      <c r="CA21" s="10">
+        <v>100</v>
+      </c>
       <c r="CB21" s="10">
         <v>100</v>
       </c>
-      <c r="CC21" s="10"/>
+      <c r="CC21" s="10">
+        <v>100</v>
+      </c>
       <c r="CD21" s="10">
         <v>90</v>
       </c>
@@ -5408,11 +6318,15 @@
       <c r="F22" s="10">
         <v>0</v>
       </c>
-      <c r="G22" s="10"/>
+      <c r="G22" s="10">
+        <v>85</v>
+      </c>
       <c r="H22" s="10">
         <v>0</v>
       </c>
-      <c r="I22" s="10"/>
+      <c r="I22" s="10">
+        <v>0</v>
+      </c>
       <c r="J22" s="10">
         <v>90</v>
       </c>
@@ -5422,11 +6336,15 @@
       <c r="L22" s="10">
         <v>0</v>
       </c>
-      <c r="M22" s="10"/>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
       <c r="N22" s="10">
         <v>0</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10">
+        <v>0</v>
+      </c>
       <c r="P22" s="10">
         <v>90</v>
       </c>
@@ -5436,11 +6354,15 @@
       <c r="R22" s="10">
         <v>0</v>
       </c>
-      <c r="S22" s="10"/>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
       <c r="T22" s="10">
         <v>0</v>
       </c>
-      <c r="U22" s="10"/>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
       <c r="V22" s="10">
         <v>90</v>
       </c>
@@ -5450,11 +6372,15 @@
       <c r="X22" s="10">
         <v>0</v>
       </c>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="10">
+        <v>0</v>
+      </c>
       <c r="Z22" s="10">
         <v>0</v>
       </c>
-      <c r="AA22" s="10"/>
+      <c r="AA22" s="10">
+        <v>0</v>
+      </c>
       <c r="AB22" s="10">
         <v>90</v>
       </c>
@@ -5464,11 +6390,15 @@
       <c r="AD22" s="10">
         <v>0</v>
       </c>
-      <c r="AE22" s="10"/>
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
       <c r="AF22" s="10">
         <v>0</v>
       </c>
-      <c r="AG22" s="10"/>
+      <c r="AG22" s="10">
+        <v>0</v>
+      </c>
       <c r="AH22" s="10">
         <v>90</v>
       </c>
@@ -5478,11 +6408,15 @@
       <c r="AJ22" s="10">
         <v>0</v>
       </c>
-      <c r="AK22" s="10"/>
+      <c r="AK22" s="10">
+        <v>0</v>
+      </c>
       <c r="AL22" s="10">
         <v>0</v>
       </c>
-      <c r="AM22" s="10"/>
+      <c r="AM22" s="10">
+        <v>0</v>
+      </c>
       <c r="AN22" s="10">
         <v>90</v>
       </c>
@@ -5492,11 +6426,15 @@
       <c r="AP22" s="10">
         <v>0</v>
       </c>
-      <c r="AQ22" s="10"/>
+      <c r="AQ22" s="10">
+        <v>0</v>
+      </c>
       <c r="AR22" s="10">
         <v>0</v>
       </c>
-      <c r="AS22" s="10"/>
+      <c r="AS22" s="10">
+        <v>0</v>
+      </c>
       <c r="AT22" s="10">
         <v>90</v>
       </c>
@@ -5506,11 +6444,15 @@
       <c r="AV22" s="10">
         <v>0</v>
       </c>
-      <c r="AW22" s="10"/>
+      <c r="AW22" s="10">
+        <v>0</v>
+      </c>
       <c r="AX22" s="10">
         <v>0</v>
       </c>
-      <c r="AY22" s="10"/>
+      <c r="AY22" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ22" s="10">
         <v>90</v>
       </c>
@@ -5520,11 +6462,15 @@
       <c r="BB22" s="10">
         <v>0</v>
       </c>
-      <c r="BC22" s="10"/>
+      <c r="BC22" s="10">
+        <v>0</v>
+      </c>
       <c r="BD22" s="10">
         <v>0</v>
       </c>
-      <c r="BE22" s="10"/>
+      <c r="BE22" s="10">
+        <v>0</v>
+      </c>
       <c r="BF22" s="10">
         <v>90</v>
       </c>
@@ -5534,11 +6480,15 @@
       <c r="BH22" s="10">
         <v>0</v>
       </c>
-      <c r="BI22" s="10"/>
+      <c r="BI22" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ22" s="10">
         <v>0</v>
       </c>
-      <c r="BK22" s="10"/>
+      <c r="BK22" s="10">
+        <v>0</v>
+      </c>
       <c r="BL22" s="10">
         <v>90</v>
       </c>
@@ -5548,11 +6498,15 @@
       <c r="BN22" s="10">
         <v>0</v>
       </c>
-      <c r="BO22" s="10"/>
+      <c r="BO22" s="10">
+        <v>0</v>
+      </c>
       <c r="BP22" s="10">
         <v>0</v>
       </c>
-      <c r="BQ22" s="10"/>
+      <c r="BQ22" s="10">
+        <v>0</v>
+      </c>
       <c r="BR22" s="10">
         <v>90</v>
       </c>
@@ -5562,11 +6516,15 @@
       <c r="BT22" s="10">
         <v>0</v>
       </c>
-      <c r="BU22" s="10"/>
+      <c r="BU22" s="10">
+        <v>0</v>
+      </c>
       <c r="BV22" s="10">
         <v>0</v>
       </c>
-      <c r="BW22" s="10"/>
+      <c r="BW22" s="10">
+        <v>0</v>
+      </c>
       <c r="BX22" s="10">
         <v>90</v>
       </c>
@@ -5576,11 +6534,15 @@
       <c r="BZ22" s="10">
         <v>0</v>
       </c>
-      <c r="CA22" s="10"/>
+      <c r="CA22" s="10">
+        <v>0</v>
+      </c>
       <c r="CB22" s="10">
         <v>0</v>
       </c>
-      <c r="CC22" s="10"/>
+      <c r="CC22" s="10">
+        <v>0</v>
+      </c>
       <c r="CD22" s="10">
         <v>90</v>
       </c>
@@ -5604,11 +6566,15 @@
       <c r="F23" s="10">
         <v>97</v>
       </c>
-      <c r="G23" s="10"/>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
       <c r="H23" s="10">
         <v>100</v>
       </c>
-      <c r="I23" s="10"/>
+      <c r="I23" s="10">
+        <v>97</v>
+      </c>
       <c r="J23" s="10">
         <v>90</v>
       </c>
@@ -5618,11 +6584,15 @@
       <c r="L23" s="10">
         <v>97</v>
       </c>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10">
+        <v>97</v>
+      </c>
       <c r="N23" s="10">
         <v>100</v>
       </c>
-      <c r="O23" s="10"/>
+      <c r="O23" s="10">
+        <v>97</v>
+      </c>
       <c r="P23" s="10">
         <v>90</v>
       </c>
@@ -5632,11 +6602,15 @@
       <c r="R23" s="10">
         <v>97</v>
       </c>
-      <c r="S23" s="10"/>
+      <c r="S23" s="10">
+        <v>97</v>
+      </c>
       <c r="T23" s="10">
         <v>100</v>
       </c>
-      <c r="U23" s="10"/>
+      <c r="U23" s="10">
+        <v>97</v>
+      </c>
       <c r="V23" s="10">
         <v>90</v>
       </c>
@@ -5646,11 +6620,15 @@
       <c r="X23" s="10">
         <v>97</v>
       </c>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="10">
+        <v>97</v>
+      </c>
       <c r="Z23" s="10">
         <v>100</v>
       </c>
-      <c r="AA23" s="10"/>
+      <c r="AA23" s="10">
+        <v>97</v>
+      </c>
       <c r="AB23" s="10">
         <v>90</v>
       </c>
@@ -5660,11 +6638,15 @@
       <c r="AD23" s="10">
         <v>97</v>
       </c>
-      <c r="AE23" s="10"/>
+      <c r="AE23" s="10">
+        <v>97</v>
+      </c>
       <c r="AF23" s="10">
         <v>100</v>
       </c>
-      <c r="AG23" s="10"/>
+      <c r="AG23" s="10">
+        <v>97</v>
+      </c>
       <c r="AH23" s="10">
         <v>90</v>
       </c>
@@ -5674,11 +6656,15 @@
       <c r="AJ23" s="10">
         <v>97</v>
       </c>
-      <c r="AK23" s="10"/>
+      <c r="AK23" s="10">
+        <v>97</v>
+      </c>
       <c r="AL23" s="10">
         <v>100</v>
       </c>
-      <c r="AM23" s="10"/>
+      <c r="AM23" s="10">
+        <v>97</v>
+      </c>
       <c r="AN23" s="10">
         <v>90</v>
       </c>
@@ -5688,11 +6674,15 @@
       <c r="AP23" s="10">
         <v>97</v>
       </c>
-      <c r="AQ23" s="10"/>
+      <c r="AQ23" s="10">
+        <v>97</v>
+      </c>
       <c r="AR23" s="10">
         <v>100</v>
       </c>
-      <c r="AS23" s="10"/>
+      <c r="AS23" s="10">
+        <v>97</v>
+      </c>
       <c r="AT23" s="10">
         <v>90</v>
       </c>
@@ -5702,11 +6692,15 @@
       <c r="AV23" s="10">
         <v>97</v>
       </c>
-      <c r="AW23" s="10"/>
+      <c r="AW23" s="10">
+        <v>97</v>
+      </c>
       <c r="AX23" s="10">
         <v>100</v>
       </c>
-      <c r="AY23" s="10"/>
+      <c r="AY23" s="10">
+        <v>97</v>
+      </c>
       <c r="AZ23" s="10">
         <v>90</v>
       </c>
@@ -5716,11 +6710,15 @@
       <c r="BB23" s="10">
         <v>97</v>
       </c>
-      <c r="BC23" s="10"/>
+      <c r="BC23" s="10">
+        <v>97</v>
+      </c>
       <c r="BD23" s="10">
         <v>100</v>
       </c>
-      <c r="BE23" s="10"/>
+      <c r="BE23" s="10">
+        <v>97</v>
+      </c>
       <c r="BF23" s="10">
         <v>90</v>
       </c>
@@ -5730,11 +6728,15 @@
       <c r="BH23" s="10">
         <v>97</v>
       </c>
-      <c r="BI23" s="10"/>
+      <c r="BI23" s="10">
+        <v>97</v>
+      </c>
       <c r="BJ23" s="10">
         <v>100</v>
       </c>
-      <c r="BK23" s="10"/>
+      <c r="BK23" s="10">
+        <v>97</v>
+      </c>
       <c r="BL23" s="10">
         <v>90</v>
       </c>
@@ -5744,11 +6746,15 @@
       <c r="BN23" s="10">
         <v>97</v>
       </c>
-      <c r="BO23" s="10"/>
+      <c r="BO23" s="10">
+        <v>97</v>
+      </c>
       <c r="BP23" s="10">
         <v>100</v>
       </c>
-      <c r="BQ23" s="10"/>
+      <c r="BQ23" s="10">
+        <v>97</v>
+      </c>
       <c r="BR23" s="10">
         <v>90</v>
       </c>
@@ -5758,11 +6764,15 @@
       <c r="BT23" s="10">
         <v>97</v>
       </c>
-      <c r="BU23" s="10"/>
+      <c r="BU23" s="10">
+        <v>97</v>
+      </c>
       <c r="BV23" s="10">
         <v>100</v>
       </c>
-      <c r="BW23" s="10"/>
+      <c r="BW23" s="10">
+        <v>97</v>
+      </c>
       <c r="BX23" s="10">
         <v>90</v>
       </c>
@@ -5772,11 +6782,15 @@
       <c r="BZ23" s="10">
         <v>97</v>
       </c>
-      <c r="CA23" s="10"/>
+      <c r="CA23" s="10">
+        <v>97</v>
+      </c>
       <c r="CB23" s="10">
         <v>100</v>
       </c>
-      <c r="CC23" s="10"/>
+      <c r="CC23" s="10">
+        <v>97</v>
+      </c>
       <c r="CD23" s="10">
         <v>90</v>
       </c>
@@ -5800,11 +6814,15 @@
       <c r="F24" s="10">
         <v>0</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
       <c r="H24" s="10">
         <v>100</v>
       </c>
-      <c r="I24" s="10"/>
+      <c r="I24" s="10">
+        <v>0</v>
+      </c>
       <c r="J24" s="10">
         <v>70</v>
       </c>
@@ -5814,11 +6832,15 @@
       <c r="L24" s="10">
         <v>0</v>
       </c>
-      <c r="M24" s="10"/>
+      <c r="M24" s="10">
+        <v>0</v>
+      </c>
       <c r="N24" s="10">
         <v>100</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="10">
+        <v>0</v>
+      </c>
       <c r="P24" s="10">
         <v>70</v>
       </c>
@@ -5828,11 +6850,15 @@
       <c r="R24" s="10">
         <v>0</v>
       </c>
-      <c r="S24" s="10"/>
+      <c r="S24" s="10">
+        <v>0</v>
+      </c>
       <c r="T24" s="10">
         <v>100</v>
       </c>
-      <c r="U24" s="10"/>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
       <c r="V24" s="10">
         <v>70</v>
       </c>
@@ -5842,11 +6868,15 @@
       <c r="X24" s="10">
         <v>0</v>
       </c>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="10">
+        <v>0</v>
+      </c>
       <c r="Z24" s="10">
         <v>100</v>
       </c>
-      <c r="AA24" s="10"/>
+      <c r="AA24" s="10">
+        <v>0</v>
+      </c>
       <c r="AB24" s="10">
         <v>70</v>
       </c>
@@ -5856,11 +6886,15 @@
       <c r="AD24" s="10">
         <v>0</v>
       </c>
-      <c r="AE24" s="10"/>
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
       <c r="AF24" s="10">
         <v>100</v>
       </c>
-      <c r="AG24" s="10"/>
+      <c r="AG24" s="10">
+        <v>0</v>
+      </c>
       <c r="AH24" s="10">
         <v>70</v>
       </c>
@@ -5870,11 +6904,15 @@
       <c r="AJ24" s="10">
         <v>0</v>
       </c>
-      <c r="AK24" s="10"/>
+      <c r="AK24" s="10">
+        <v>0</v>
+      </c>
       <c r="AL24" s="10">
         <v>100</v>
       </c>
-      <c r="AM24" s="10"/>
+      <c r="AM24" s="10">
+        <v>0</v>
+      </c>
       <c r="AN24" s="10">
         <v>70</v>
       </c>
@@ -5884,11 +6922,15 @@
       <c r="AP24" s="10">
         <v>0</v>
       </c>
-      <c r="AQ24" s="10"/>
+      <c r="AQ24" s="10">
+        <v>0</v>
+      </c>
       <c r="AR24" s="10">
         <v>100</v>
       </c>
-      <c r="AS24" s="10"/>
+      <c r="AS24" s="10">
+        <v>0</v>
+      </c>
       <c r="AT24" s="10">
         <v>70</v>
       </c>
@@ -5898,11 +6940,15 @@
       <c r="AV24" s="10">
         <v>0</v>
       </c>
-      <c r="AW24" s="10"/>
+      <c r="AW24" s="10">
+        <v>0</v>
+      </c>
       <c r="AX24" s="10">
         <v>100</v>
       </c>
-      <c r="AY24" s="10"/>
+      <c r="AY24" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ24" s="10">
         <v>70</v>
       </c>
@@ -5912,11 +6958,15 @@
       <c r="BB24" s="10">
         <v>0</v>
       </c>
-      <c r="BC24" s="10"/>
+      <c r="BC24" s="10">
+        <v>0</v>
+      </c>
       <c r="BD24" s="10">
         <v>100</v>
       </c>
-      <c r="BE24" s="10"/>
+      <c r="BE24" s="10">
+        <v>0</v>
+      </c>
       <c r="BF24" s="10">
         <v>70</v>
       </c>
@@ -5926,11 +6976,15 @@
       <c r="BH24" s="10">
         <v>0</v>
       </c>
-      <c r="BI24" s="10"/>
+      <c r="BI24" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ24" s="10">
         <v>100</v>
       </c>
-      <c r="BK24" s="10"/>
+      <c r="BK24" s="10">
+        <v>0</v>
+      </c>
       <c r="BL24" s="10">
         <v>70</v>
       </c>
@@ -5940,11 +6994,15 @@
       <c r="BN24" s="10">
         <v>0</v>
       </c>
-      <c r="BO24" s="10"/>
+      <c r="BO24" s="10">
+        <v>0</v>
+      </c>
       <c r="BP24" s="10">
         <v>100</v>
       </c>
-      <c r="BQ24" s="10"/>
+      <c r="BQ24" s="10">
+        <v>0</v>
+      </c>
       <c r="BR24" s="10">
         <v>70</v>
       </c>
@@ -5954,11 +7012,15 @@
       <c r="BT24" s="10">
         <v>0</v>
       </c>
-      <c r="BU24" s="10"/>
+      <c r="BU24" s="10">
+        <v>0</v>
+      </c>
       <c r="BV24" s="10">
         <v>100</v>
       </c>
-      <c r="BW24" s="10"/>
+      <c r="BW24" s="10">
+        <v>0</v>
+      </c>
       <c r="BX24" s="10">
         <v>70</v>
       </c>
@@ -5968,11 +7030,15 @@
       <c r="BZ24" s="10">
         <v>0</v>
       </c>
-      <c r="CA24" s="10"/>
+      <c r="CA24" s="10">
+        <v>0</v>
+      </c>
       <c r="CB24" s="10">
         <v>100</v>
       </c>
-      <c r="CC24" s="10"/>
+      <c r="CC24" s="10">
+        <v>0</v>
+      </c>
       <c r="CD24" s="10">
         <v>70</v>
       </c>
@@ -5996,11 +7062,15 @@
       <c r="F25" s="10">
         <v>90</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10">
+        <v>40</v>
+      </c>
       <c r="H25" s="10">
         <v>100</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10">
+        <v>90</v>
+      </c>
       <c r="J25" s="10">
         <v>0</v>
       </c>
@@ -6010,11 +7080,15 @@
       <c r="L25" s="10">
         <v>90</v>
       </c>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10">
+        <v>90</v>
+      </c>
       <c r="N25" s="10">
         <v>100</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="10">
+        <v>90</v>
+      </c>
       <c r="P25" s="10">
         <v>0</v>
       </c>
@@ -6024,11 +7098,15 @@
       <c r="R25" s="10">
         <v>90</v>
       </c>
-      <c r="S25" s="10"/>
+      <c r="S25" s="10">
+        <v>90</v>
+      </c>
       <c r="T25" s="10">
         <v>100</v>
       </c>
-      <c r="U25" s="10"/>
+      <c r="U25" s="10">
+        <v>90</v>
+      </c>
       <c r="V25" s="10">
         <v>0</v>
       </c>
@@ -6038,11 +7116,15 @@
       <c r="X25" s="10">
         <v>90</v>
       </c>
-      <c r="Y25" s="10"/>
+      <c r="Y25" s="10">
+        <v>90</v>
+      </c>
       <c r="Z25" s="10">
         <v>100</v>
       </c>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="10">
+        <v>90</v>
+      </c>
       <c r="AB25" s="10">
         <v>0</v>
       </c>
@@ -6052,11 +7134,15 @@
       <c r="AD25" s="10">
         <v>90</v>
       </c>
-      <c r="AE25" s="10"/>
+      <c r="AE25" s="10">
+        <v>90</v>
+      </c>
       <c r="AF25" s="10">
         <v>100</v>
       </c>
-      <c r="AG25" s="10"/>
+      <c r="AG25" s="10">
+        <v>90</v>
+      </c>
       <c r="AH25" s="10">
         <v>0</v>
       </c>
@@ -6066,11 +7152,15 @@
       <c r="AJ25" s="10">
         <v>90</v>
       </c>
-      <c r="AK25" s="10"/>
+      <c r="AK25" s="10">
+        <v>90</v>
+      </c>
       <c r="AL25" s="10">
         <v>100</v>
       </c>
-      <c r="AM25" s="10"/>
+      <c r="AM25" s="10">
+        <v>90</v>
+      </c>
       <c r="AN25" s="10">
         <v>0</v>
       </c>
@@ -6080,11 +7170,15 @@
       <c r="AP25" s="10">
         <v>90</v>
       </c>
-      <c r="AQ25" s="10"/>
+      <c r="AQ25" s="10">
+        <v>90</v>
+      </c>
       <c r="AR25" s="10">
         <v>100</v>
       </c>
-      <c r="AS25" s="10"/>
+      <c r="AS25" s="10">
+        <v>90</v>
+      </c>
       <c r="AT25" s="10">
         <v>0</v>
       </c>
@@ -6094,11 +7188,15 @@
       <c r="AV25" s="10">
         <v>90</v>
       </c>
-      <c r="AW25" s="10"/>
+      <c r="AW25" s="10">
+        <v>90</v>
+      </c>
       <c r="AX25" s="10">
         <v>100</v>
       </c>
-      <c r="AY25" s="10"/>
+      <c r="AY25" s="10">
+        <v>90</v>
+      </c>
       <c r="AZ25" s="10">
         <v>0</v>
       </c>
@@ -6108,11 +7206,15 @@
       <c r="BB25" s="10">
         <v>90</v>
       </c>
-      <c r="BC25" s="10"/>
+      <c r="BC25" s="10">
+        <v>90</v>
+      </c>
       <c r="BD25" s="10">
         <v>100</v>
       </c>
-      <c r="BE25" s="10"/>
+      <c r="BE25" s="10">
+        <v>90</v>
+      </c>
       <c r="BF25" s="10">
         <v>0</v>
       </c>
@@ -6122,11 +7224,15 @@
       <c r="BH25" s="10">
         <v>90</v>
       </c>
-      <c r="BI25" s="10"/>
+      <c r="BI25" s="10">
+        <v>90</v>
+      </c>
       <c r="BJ25" s="10">
         <v>100</v>
       </c>
-      <c r="BK25" s="10"/>
+      <c r="BK25" s="10">
+        <v>90</v>
+      </c>
       <c r="BL25" s="10">
         <v>0</v>
       </c>
@@ -6136,11 +7242,15 @@
       <c r="BN25" s="10">
         <v>90</v>
       </c>
-      <c r="BO25" s="10"/>
+      <c r="BO25" s="10">
+        <v>90</v>
+      </c>
       <c r="BP25" s="10">
         <v>100</v>
       </c>
-      <c r="BQ25" s="10"/>
+      <c r="BQ25" s="10">
+        <v>90</v>
+      </c>
       <c r="BR25" s="10">
         <v>0</v>
       </c>
@@ -6150,11 +7260,15 @@
       <c r="BT25" s="10">
         <v>90</v>
       </c>
-      <c r="BU25" s="10"/>
+      <c r="BU25" s="10">
+        <v>90</v>
+      </c>
       <c r="BV25" s="10">
         <v>100</v>
       </c>
-      <c r="BW25" s="10"/>
+      <c r="BW25" s="10">
+        <v>90</v>
+      </c>
       <c r="BX25" s="10">
         <v>0</v>
       </c>
@@ -6164,11 +7278,15 @@
       <c r="BZ25" s="10">
         <v>90</v>
       </c>
-      <c r="CA25" s="10"/>
+      <c r="CA25" s="10">
+        <v>90</v>
+      </c>
       <c r="CB25" s="10">
         <v>100</v>
       </c>
-      <c r="CC25" s="10"/>
+      <c r="CC25" s="10">
+        <v>90</v>
+      </c>
       <c r="CD25" s="10">
         <v>0</v>
       </c>
@@ -6192,11 +7310,15 @@
       <c r="F26" s="10">
         <v>90</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="10">
+        <v>100</v>
+      </c>
       <c r="H26" s="10">
         <v>85</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10">
+        <v>90</v>
+      </c>
       <c r="J26" s="10">
         <v>100</v>
       </c>
@@ -6206,11 +7328,15 @@
       <c r="L26" s="10">
         <v>90</v>
       </c>
-      <c r="M26" s="10"/>
+      <c r="M26" s="10">
+        <v>90</v>
+      </c>
       <c r="N26" s="10">
         <v>85</v>
       </c>
-      <c r="O26" s="10"/>
+      <c r="O26" s="10">
+        <v>90</v>
+      </c>
       <c r="P26" s="10">
         <v>100</v>
       </c>
@@ -6220,11 +7346,15 @@
       <c r="R26" s="10">
         <v>90</v>
       </c>
-      <c r="S26" s="10"/>
+      <c r="S26" s="10">
+        <v>90</v>
+      </c>
       <c r="T26" s="10">
         <v>85</v>
       </c>
-      <c r="U26" s="10"/>
+      <c r="U26" s="10">
+        <v>90</v>
+      </c>
       <c r="V26" s="10">
         <v>100</v>
       </c>
@@ -6234,11 +7364,15 @@
       <c r="X26" s="10">
         <v>90</v>
       </c>
-      <c r="Y26" s="10"/>
+      <c r="Y26" s="10">
+        <v>90</v>
+      </c>
       <c r="Z26" s="10">
         <v>85</v>
       </c>
-      <c r="AA26" s="10"/>
+      <c r="AA26" s="10">
+        <v>90</v>
+      </c>
       <c r="AB26" s="10">
         <v>100</v>
       </c>
@@ -6248,11 +7382,15 @@
       <c r="AD26" s="10">
         <v>90</v>
       </c>
-      <c r="AE26" s="10"/>
+      <c r="AE26" s="10">
+        <v>90</v>
+      </c>
       <c r="AF26" s="10">
         <v>85</v>
       </c>
-      <c r="AG26" s="10"/>
+      <c r="AG26" s="10">
+        <v>90</v>
+      </c>
       <c r="AH26" s="10">
         <v>100</v>
       </c>
@@ -6262,11 +7400,15 @@
       <c r="AJ26" s="10">
         <v>90</v>
       </c>
-      <c r="AK26" s="10"/>
+      <c r="AK26" s="10">
+        <v>90</v>
+      </c>
       <c r="AL26" s="10">
         <v>85</v>
       </c>
-      <c r="AM26" s="10"/>
+      <c r="AM26" s="10">
+        <v>90</v>
+      </c>
       <c r="AN26" s="10">
         <v>100</v>
       </c>
@@ -6276,11 +7418,15 @@
       <c r="AP26" s="10">
         <v>90</v>
       </c>
-      <c r="AQ26" s="10"/>
+      <c r="AQ26" s="10">
+        <v>90</v>
+      </c>
       <c r="AR26" s="10">
         <v>85</v>
       </c>
-      <c r="AS26" s="10"/>
+      <c r="AS26" s="10">
+        <v>90</v>
+      </c>
       <c r="AT26" s="10">
         <v>100</v>
       </c>
@@ -6290,11 +7436,15 @@
       <c r="AV26" s="10">
         <v>90</v>
       </c>
-      <c r="AW26" s="10"/>
+      <c r="AW26" s="10">
+        <v>90</v>
+      </c>
       <c r="AX26" s="10">
         <v>85</v>
       </c>
-      <c r="AY26" s="10"/>
+      <c r="AY26" s="10">
+        <v>90</v>
+      </c>
       <c r="AZ26" s="10">
         <v>100</v>
       </c>
@@ -6304,11 +7454,15 @@
       <c r="BB26" s="10">
         <v>90</v>
       </c>
-      <c r="BC26" s="10"/>
+      <c r="BC26" s="10">
+        <v>90</v>
+      </c>
       <c r="BD26" s="10">
         <v>85</v>
       </c>
-      <c r="BE26" s="10"/>
+      <c r="BE26" s="10">
+        <v>90</v>
+      </c>
       <c r="BF26" s="10">
         <v>100</v>
       </c>
@@ -6318,11 +7472,15 @@
       <c r="BH26" s="10">
         <v>90</v>
       </c>
-      <c r="BI26" s="10"/>
+      <c r="BI26" s="10">
+        <v>90</v>
+      </c>
       <c r="BJ26" s="10">
         <v>85</v>
       </c>
-      <c r="BK26" s="10"/>
+      <c r="BK26" s="10">
+        <v>90</v>
+      </c>
       <c r="BL26" s="10">
         <v>100</v>
       </c>
@@ -6332,11 +7490,15 @@
       <c r="BN26" s="10">
         <v>90</v>
       </c>
-      <c r="BO26" s="10"/>
+      <c r="BO26" s="10">
+        <v>90</v>
+      </c>
       <c r="BP26" s="10">
         <v>85</v>
       </c>
-      <c r="BQ26" s="10"/>
+      <c r="BQ26" s="10">
+        <v>90</v>
+      </c>
       <c r="BR26" s="10">
         <v>100</v>
       </c>
@@ -6346,11 +7508,15 @@
       <c r="BT26" s="10">
         <v>90</v>
       </c>
-      <c r="BU26" s="10"/>
+      <c r="BU26" s="10">
+        <v>90</v>
+      </c>
       <c r="BV26" s="10">
         <v>85</v>
       </c>
-      <c r="BW26" s="10"/>
+      <c r="BW26" s="10">
+        <v>90</v>
+      </c>
       <c r="BX26" s="10">
         <v>100</v>
       </c>
@@ -6360,11 +7526,15 @@
       <c r="BZ26" s="10">
         <v>90</v>
       </c>
-      <c r="CA26" s="10"/>
+      <c r="CA26" s="10">
+        <v>90</v>
+      </c>
       <c r="CB26" s="10">
         <v>85</v>
       </c>
-      <c r="CC26" s="10"/>
+      <c r="CC26" s="10">
+        <v>90</v>
+      </c>
       <c r="CD26" s="10">
         <v>100</v>
       </c>
@@ -6388,11 +7558,15 @@
       <c r="F27" s="10">
         <v>0</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="10">
+        <v>60</v>
+      </c>
       <c r="H27" s="10">
         <v>40</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="10">
+        <v>0</v>
+      </c>
       <c r="J27" s="10">
         <v>70</v>
       </c>
@@ -6402,11 +7576,15 @@
       <c r="L27" s="10">
         <v>0</v>
       </c>
-      <c r="M27" s="10"/>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
       <c r="N27" s="10">
         <v>40</v>
       </c>
-      <c r="O27" s="10"/>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
       <c r="P27" s="10">
         <v>70</v>
       </c>
@@ -6416,11 +7594,15 @@
       <c r="R27" s="10">
         <v>0</v>
       </c>
-      <c r="S27" s="10"/>
+      <c r="S27" s="10">
+        <v>0</v>
+      </c>
       <c r="T27" s="10">
         <v>40</v>
       </c>
-      <c r="U27" s="10"/>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
       <c r="V27" s="10">
         <v>70</v>
       </c>
@@ -6430,11 +7612,15 @@
       <c r="X27" s="10">
         <v>0</v>
       </c>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="10">
+        <v>0</v>
+      </c>
       <c r="Z27" s="10">
         <v>40</v>
       </c>
-      <c r="AA27" s="10"/>
+      <c r="AA27" s="10">
+        <v>0</v>
+      </c>
       <c r="AB27" s="10">
         <v>70</v>
       </c>
@@ -6444,11 +7630,15 @@
       <c r="AD27" s="10">
         <v>0</v>
       </c>
-      <c r="AE27" s="10"/>
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
       <c r="AF27" s="10">
         <v>40</v>
       </c>
-      <c r="AG27" s="10"/>
+      <c r="AG27" s="10">
+        <v>0</v>
+      </c>
       <c r="AH27" s="10">
         <v>70</v>
       </c>
@@ -6458,11 +7648,15 @@
       <c r="AJ27" s="10">
         <v>0</v>
       </c>
-      <c r="AK27" s="10"/>
+      <c r="AK27" s="10">
+        <v>0</v>
+      </c>
       <c r="AL27" s="10">
         <v>40</v>
       </c>
-      <c r="AM27" s="10"/>
+      <c r="AM27" s="10">
+        <v>0</v>
+      </c>
       <c r="AN27" s="10">
         <v>70</v>
       </c>
@@ -6472,11 +7666,15 @@
       <c r="AP27" s="10">
         <v>0</v>
       </c>
-      <c r="AQ27" s="10"/>
+      <c r="AQ27" s="10">
+        <v>0</v>
+      </c>
       <c r="AR27" s="10">
         <v>40</v>
       </c>
-      <c r="AS27" s="10"/>
+      <c r="AS27" s="10">
+        <v>0</v>
+      </c>
       <c r="AT27" s="10">
         <v>70</v>
       </c>
@@ -6486,11 +7684,15 @@
       <c r="AV27" s="10">
         <v>0</v>
       </c>
-      <c r="AW27" s="10"/>
+      <c r="AW27" s="10">
+        <v>0</v>
+      </c>
       <c r="AX27" s="10">
         <v>40</v>
       </c>
-      <c r="AY27" s="10"/>
+      <c r="AY27" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ27" s="10">
         <v>70</v>
       </c>
@@ -6500,11 +7702,15 @@
       <c r="BB27" s="10">
         <v>0</v>
       </c>
-      <c r="BC27" s="10"/>
+      <c r="BC27" s="10">
+        <v>0</v>
+      </c>
       <c r="BD27" s="10">
         <v>40</v>
       </c>
-      <c r="BE27" s="10"/>
+      <c r="BE27" s="10">
+        <v>0</v>
+      </c>
       <c r="BF27" s="10">
         <v>70</v>
       </c>
@@ -6514,11 +7720,15 @@
       <c r="BH27" s="10">
         <v>0</v>
       </c>
-      <c r="BI27" s="10"/>
+      <c r="BI27" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ27" s="10">
         <v>40</v>
       </c>
-      <c r="BK27" s="10"/>
+      <c r="BK27" s="10">
+        <v>0</v>
+      </c>
       <c r="BL27" s="10">
         <v>70</v>
       </c>
@@ -6528,11 +7738,15 @@
       <c r="BN27" s="10">
         <v>0</v>
       </c>
-      <c r="BO27" s="10"/>
+      <c r="BO27" s="10">
+        <v>0</v>
+      </c>
       <c r="BP27" s="10">
         <v>40</v>
       </c>
-      <c r="BQ27" s="10"/>
+      <c r="BQ27" s="10">
+        <v>0</v>
+      </c>
       <c r="BR27" s="10">
         <v>70</v>
       </c>
@@ -6542,11 +7756,15 @@
       <c r="BT27" s="10">
         <v>0</v>
       </c>
-      <c r="BU27" s="10"/>
+      <c r="BU27" s="10">
+        <v>0</v>
+      </c>
       <c r="BV27" s="10">
         <v>40</v>
       </c>
-      <c r="BW27" s="10"/>
+      <c r="BW27" s="10">
+        <v>0</v>
+      </c>
       <c r="BX27" s="10">
         <v>70</v>
       </c>
@@ -6556,11 +7774,15 @@
       <c r="BZ27" s="10">
         <v>0</v>
       </c>
-      <c r="CA27" s="10"/>
+      <c r="CA27" s="10">
+        <v>0</v>
+      </c>
       <c r="CB27" s="10">
         <v>40</v>
       </c>
-      <c r="CC27" s="10"/>
+      <c r="CC27" s="10">
+        <v>0</v>
+      </c>
       <c r="CD27" s="10">
         <v>70</v>
       </c>
@@ -6584,11 +7806,15 @@
       <c r="F28" s="10">
         <v>80</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="10">
+        <v>100</v>
+      </c>
       <c r="H28" s="10">
         <v>0</v>
       </c>
-      <c r="I28" s="10"/>
+      <c r="I28" s="10">
+        <v>80</v>
+      </c>
       <c r="J28" s="10">
         <v>0</v>
       </c>
@@ -6598,11 +7824,15 @@
       <c r="L28" s="10">
         <v>80</v>
       </c>
-      <c r="M28" s="10"/>
+      <c r="M28" s="10">
+        <v>80</v>
+      </c>
       <c r="N28" s="10">
         <v>0</v>
       </c>
-      <c r="O28" s="10"/>
+      <c r="O28" s="10">
+        <v>80</v>
+      </c>
       <c r="P28" s="10">
         <v>0</v>
       </c>
@@ -6612,11 +7842,15 @@
       <c r="R28" s="10">
         <v>80</v>
       </c>
-      <c r="S28" s="10"/>
+      <c r="S28" s="10">
+        <v>80</v>
+      </c>
       <c r="T28" s="10">
         <v>0</v>
       </c>
-      <c r="U28" s="10"/>
+      <c r="U28" s="10">
+        <v>80</v>
+      </c>
       <c r="V28" s="10">
         <v>0</v>
       </c>
@@ -6626,11 +7860,15 @@
       <c r="X28" s="10">
         <v>80</v>
       </c>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="10">
+        <v>80</v>
+      </c>
       <c r="Z28" s="10">
         <v>0</v>
       </c>
-      <c r="AA28" s="10"/>
+      <c r="AA28" s="10">
+        <v>80</v>
+      </c>
       <c r="AB28" s="10">
         <v>0</v>
       </c>
@@ -6640,11 +7878,15 @@
       <c r="AD28" s="10">
         <v>80</v>
       </c>
-      <c r="AE28" s="10"/>
+      <c r="AE28" s="10">
+        <v>80</v>
+      </c>
       <c r="AF28" s="10">
         <v>0</v>
       </c>
-      <c r="AG28" s="10"/>
+      <c r="AG28" s="10">
+        <v>80</v>
+      </c>
       <c r="AH28" s="10">
         <v>0</v>
       </c>
@@ -6654,11 +7896,15 @@
       <c r="AJ28" s="10">
         <v>80</v>
       </c>
-      <c r="AK28" s="10"/>
+      <c r="AK28" s="10">
+        <v>80</v>
+      </c>
       <c r="AL28" s="10">
         <v>0</v>
       </c>
-      <c r="AM28" s="10"/>
+      <c r="AM28" s="10">
+        <v>80</v>
+      </c>
       <c r="AN28" s="10">
         <v>0</v>
       </c>
@@ -6668,11 +7914,15 @@
       <c r="AP28" s="10">
         <v>80</v>
       </c>
-      <c r="AQ28" s="10"/>
+      <c r="AQ28" s="10">
+        <v>80</v>
+      </c>
       <c r="AR28" s="10">
         <v>0</v>
       </c>
-      <c r="AS28" s="10"/>
+      <c r="AS28" s="10">
+        <v>80</v>
+      </c>
       <c r="AT28" s="10">
         <v>0</v>
       </c>
@@ -6682,11 +7932,15 @@
       <c r="AV28" s="10">
         <v>80</v>
       </c>
-      <c r="AW28" s="10"/>
+      <c r="AW28" s="10">
+        <v>80</v>
+      </c>
       <c r="AX28" s="10">
         <v>0</v>
       </c>
-      <c r="AY28" s="10"/>
+      <c r="AY28" s="10">
+        <v>80</v>
+      </c>
       <c r="AZ28" s="10">
         <v>0</v>
       </c>
@@ -6696,11 +7950,15 @@
       <c r="BB28" s="10">
         <v>80</v>
       </c>
-      <c r="BC28" s="10"/>
+      <c r="BC28" s="10">
+        <v>80</v>
+      </c>
       <c r="BD28" s="10">
         <v>0</v>
       </c>
-      <c r="BE28" s="10"/>
+      <c r="BE28" s="10">
+        <v>80</v>
+      </c>
       <c r="BF28" s="10">
         <v>0</v>
       </c>
@@ -6710,11 +7968,15 @@
       <c r="BH28" s="10">
         <v>80</v>
       </c>
-      <c r="BI28" s="10"/>
+      <c r="BI28" s="10">
+        <v>80</v>
+      </c>
       <c r="BJ28" s="10">
         <v>0</v>
       </c>
-      <c r="BK28" s="10"/>
+      <c r="BK28" s="10">
+        <v>80</v>
+      </c>
       <c r="BL28" s="10">
         <v>0</v>
       </c>
@@ -6724,11 +7986,15 @@
       <c r="BN28" s="10">
         <v>80</v>
       </c>
-      <c r="BO28" s="10"/>
+      <c r="BO28" s="10">
+        <v>80</v>
+      </c>
       <c r="BP28" s="10">
         <v>0</v>
       </c>
-      <c r="BQ28" s="10"/>
+      <c r="BQ28" s="10">
+        <v>80</v>
+      </c>
       <c r="BR28" s="10">
         <v>0</v>
       </c>
@@ -6738,11 +8004,15 @@
       <c r="BT28" s="10">
         <v>80</v>
       </c>
-      <c r="BU28" s="10"/>
+      <c r="BU28" s="10">
+        <v>80</v>
+      </c>
       <c r="BV28" s="10">
         <v>0</v>
       </c>
-      <c r="BW28" s="10"/>
+      <c r="BW28" s="10">
+        <v>80</v>
+      </c>
       <c r="BX28" s="10">
         <v>0</v>
       </c>
@@ -6752,11 +8022,15 @@
       <c r="BZ28" s="10">
         <v>80</v>
       </c>
-      <c r="CA28" s="10"/>
+      <c r="CA28" s="10">
+        <v>80</v>
+      </c>
       <c r="CB28" s="10">
         <v>0</v>
       </c>
-      <c r="CC28" s="10"/>
+      <c r="CC28" s="10">
+        <v>80</v>
+      </c>
       <c r="CD28" s="10">
         <v>0</v>
       </c>
@@ -6780,11 +8054,15 @@
       <c r="F29" s="10">
         <v>80</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
       <c r="H29" s="10">
         <v>0</v>
       </c>
-      <c r="I29" s="10"/>
+      <c r="I29" s="10">
+        <v>80</v>
+      </c>
       <c r="J29" s="10">
         <v>0</v>
       </c>
@@ -6794,11 +8072,15 @@
       <c r="L29" s="10">
         <v>80</v>
       </c>
-      <c r="M29" s="10"/>
+      <c r="M29" s="10">
+        <v>80</v>
+      </c>
       <c r="N29" s="10">
         <v>0</v>
       </c>
-      <c r="O29" s="10"/>
+      <c r="O29" s="10">
+        <v>80</v>
+      </c>
       <c r="P29" s="10">
         <v>0</v>
       </c>
@@ -6808,11 +8090,15 @@
       <c r="R29" s="10">
         <v>80</v>
       </c>
-      <c r="S29" s="10"/>
+      <c r="S29" s="10">
+        <v>80</v>
+      </c>
       <c r="T29" s="10">
         <v>0</v>
       </c>
-      <c r="U29" s="10"/>
+      <c r="U29" s="10">
+        <v>80</v>
+      </c>
       <c r="V29" s="10">
         <v>0</v>
       </c>
@@ -6822,11 +8108,15 @@
       <c r="X29" s="10">
         <v>80</v>
       </c>
-      <c r="Y29" s="10"/>
+      <c r="Y29" s="10">
+        <v>80</v>
+      </c>
       <c r="Z29" s="10">
         <v>0</v>
       </c>
-      <c r="AA29" s="10"/>
+      <c r="AA29" s="10">
+        <v>80</v>
+      </c>
       <c r="AB29" s="10">
         <v>0</v>
       </c>
@@ -6836,11 +8126,15 @@
       <c r="AD29" s="10">
         <v>80</v>
       </c>
-      <c r="AE29" s="10"/>
+      <c r="AE29" s="10">
+        <v>80</v>
+      </c>
       <c r="AF29" s="10">
         <v>0</v>
       </c>
-      <c r="AG29" s="10"/>
+      <c r="AG29" s="10">
+        <v>80</v>
+      </c>
       <c r="AH29" s="10">
         <v>0</v>
       </c>
@@ -6850,11 +8144,15 @@
       <c r="AJ29" s="10">
         <v>80</v>
       </c>
-      <c r="AK29" s="10"/>
+      <c r="AK29" s="10">
+        <v>80</v>
+      </c>
       <c r="AL29" s="10">
         <v>0</v>
       </c>
-      <c r="AM29" s="10"/>
+      <c r="AM29" s="10">
+        <v>80</v>
+      </c>
       <c r="AN29" s="10">
         <v>0</v>
       </c>
@@ -6864,11 +8162,15 @@
       <c r="AP29" s="10">
         <v>80</v>
       </c>
-      <c r="AQ29" s="10"/>
+      <c r="AQ29" s="10">
+        <v>80</v>
+      </c>
       <c r="AR29" s="10">
         <v>0</v>
       </c>
-      <c r="AS29" s="10"/>
+      <c r="AS29" s="10">
+        <v>80</v>
+      </c>
       <c r="AT29" s="10">
         <v>0</v>
       </c>
@@ -6878,11 +8180,15 @@
       <c r="AV29" s="10">
         <v>80</v>
       </c>
-      <c r="AW29" s="10"/>
+      <c r="AW29" s="10">
+        <v>80</v>
+      </c>
       <c r="AX29" s="10">
         <v>0</v>
       </c>
-      <c r="AY29" s="10"/>
+      <c r="AY29" s="10">
+        <v>80</v>
+      </c>
       <c r="AZ29" s="10">
         <v>0</v>
       </c>
@@ -6892,11 +8198,15 @@
       <c r="BB29" s="10">
         <v>80</v>
       </c>
-      <c r="BC29" s="10"/>
+      <c r="BC29" s="10">
+        <v>80</v>
+      </c>
       <c r="BD29" s="10">
         <v>0</v>
       </c>
-      <c r="BE29" s="10"/>
+      <c r="BE29" s="10">
+        <v>80</v>
+      </c>
       <c r="BF29" s="10">
         <v>0</v>
       </c>
@@ -6906,11 +8216,15 @@
       <c r="BH29" s="10">
         <v>80</v>
       </c>
-      <c r="BI29" s="10"/>
+      <c r="BI29" s="10">
+        <v>80</v>
+      </c>
       <c r="BJ29" s="10">
         <v>0</v>
       </c>
-      <c r="BK29" s="10"/>
+      <c r="BK29" s="10">
+        <v>80</v>
+      </c>
       <c r="BL29" s="10">
         <v>0</v>
       </c>
@@ -6920,11 +8234,15 @@
       <c r="BN29" s="10">
         <v>80</v>
       </c>
-      <c r="BO29" s="10"/>
+      <c r="BO29" s="10">
+        <v>80</v>
+      </c>
       <c r="BP29" s="10">
         <v>0</v>
       </c>
-      <c r="BQ29" s="10"/>
+      <c r="BQ29" s="10">
+        <v>80</v>
+      </c>
       <c r="BR29" s="10">
         <v>0</v>
       </c>
@@ -6934,11 +8252,15 @@
       <c r="BT29" s="10">
         <v>80</v>
       </c>
-      <c r="BU29" s="10"/>
+      <c r="BU29" s="10">
+        <v>80</v>
+      </c>
       <c r="BV29" s="10">
         <v>0</v>
       </c>
-      <c r="BW29" s="10"/>
+      <c r="BW29" s="10">
+        <v>80</v>
+      </c>
       <c r="BX29" s="10">
         <v>0</v>
       </c>
@@ -6948,11 +8270,15 @@
       <c r="BZ29" s="10">
         <v>80</v>
       </c>
-      <c r="CA29" s="10"/>
+      <c r="CA29" s="10">
+        <v>80</v>
+      </c>
       <c r="CB29" s="10">
         <v>0</v>
       </c>
-      <c r="CC29" s="10"/>
+      <c r="CC29" s="10">
+        <v>80</v>
+      </c>
       <c r="CD29" s="10">
         <v>0</v>
       </c>
@@ -6976,11 +8302,15 @@
       <c r="F30" s="10">
         <v>80</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="10">
+        <v>80</v>
+      </c>
       <c r="H30" s="10">
         <v>100</v>
       </c>
-      <c r="I30" s="10"/>
+      <c r="I30" s="10">
+        <v>80</v>
+      </c>
       <c r="J30" s="10">
         <v>0</v>
       </c>
@@ -6990,11 +8320,15 @@
       <c r="L30" s="10">
         <v>80</v>
       </c>
-      <c r="M30" s="10"/>
+      <c r="M30" s="10">
+        <v>80</v>
+      </c>
       <c r="N30" s="10">
         <v>100</v>
       </c>
-      <c r="O30" s="10"/>
+      <c r="O30" s="10">
+        <v>80</v>
+      </c>
       <c r="P30" s="10">
         <v>0</v>
       </c>
@@ -7004,11 +8338,15 @@
       <c r="R30" s="10">
         <v>80</v>
       </c>
-      <c r="S30" s="10"/>
+      <c r="S30" s="10">
+        <v>80</v>
+      </c>
       <c r="T30" s="10">
         <v>100</v>
       </c>
-      <c r="U30" s="10"/>
+      <c r="U30" s="10">
+        <v>80</v>
+      </c>
       <c r="V30" s="10">
         <v>0</v>
       </c>
@@ -7018,11 +8356,15 @@
       <c r="X30" s="10">
         <v>80</v>
       </c>
-      <c r="Y30" s="10"/>
+      <c r="Y30" s="10">
+        <v>80</v>
+      </c>
       <c r="Z30" s="10">
         <v>100</v>
       </c>
-      <c r="AA30" s="10"/>
+      <c r="AA30" s="10">
+        <v>80</v>
+      </c>
       <c r="AB30" s="10">
         <v>0</v>
       </c>
@@ -7032,11 +8374,15 @@
       <c r="AD30" s="10">
         <v>80</v>
       </c>
-      <c r="AE30" s="10"/>
+      <c r="AE30" s="10">
+        <v>80</v>
+      </c>
       <c r="AF30" s="10">
         <v>100</v>
       </c>
-      <c r="AG30" s="10"/>
+      <c r="AG30" s="10">
+        <v>80</v>
+      </c>
       <c r="AH30" s="10">
         <v>0</v>
       </c>
@@ -7046,11 +8392,15 @@
       <c r="AJ30" s="10">
         <v>80</v>
       </c>
-      <c r="AK30" s="10"/>
+      <c r="AK30" s="10">
+        <v>80</v>
+      </c>
       <c r="AL30" s="10">
         <v>100</v>
       </c>
-      <c r="AM30" s="10"/>
+      <c r="AM30" s="10">
+        <v>80</v>
+      </c>
       <c r="AN30" s="10">
         <v>0</v>
       </c>
@@ -7060,11 +8410,15 @@
       <c r="AP30" s="10">
         <v>80</v>
       </c>
-      <c r="AQ30" s="10"/>
+      <c r="AQ30" s="10">
+        <v>80</v>
+      </c>
       <c r="AR30" s="10">
         <v>100</v>
       </c>
-      <c r="AS30" s="10"/>
+      <c r="AS30" s="10">
+        <v>80</v>
+      </c>
       <c r="AT30" s="10">
         <v>0</v>
       </c>
@@ -7074,11 +8428,15 @@
       <c r="AV30" s="10">
         <v>80</v>
       </c>
-      <c r="AW30" s="10"/>
+      <c r="AW30" s="10">
+        <v>80</v>
+      </c>
       <c r="AX30" s="10">
         <v>100</v>
       </c>
-      <c r="AY30" s="10"/>
+      <c r="AY30" s="10">
+        <v>80</v>
+      </c>
       <c r="AZ30" s="10">
         <v>0</v>
       </c>
@@ -7088,11 +8446,15 @@
       <c r="BB30" s="10">
         <v>80</v>
       </c>
-      <c r="BC30" s="10"/>
+      <c r="BC30" s="10">
+        <v>80</v>
+      </c>
       <c r="BD30" s="10">
         <v>100</v>
       </c>
-      <c r="BE30" s="10"/>
+      <c r="BE30" s="10">
+        <v>80</v>
+      </c>
       <c r="BF30" s="10">
         <v>0</v>
       </c>
@@ -7102,11 +8464,15 @@
       <c r="BH30" s="10">
         <v>80</v>
       </c>
-      <c r="BI30" s="10"/>
+      <c r="BI30" s="10">
+        <v>80</v>
+      </c>
       <c r="BJ30" s="10">
         <v>100</v>
       </c>
-      <c r="BK30" s="10"/>
+      <c r="BK30" s="10">
+        <v>80</v>
+      </c>
       <c r="BL30" s="10">
         <v>0</v>
       </c>
@@ -7116,11 +8482,15 @@
       <c r="BN30" s="10">
         <v>80</v>
       </c>
-      <c r="BO30" s="10"/>
+      <c r="BO30" s="10">
+        <v>80</v>
+      </c>
       <c r="BP30" s="10">
         <v>100</v>
       </c>
-      <c r="BQ30" s="10"/>
+      <c r="BQ30" s="10">
+        <v>80</v>
+      </c>
       <c r="BR30" s="10">
         <v>0</v>
       </c>
@@ -7130,11 +8500,15 @@
       <c r="BT30" s="10">
         <v>80</v>
       </c>
-      <c r="BU30" s="10"/>
+      <c r="BU30" s="10">
+        <v>80</v>
+      </c>
       <c r="BV30" s="10">
         <v>100</v>
       </c>
-      <c r="BW30" s="10"/>
+      <c r="BW30" s="10">
+        <v>80</v>
+      </c>
       <c r="BX30" s="10">
         <v>0</v>
       </c>
@@ -7144,11 +8518,15 @@
       <c r="BZ30" s="10">
         <v>80</v>
       </c>
-      <c r="CA30" s="10"/>
+      <c r="CA30" s="10">
+        <v>80</v>
+      </c>
       <c r="CB30" s="10">
         <v>100</v>
       </c>
-      <c r="CC30" s="10"/>
+      <c r="CC30" s="10">
+        <v>80</v>
+      </c>
       <c r="CD30" s="10">
         <v>0</v>
       </c>
@@ -7172,11 +8550,15 @@
       <c r="F31" s="10">
         <v>85</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
       <c r="H31" s="10">
         <v>100</v>
       </c>
-      <c r="I31" s="10"/>
+      <c r="I31" s="10">
+        <v>85</v>
+      </c>
       <c r="J31" s="10">
         <v>90</v>
       </c>
@@ -7186,11 +8568,15 @@
       <c r="L31" s="10">
         <v>85</v>
       </c>
-      <c r="M31" s="10"/>
+      <c r="M31" s="10">
+        <v>85</v>
+      </c>
       <c r="N31" s="10">
         <v>100</v>
       </c>
-      <c r="O31" s="10"/>
+      <c r="O31" s="10">
+        <v>85</v>
+      </c>
       <c r="P31" s="10">
         <v>90</v>
       </c>
@@ -7200,11 +8586,15 @@
       <c r="R31" s="10">
         <v>85</v>
       </c>
-      <c r="S31" s="10"/>
+      <c r="S31" s="10">
+        <v>85</v>
+      </c>
       <c r="T31" s="10">
         <v>100</v>
       </c>
-      <c r="U31" s="10"/>
+      <c r="U31" s="10">
+        <v>85</v>
+      </c>
       <c r="V31" s="10">
         <v>90</v>
       </c>
@@ -7214,11 +8604,15 @@
       <c r="X31" s="10">
         <v>85</v>
       </c>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="10">
+        <v>85</v>
+      </c>
       <c r="Z31" s="10">
         <v>100</v>
       </c>
-      <c r="AA31" s="10"/>
+      <c r="AA31" s="10">
+        <v>85</v>
+      </c>
       <c r="AB31" s="10">
         <v>90</v>
       </c>
@@ -7228,11 +8622,15 @@
       <c r="AD31" s="10">
         <v>85</v>
       </c>
-      <c r="AE31" s="10"/>
+      <c r="AE31" s="10">
+        <v>85</v>
+      </c>
       <c r="AF31" s="10">
         <v>100</v>
       </c>
-      <c r="AG31" s="10"/>
+      <c r="AG31" s="10">
+        <v>85</v>
+      </c>
       <c r="AH31" s="10">
         <v>90</v>
       </c>
@@ -7242,11 +8640,15 @@
       <c r="AJ31" s="10">
         <v>85</v>
       </c>
-      <c r="AK31" s="10"/>
+      <c r="AK31" s="10">
+        <v>85</v>
+      </c>
       <c r="AL31" s="10">
         <v>100</v>
       </c>
-      <c r="AM31" s="10"/>
+      <c r="AM31" s="10">
+        <v>85</v>
+      </c>
       <c r="AN31" s="10">
         <v>90</v>
       </c>
@@ -7256,11 +8658,15 @@
       <c r="AP31" s="10">
         <v>85</v>
       </c>
-      <c r="AQ31" s="10"/>
+      <c r="AQ31" s="10">
+        <v>85</v>
+      </c>
       <c r="AR31" s="10">
         <v>100</v>
       </c>
-      <c r="AS31" s="10"/>
+      <c r="AS31" s="10">
+        <v>85</v>
+      </c>
       <c r="AT31" s="10">
         <v>90</v>
       </c>
@@ -7270,11 +8676,15 @@
       <c r="AV31" s="10">
         <v>85</v>
       </c>
-      <c r="AW31" s="10"/>
+      <c r="AW31" s="10">
+        <v>85</v>
+      </c>
       <c r="AX31" s="10">
         <v>100</v>
       </c>
-      <c r="AY31" s="10"/>
+      <c r="AY31" s="10">
+        <v>85</v>
+      </c>
       <c r="AZ31" s="10">
         <v>90</v>
       </c>
@@ -7284,11 +8694,15 @@
       <c r="BB31" s="10">
         <v>85</v>
       </c>
-      <c r="BC31" s="10"/>
+      <c r="BC31" s="10">
+        <v>85</v>
+      </c>
       <c r="BD31" s="10">
         <v>100</v>
       </c>
-      <c r="BE31" s="10"/>
+      <c r="BE31" s="10">
+        <v>85</v>
+      </c>
       <c r="BF31" s="10">
         <v>90</v>
       </c>
@@ -7298,11 +8712,15 @@
       <c r="BH31" s="10">
         <v>85</v>
       </c>
-      <c r="BI31" s="10"/>
+      <c r="BI31" s="10">
+        <v>85</v>
+      </c>
       <c r="BJ31" s="10">
         <v>100</v>
       </c>
-      <c r="BK31" s="10"/>
+      <c r="BK31" s="10">
+        <v>85</v>
+      </c>
       <c r="BL31" s="10">
         <v>90</v>
       </c>
@@ -7312,11 +8730,15 @@
       <c r="BN31" s="10">
         <v>85</v>
       </c>
-      <c r="BO31" s="10"/>
+      <c r="BO31" s="10">
+        <v>85</v>
+      </c>
       <c r="BP31" s="10">
         <v>100</v>
       </c>
-      <c r="BQ31" s="10"/>
+      <c r="BQ31" s="10">
+        <v>85</v>
+      </c>
       <c r="BR31" s="10">
         <v>90</v>
       </c>
@@ -7326,11 +8748,15 @@
       <c r="BT31" s="10">
         <v>85</v>
       </c>
-      <c r="BU31" s="10"/>
+      <c r="BU31" s="10">
+        <v>85</v>
+      </c>
       <c r="BV31" s="10">
         <v>100</v>
       </c>
-      <c r="BW31" s="10"/>
+      <c r="BW31" s="10">
+        <v>85</v>
+      </c>
       <c r="BX31" s="10">
         <v>90</v>
       </c>
@@ -7340,11 +8766,15 @@
       <c r="BZ31" s="10">
         <v>85</v>
       </c>
-      <c r="CA31" s="10"/>
+      <c r="CA31" s="10">
+        <v>85</v>
+      </c>
       <c r="CB31" s="10">
         <v>100</v>
       </c>
-      <c r="CC31" s="10"/>
+      <c r="CC31" s="10">
+        <v>85</v>
+      </c>
       <c r="CD31" s="10">
         <v>90</v>
       </c>
@@ -7368,11 +8798,15 @@
       <c r="F32" s="10">
         <v>0</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="10">
+        <v>90</v>
+      </c>
       <c r="H32" s="10">
         <v>0</v>
       </c>
-      <c r="I32" s="10"/>
+      <c r="I32" s="10">
+        <v>0</v>
+      </c>
       <c r="J32" s="10">
         <v>0</v>
       </c>
@@ -7382,11 +8816,15 @@
       <c r="L32" s="10">
         <v>0</v>
       </c>
-      <c r="M32" s="10"/>
+      <c r="M32" s="10">
+        <v>0</v>
+      </c>
       <c r="N32" s="10">
         <v>0</v>
       </c>
-      <c r="O32" s="10"/>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
       <c r="P32" s="10">
         <v>0</v>
       </c>
@@ -7396,11 +8834,15 @@
       <c r="R32" s="10">
         <v>0</v>
       </c>
-      <c r="S32" s="10"/>
+      <c r="S32" s="10">
+        <v>0</v>
+      </c>
       <c r="T32" s="10">
         <v>0</v>
       </c>
-      <c r="U32" s="10"/>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
       <c r="V32" s="10">
         <v>0</v>
       </c>
@@ -7410,11 +8852,15 @@
       <c r="X32" s="10">
         <v>0</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="10">
+        <v>0</v>
+      </c>
       <c r="Z32" s="10">
         <v>0</v>
       </c>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="10">
+        <v>0</v>
+      </c>
       <c r="AB32" s="10">
         <v>0</v>
       </c>
@@ -7424,11 +8870,15 @@
       <c r="AD32" s="10">
         <v>0</v>
       </c>
-      <c r="AE32" s="10"/>
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
       <c r="AF32" s="10">
         <v>0</v>
       </c>
-      <c r="AG32" s="10"/>
+      <c r="AG32" s="10">
+        <v>0</v>
+      </c>
       <c r="AH32" s="10">
         <v>0</v>
       </c>
@@ -7438,11 +8888,15 @@
       <c r="AJ32" s="10">
         <v>0</v>
       </c>
-      <c r="AK32" s="10"/>
+      <c r="AK32" s="10">
+        <v>0</v>
+      </c>
       <c r="AL32" s="10">
         <v>0</v>
       </c>
-      <c r="AM32" s="10"/>
+      <c r="AM32" s="10">
+        <v>0</v>
+      </c>
       <c r="AN32" s="10">
         <v>0</v>
       </c>
@@ -7452,11 +8906,15 @@
       <c r="AP32" s="10">
         <v>0</v>
       </c>
-      <c r="AQ32" s="10"/>
+      <c r="AQ32" s="10">
+        <v>0</v>
+      </c>
       <c r="AR32" s="10">
         <v>0</v>
       </c>
-      <c r="AS32" s="10"/>
+      <c r="AS32" s="10">
+        <v>0</v>
+      </c>
       <c r="AT32" s="10">
         <v>0</v>
       </c>
@@ -7466,11 +8924,15 @@
       <c r="AV32" s="10">
         <v>0</v>
       </c>
-      <c r="AW32" s="10"/>
+      <c r="AW32" s="10">
+        <v>0</v>
+      </c>
       <c r="AX32" s="10">
         <v>0</v>
       </c>
-      <c r="AY32" s="10"/>
+      <c r="AY32" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ32" s="10">
         <v>0</v>
       </c>
@@ -7480,11 +8942,15 @@
       <c r="BB32" s="10">
         <v>0</v>
       </c>
-      <c r="BC32" s="10"/>
+      <c r="BC32" s="10">
+        <v>0</v>
+      </c>
       <c r="BD32" s="10">
         <v>0</v>
       </c>
-      <c r="BE32" s="10"/>
+      <c r="BE32" s="10">
+        <v>0</v>
+      </c>
       <c r="BF32" s="10">
         <v>0</v>
       </c>
@@ -7494,11 +8960,15 @@
       <c r="BH32" s="10">
         <v>0</v>
       </c>
-      <c r="BI32" s="10"/>
+      <c r="BI32" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ32" s="10">
         <v>0</v>
       </c>
-      <c r="BK32" s="10"/>
+      <c r="BK32" s="10">
+        <v>0</v>
+      </c>
       <c r="BL32" s="10">
         <v>0</v>
       </c>
@@ -7508,11 +8978,15 @@
       <c r="BN32" s="10">
         <v>0</v>
       </c>
-      <c r="BO32" s="10"/>
+      <c r="BO32" s="10">
+        <v>0</v>
+      </c>
       <c r="BP32" s="10">
         <v>0</v>
       </c>
-      <c r="BQ32" s="10"/>
+      <c r="BQ32" s="10">
+        <v>0</v>
+      </c>
       <c r="BR32" s="10">
         <v>0</v>
       </c>
@@ -7522,11 +8996,15 @@
       <c r="BT32" s="10">
         <v>0</v>
       </c>
-      <c r="BU32" s="10"/>
+      <c r="BU32" s="10">
+        <v>0</v>
+      </c>
       <c r="BV32" s="10">
         <v>0</v>
       </c>
-      <c r="BW32" s="10"/>
+      <c r="BW32" s="10">
+        <v>0</v>
+      </c>
       <c r="BX32" s="10">
         <v>0</v>
       </c>
@@ -7536,11 +9014,15 @@
       <c r="BZ32" s="10">
         <v>0</v>
       </c>
-      <c r="CA32" s="10"/>
+      <c r="CA32" s="10">
+        <v>0</v>
+      </c>
       <c r="CB32" s="10">
         <v>0</v>
       </c>
-      <c r="CC32" s="10"/>
+      <c r="CC32" s="10">
+        <v>0</v>
+      </c>
       <c r="CD32" s="10">
         <v>0</v>
       </c>
@@ -7564,11 +9046,15 @@
       <c r="F33" s="10">
         <v>0</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="10">
+        <v>90</v>
+      </c>
       <c r="H33" s="10">
         <v>0</v>
       </c>
-      <c r="I33" s="10"/>
+      <c r="I33" s="10">
+        <v>0</v>
+      </c>
       <c r="J33" s="10">
         <v>0</v>
       </c>
@@ -7578,11 +9064,15 @@
       <c r="L33" s="10">
         <v>0</v>
       </c>
-      <c r="M33" s="10"/>
+      <c r="M33" s="10">
+        <v>0</v>
+      </c>
       <c r="N33" s="10">
         <v>0</v>
       </c>
-      <c r="O33" s="10"/>
+      <c r="O33" s="10">
+        <v>0</v>
+      </c>
       <c r="P33" s="10">
         <v>0</v>
       </c>
@@ -7592,11 +9082,15 @@
       <c r="R33" s="10">
         <v>0</v>
       </c>
-      <c r="S33" s="10"/>
+      <c r="S33" s="10">
+        <v>0</v>
+      </c>
       <c r="T33" s="10">
         <v>0</v>
       </c>
-      <c r="U33" s="10"/>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
       <c r="V33" s="10">
         <v>0</v>
       </c>
@@ -7606,11 +9100,15 @@
       <c r="X33" s="10">
         <v>0</v>
       </c>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="10">
+        <v>0</v>
+      </c>
       <c r="Z33" s="10">
         <v>0</v>
       </c>
-      <c r="AA33" s="10"/>
+      <c r="AA33" s="10">
+        <v>0</v>
+      </c>
       <c r="AB33" s="10">
         <v>0</v>
       </c>
@@ -7620,11 +9118,15 @@
       <c r="AD33" s="10">
         <v>0</v>
       </c>
-      <c r="AE33" s="10"/>
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
       <c r="AF33" s="10">
         <v>0</v>
       </c>
-      <c r="AG33" s="10"/>
+      <c r="AG33" s="10">
+        <v>0</v>
+      </c>
       <c r="AH33" s="10">
         <v>0</v>
       </c>
@@ -7634,11 +9136,15 @@
       <c r="AJ33" s="10">
         <v>0</v>
       </c>
-      <c r="AK33" s="10"/>
+      <c r="AK33" s="10">
+        <v>0</v>
+      </c>
       <c r="AL33" s="10">
         <v>0</v>
       </c>
-      <c r="AM33" s="10"/>
+      <c r="AM33" s="10">
+        <v>0</v>
+      </c>
       <c r="AN33" s="10">
         <v>0</v>
       </c>
@@ -7648,11 +9154,15 @@
       <c r="AP33" s="10">
         <v>0</v>
       </c>
-      <c r="AQ33" s="10"/>
+      <c r="AQ33" s="10">
+        <v>0</v>
+      </c>
       <c r="AR33" s="10">
         <v>0</v>
       </c>
-      <c r="AS33" s="10"/>
+      <c r="AS33" s="10">
+        <v>0</v>
+      </c>
       <c r="AT33" s="10">
         <v>0</v>
       </c>
@@ -7662,11 +9172,15 @@
       <c r="AV33" s="10">
         <v>0</v>
       </c>
-      <c r="AW33" s="10"/>
+      <c r="AW33" s="10">
+        <v>0</v>
+      </c>
       <c r="AX33" s="10">
         <v>0</v>
       </c>
-      <c r="AY33" s="10"/>
+      <c r="AY33" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ33" s="10">
         <v>0</v>
       </c>
@@ -7676,11 +9190,15 @@
       <c r="BB33" s="10">
         <v>0</v>
       </c>
-      <c r="BC33" s="10"/>
+      <c r="BC33" s="10">
+        <v>0</v>
+      </c>
       <c r="BD33" s="10">
         <v>0</v>
       </c>
-      <c r="BE33" s="10"/>
+      <c r="BE33" s="10">
+        <v>0</v>
+      </c>
       <c r="BF33" s="10">
         <v>0</v>
       </c>
@@ -7690,11 +9208,15 @@
       <c r="BH33" s="10">
         <v>0</v>
       </c>
-      <c r="BI33" s="10"/>
+      <c r="BI33" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ33" s="10">
         <v>0</v>
       </c>
-      <c r="BK33" s="10"/>
+      <c r="BK33" s="10">
+        <v>0</v>
+      </c>
       <c r="BL33" s="10">
         <v>0</v>
       </c>
@@ -7704,11 +9226,15 @@
       <c r="BN33" s="10">
         <v>0</v>
       </c>
-      <c r="BO33" s="10"/>
+      <c r="BO33" s="10">
+        <v>0</v>
+      </c>
       <c r="BP33" s="10">
         <v>0</v>
       </c>
-      <c r="BQ33" s="10"/>
+      <c r="BQ33" s="10">
+        <v>0</v>
+      </c>
       <c r="BR33" s="10">
         <v>0</v>
       </c>
@@ -7718,11 +9244,15 @@
       <c r="BT33" s="10">
         <v>0</v>
       </c>
-      <c r="BU33" s="10"/>
+      <c r="BU33" s="10">
+        <v>0</v>
+      </c>
       <c r="BV33" s="10">
         <v>0</v>
       </c>
-      <c r="BW33" s="10"/>
+      <c r="BW33" s="10">
+        <v>0</v>
+      </c>
       <c r="BX33" s="10">
         <v>0</v>
       </c>
@@ -7732,11 +9262,15 @@
       <c r="BZ33" s="10">
         <v>0</v>
       </c>
-      <c r="CA33" s="10"/>
+      <c r="CA33" s="10">
+        <v>0</v>
+      </c>
       <c r="CB33" s="10">
         <v>0</v>
       </c>
-      <c r="CC33" s="10"/>
+      <c r="CC33" s="10">
+        <v>0</v>
+      </c>
       <c r="CD33" s="10">
         <v>0</v>
       </c>
@@ -7760,11 +9294,15 @@
       <c r="F34" s="10">
         <v>100</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
       <c r="H34" s="10">
         <v>100</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="10">
+        <v>100</v>
+      </c>
       <c r="J34" s="10">
         <v>100</v>
       </c>
@@ -7774,11 +9312,15 @@
       <c r="L34" s="10">
         <v>100</v>
       </c>
-      <c r="M34" s="10"/>
+      <c r="M34" s="10">
+        <v>100</v>
+      </c>
       <c r="N34" s="10">
         <v>100</v>
       </c>
-      <c r="O34" s="10"/>
+      <c r="O34" s="10">
+        <v>100</v>
+      </c>
       <c r="P34" s="10">
         <v>100</v>
       </c>
@@ -7788,11 +9330,15 @@
       <c r="R34" s="10">
         <v>100</v>
       </c>
-      <c r="S34" s="10"/>
+      <c r="S34" s="10">
+        <v>100</v>
+      </c>
       <c r="T34" s="10">
         <v>100</v>
       </c>
-      <c r="U34" s="10"/>
+      <c r="U34" s="10">
+        <v>100</v>
+      </c>
       <c r="V34" s="10">
         <v>100</v>
       </c>
@@ -7802,11 +9348,15 @@
       <c r="X34" s="10">
         <v>100</v>
       </c>
-      <c r="Y34" s="10"/>
+      <c r="Y34" s="10">
+        <v>100</v>
+      </c>
       <c r="Z34" s="10">
         <v>100</v>
       </c>
-      <c r="AA34" s="10"/>
+      <c r="AA34" s="10">
+        <v>100</v>
+      </c>
       <c r="AB34" s="10">
         <v>100</v>
       </c>
@@ -7816,11 +9366,15 @@
       <c r="AD34" s="10">
         <v>100</v>
       </c>
-      <c r="AE34" s="10"/>
+      <c r="AE34" s="10">
+        <v>100</v>
+      </c>
       <c r="AF34" s="10">
         <v>100</v>
       </c>
-      <c r="AG34" s="10"/>
+      <c r="AG34" s="10">
+        <v>100</v>
+      </c>
       <c r="AH34" s="10">
         <v>100</v>
       </c>
@@ -7830,11 +9384,15 @@
       <c r="AJ34" s="10">
         <v>100</v>
       </c>
-      <c r="AK34" s="10"/>
+      <c r="AK34" s="10">
+        <v>100</v>
+      </c>
       <c r="AL34" s="10">
         <v>100</v>
       </c>
-      <c r="AM34" s="10"/>
+      <c r="AM34" s="10">
+        <v>100</v>
+      </c>
       <c r="AN34" s="10">
         <v>100</v>
       </c>
@@ -7844,11 +9402,15 @@
       <c r="AP34" s="10">
         <v>100</v>
       </c>
-      <c r="AQ34" s="10"/>
+      <c r="AQ34" s="10">
+        <v>100</v>
+      </c>
       <c r="AR34" s="10">
         <v>100</v>
       </c>
-      <c r="AS34" s="10"/>
+      <c r="AS34" s="10">
+        <v>100</v>
+      </c>
       <c r="AT34" s="10">
         <v>100</v>
       </c>
@@ -7858,11 +9420,15 @@
       <c r="AV34" s="10">
         <v>100</v>
       </c>
-      <c r="AW34" s="10"/>
+      <c r="AW34" s="10">
+        <v>100</v>
+      </c>
       <c r="AX34" s="10">
         <v>100</v>
       </c>
-      <c r="AY34" s="10"/>
+      <c r="AY34" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ34" s="10">
         <v>100</v>
       </c>
@@ -7872,11 +9438,15 @@
       <c r="BB34" s="10">
         <v>100</v>
       </c>
-      <c r="BC34" s="10"/>
+      <c r="BC34" s="10">
+        <v>100</v>
+      </c>
       <c r="BD34" s="10">
         <v>100</v>
       </c>
-      <c r="BE34" s="10"/>
+      <c r="BE34" s="10">
+        <v>100</v>
+      </c>
       <c r="BF34" s="10">
         <v>100</v>
       </c>
@@ -7886,11 +9456,15 @@
       <c r="BH34" s="10">
         <v>100</v>
       </c>
-      <c r="BI34" s="10"/>
+      <c r="BI34" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ34" s="10">
         <v>100</v>
       </c>
-      <c r="BK34" s="10"/>
+      <c r="BK34" s="10">
+        <v>100</v>
+      </c>
       <c r="BL34" s="10">
         <v>100</v>
       </c>
@@ -7900,11 +9474,15 @@
       <c r="BN34" s="10">
         <v>100</v>
       </c>
-      <c r="BO34" s="10"/>
+      <c r="BO34" s="10">
+        <v>100</v>
+      </c>
       <c r="BP34" s="10">
         <v>100</v>
       </c>
-      <c r="BQ34" s="10"/>
+      <c r="BQ34" s="10">
+        <v>100</v>
+      </c>
       <c r="BR34" s="10">
         <v>100</v>
       </c>
@@ -7914,11 +9492,15 @@
       <c r="BT34" s="10">
         <v>100</v>
       </c>
-      <c r="BU34" s="10"/>
+      <c r="BU34" s="10">
+        <v>100</v>
+      </c>
       <c r="BV34" s="10">
         <v>100</v>
       </c>
-      <c r="BW34" s="10"/>
+      <c r="BW34" s="10">
+        <v>100</v>
+      </c>
       <c r="BX34" s="10">
         <v>100</v>
       </c>
@@ -7928,11 +9510,15 @@
       <c r="BZ34" s="10">
         <v>100</v>
       </c>
-      <c r="CA34" s="10"/>
+      <c r="CA34" s="10">
+        <v>100</v>
+      </c>
       <c r="CB34" s="10">
         <v>100</v>
       </c>
-      <c r="CC34" s="10"/>
+      <c r="CC34" s="10">
+        <v>100</v>
+      </c>
       <c r="CD34" s="10">
         <v>100</v>
       </c>
@@ -7956,11 +9542,15 @@
       <c r="F35" s="10">
         <v>100</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="10">
+        <v>100</v>
+      </c>
       <c r="H35" s="10">
         <v>100</v>
       </c>
-      <c r="I35" s="10"/>
+      <c r="I35" s="10">
+        <v>100</v>
+      </c>
       <c r="J35" s="10">
         <v>97</v>
       </c>
@@ -7970,11 +9560,15 @@
       <c r="L35" s="10">
         <v>100</v>
       </c>
-      <c r="M35" s="10"/>
+      <c r="M35" s="10">
+        <v>100</v>
+      </c>
       <c r="N35" s="10">
         <v>100</v>
       </c>
-      <c r="O35" s="10"/>
+      <c r="O35" s="10">
+        <v>100</v>
+      </c>
       <c r="P35" s="10">
         <v>97</v>
       </c>
@@ -7984,11 +9578,15 @@
       <c r="R35" s="10">
         <v>100</v>
       </c>
-      <c r="S35" s="10"/>
+      <c r="S35" s="10">
+        <v>100</v>
+      </c>
       <c r="T35" s="10">
         <v>100</v>
       </c>
-      <c r="U35" s="10"/>
+      <c r="U35" s="10">
+        <v>100</v>
+      </c>
       <c r="V35" s="10">
         <v>97</v>
       </c>
@@ -7998,11 +9596,15 @@
       <c r="X35" s="10">
         <v>100</v>
       </c>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="10">
+        <v>100</v>
+      </c>
       <c r="Z35" s="10">
         <v>100</v>
       </c>
-      <c r="AA35" s="10"/>
+      <c r="AA35" s="10">
+        <v>100</v>
+      </c>
       <c r="AB35" s="10">
         <v>97</v>
       </c>
@@ -8012,11 +9614,15 @@
       <c r="AD35" s="10">
         <v>100</v>
       </c>
-      <c r="AE35" s="10"/>
+      <c r="AE35" s="10">
+        <v>100</v>
+      </c>
       <c r="AF35" s="10">
         <v>100</v>
       </c>
-      <c r="AG35" s="10"/>
+      <c r="AG35" s="10">
+        <v>100</v>
+      </c>
       <c r="AH35" s="10">
         <v>97</v>
       </c>
@@ -8026,11 +9632,15 @@
       <c r="AJ35" s="10">
         <v>100</v>
       </c>
-      <c r="AK35" s="10"/>
+      <c r="AK35" s="10">
+        <v>100</v>
+      </c>
       <c r="AL35" s="10">
         <v>100</v>
       </c>
-      <c r="AM35" s="10"/>
+      <c r="AM35" s="10">
+        <v>100</v>
+      </c>
       <c r="AN35" s="10">
         <v>97</v>
       </c>
@@ -8040,11 +9650,15 @@
       <c r="AP35" s="10">
         <v>100</v>
       </c>
-      <c r="AQ35" s="10"/>
+      <c r="AQ35" s="10">
+        <v>100</v>
+      </c>
       <c r="AR35" s="10">
         <v>100</v>
       </c>
-      <c r="AS35" s="10"/>
+      <c r="AS35" s="10">
+        <v>100</v>
+      </c>
       <c r="AT35" s="10">
         <v>97</v>
       </c>
@@ -8054,11 +9668,15 @@
       <c r="AV35" s="10">
         <v>100</v>
       </c>
-      <c r="AW35" s="10"/>
+      <c r="AW35" s="10">
+        <v>100</v>
+      </c>
       <c r="AX35" s="10">
         <v>100</v>
       </c>
-      <c r="AY35" s="10"/>
+      <c r="AY35" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ35" s="10">
         <v>97</v>
       </c>
@@ -8068,11 +9686,15 @@
       <c r="BB35" s="10">
         <v>100</v>
       </c>
-      <c r="BC35" s="10"/>
+      <c r="BC35" s="10">
+        <v>100</v>
+      </c>
       <c r="BD35" s="10">
         <v>100</v>
       </c>
-      <c r="BE35" s="10"/>
+      <c r="BE35" s="10">
+        <v>100</v>
+      </c>
       <c r="BF35" s="10">
         <v>97</v>
       </c>
@@ -8082,11 +9704,15 @@
       <c r="BH35" s="10">
         <v>100</v>
       </c>
-      <c r="BI35" s="10"/>
+      <c r="BI35" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ35" s="10">
         <v>100</v>
       </c>
-      <c r="BK35" s="10"/>
+      <c r="BK35" s="10">
+        <v>100</v>
+      </c>
       <c r="BL35" s="10">
         <v>97</v>
       </c>
@@ -8096,11 +9722,15 @@
       <c r="BN35" s="10">
         <v>100</v>
       </c>
-      <c r="BO35" s="10"/>
+      <c r="BO35" s="10">
+        <v>100</v>
+      </c>
       <c r="BP35" s="10">
         <v>100</v>
       </c>
-      <c r="BQ35" s="10"/>
+      <c r="BQ35" s="10">
+        <v>100</v>
+      </c>
       <c r="BR35" s="10">
         <v>97</v>
       </c>
@@ -8110,11 +9740,15 @@
       <c r="BT35" s="10">
         <v>100</v>
       </c>
-      <c r="BU35" s="10"/>
+      <c r="BU35" s="10">
+        <v>100</v>
+      </c>
       <c r="BV35" s="10">
         <v>100</v>
       </c>
-      <c r="BW35" s="10"/>
+      <c r="BW35" s="10">
+        <v>100</v>
+      </c>
       <c r="BX35" s="10">
         <v>97</v>
       </c>
@@ -8124,11 +9758,15 @@
       <c r="BZ35" s="10">
         <v>100</v>
       </c>
-      <c r="CA35" s="10"/>
+      <c r="CA35" s="10">
+        <v>100</v>
+      </c>
       <c r="CB35" s="10">
         <v>100</v>
       </c>
-      <c r="CC35" s="10"/>
+      <c r="CC35" s="10">
+        <v>100</v>
+      </c>
       <c r="CD35" s="10">
         <v>97</v>
       </c>
@@ -8152,11 +9790,15 @@
       <c r="F36" s="10">
         <v>0</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="10">
+        <v>85</v>
+      </c>
       <c r="H36" s="10">
         <v>0</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="10">
+        <v>0</v>
+      </c>
       <c r="J36" s="10">
         <v>0</v>
       </c>
@@ -8166,11 +9808,15 @@
       <c r="L36" s="10">
         <v>0</v>
       </c>
-      <c r="M36" s="10"/>
+      <c r="M36" s="10">
+        <v>0</v>
+      </c>
       <c r="N36" s="10">
         <v>0</v>
       </c>
-      <c r="O36" s="10"/>
+      <c r="O36" s="10">
+        <v>0</v>
+      </c>
       <c r="P36" s="10">
         <v>0</v>
       </c>
@@ -8180,11 +9826,15 @@
       <c r="R36" s="10">
         <v>0</v>
       </c>
-      <c r="S36" s="10"/>
+      <c r="S36" s="10">
+        <v>0</v>
+      </c>
       <c r="T36" s="10">
         <v>0</v>
       </c>
-      <c r="U36" s="10"/>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
       <c r="V36" s="10">
         <v>0</v>
       </c>
@@ -8194,11 +9844,15 @@
       <c r="X36" s="10">
         <v>0</v>
       </c>
-      <c r="Y36" s="10"/>
+      <c r="Y36" s="10">
+        <v>0</v>
+      </c>
       <c r="Z36" s="10">
         <v>0</v>
       </c>
-      <c r="AA36" s="10"/>
+      <c r="AA36" s="10">
+        <v>0</v>
+      </c>
       <c r="AB36" s="10">
         <v>0</v>
       </c>
@@ -8208,11 +9862,15 @@
       <c r="AD36" s="10">
         <v>0</v>
       </c>
-      <c r="AE36" s="10"/>
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
       <c r="AF36" s="10">
         <v>0</v>
       </c>
-      <c r="AG36" s="10"/>
+      <c r="AG36" s="10">
+        <v>0</v>
+      </c>
       <c r="AH36" s="10">
         <v>0</v>
       </c>
@@ -8222,11 +9880,15 @@
       <c r="AJ36" s="10">
         <v>0</v>
       </c>
-      <c r="AK36" s="10"/>
+      <c r="AK36" s="10">
+        <v>0</v>
+      </c>
       <c r="AL36" s="10">
         <v>0</v>
       </c>
-      <c r="AM36" s="10"/>
+      <c r="AM36" s="10">
+        <v>0</v>
+      </c>
       <c r="AN36" s="10">
         <v>0</v>
       </c>
@@ -8236,11 +9898,15 @@
       <c r="AP36" s="10">
         <v>0</v>
       </c>
-      <c r="AQ36" s="10"/>
+      <c r="AQ36" s="10">
+        <v>0</v>
+      </c>
       <c r="AR36" s="10">
         <v>0</v>
       </c>
-      <c r="AS36" s="10"/>
+      <c r="AS36" s="10">
+        <v>0</v>
+      </c>
       <c r="AT36" s="10">
         <v>0</v>
       </c>
@@ -8250,11 +9916,15 @@
       <c r="AV36" s="10">
         <v>0</v>
       </c>
-      <c r="AW36" s="10"/>
+      <c r="AW36" s="10">
+        <v>0</v>
+      </c>
       <c r="AX36" s="10">
         <v>0</v>
       </c>
-      <c r="AY36" s="10"/>
+      <c r="AY36" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ36" s="10">
         <v>0</v>
       </c>
@@ -8264,11 +9934,15 @@
       <c r="BB36" s="10">
         <v>0</v>
       </c>
-      <c r="BC36" s="10"/>
+      <c r="BC36" s="10">
+        <v>0</v>
+      </c>
       <c r="BD36" s="10">
         <v>0</v>
       </c>
-      <c r="BE36" s="10"/>
+      <c r="BE36" s="10">
+        <v>0</v>
+      </c>
       <c r="BF36" s="10">
         <v>0</v>
       </c>
@@ -8278,11 +9952,15 @@
       <c r="BH36" s="10">
         <v>0</v>
       </c>
-      <c r="BI36" s="10"/>
+      <c r="BI36" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ36" s="10">
         <v>0</v>
       </c>
-      <c r="BK36" s="10"/>
+      <c r="BK36" s="10">
+        <v>0</v>
+      </c>
       <c r="BL36" s="10">
         <v>0</v>
       </c>
@@ -8292,11 +9970,15 @@
       <c r="BN36" s="10">
         <v>0</v>
       </c>
-      <c r="BO36" s="10"/>
+      <c r="BO36" s="10">
+        <v>0</v>
+      </c>
       <c r="BP36" s="10">
         <v>0</v>
       </c>
-      <c r="BQ36" s="10"/>
+      <c r="BQ36" s="10">
+        <v>0</v>
+      </c>
       <c r="BR36" s="10">
         <v>0</v>
       </c>
@@ -8306,11 +9988,15 @@
       <c r="BT36" s="10">
         <v>0</v>
       </c>
-      <c r="BU36" s="10"/>
+      <c r="BU36" s="10">
+        <v>0</v>
+      </c>
       <c r="BV36" s="10">
         <v>0</v>
       </c>
-      <c r="BW36" s="10"/>
+      <c r="BW36" s="10">
+        <v>0</v>
+      </c>
       <c r="BX36" s="10">
         <v>0</v>
       </c>
@@ -8320,11 +10006,15 @@
       <c r="BZ36" s="10">
         <v>0</v>
       </c>
-      <c r="CA36" s="10"/>
+      <c r="CA36" s="10">
+        <v>0</v>
+      </c>
       <c r="CB36" s="10">
         <v>0</v>
       </c>
-      <c r="CC36" s="10"/>
+      <c r="CC36" s="10">
+        <v>0</v>
+      </c>
       <c r="CD36" s="10">
         <v>0</v>
       </c>
@@ -8348,11 +10038,15 @@
       <c r="F37" s="10">
         <v>0</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
       <c r="H37" s="10">
         <v>0</v>
       </c>
-      <c r="I37" s="10"/>
+      <c r="I37" s="10">
+        <v>0</v>
+      </c>
       <c r="J37" s="10">
         <v>60</v>
       </c>
@@ -8362,11 +10056,15 @@
       <c r="L37" s="10">
         <v>0</v>
       </c>
-      <c r="M37" s="10"/>
+      <c r="M37" s="10">
+        <v>0</v>
+      </c>
       <c r="N37" s="10">
         <v>0</v>
       </c>
-      <c r="O37" s="10"/>
+      <c r="O37" s="10">
+        <v>0</v>
+      </c>
       <c r="P37" s="10">
         <v>60</v>
       </c>
@@ -8376,11 +10074,15 @@
       <c r="R37" s="10">
         <v>0</v>
       </c>
-      <c r="S37" s="10"/>
+      <c r="S37" s="10">
+        <v>0</v>
+      </c>
       <c r="T37" s="10">
         <v>0</v>
       </c>
-      <c r="U37" s="10"/>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
       <c r="V37" s="10">
         <v>60</v>
       </c>
@@ -8390,11 +10092,15 @@
       <c r="X37" s="10">
         <v>0</v>
       </c>
-      <c r="Y37" s="10"/>
+      <c r="Y37" s="10">
+        <v>0</v>
+      </c>
       <c r="Z37" s="10">
         <v>0</v>
       </c>
-      <c r="AA37" s="10"/>
+      <c r="AA37" s="10">
+        <v>0</v>
+      </c>
       <c r="AB37" s="10">
         <v>60</v>
       </c>
@@ -8404,11 +10110,15 @@
       <c r="AD37" s="10">
         <v>0</v>
       </c>
-      <c r="AE37" s="10"/>
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
       <c r="AF37" s="10">
         <v>0</v>
       </c>
-      <c r="AG37" s="10"/>
+      <c r="AG37" s="10">
+        <v>0</v>
+      </c>
       <c r="AH37" s="10">
         <v>60</v>
       </c>
@@ -8418,11 +10128,15 @@
       <c r="AJ37" s="10">
         <v>0</v>
       </c>
-      <c r="AK37" s="10"/>
+      <c r="AK37" s="10">
+        <v>0</v>
+      </c>
       <c r="AL37" s="10">
         <v>0</v>
       </c>
-      <c r="AM37" s="10"/>
+      <c r="AM37" s="10">
+        <v>0</v>
+      </c>
       <c r="AN37" s="10">
         <v>60</v>
       </c>
@@ -8432,11 +10146,15 @@
       <c r="AP37" s="10">
         <v>0</v>
       </c>
-      <c r="AQ37" s="10"/>
+      <c r="AQ37" s="10">
+        <v>0</v>
+      </c>
       <c r="AR37" s="10">
         <v>0</v>
       </c>
-      <c r="AS37" s="10"/>
+      <c r="AS37" s="10">
+        <v>0</v>
+      </c>
       <c r="AT37" s="10">
         <v>60</v>
       </c>
@@ -8446,11 +10164,15 @@
       <c r="AV37" s="10">
         <v>0</v>
       </c>
-      <c r="AW37" s="10"/>
+      <c r="AW37" s="10">
+        <v>0</v>
+      </c>
       <c r="AX37" s="10">
         <v>0</v>
       </c>
-      <c r="AY37" s="10"/>
+      <c r="AY37" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ37" s="10">
         <v>60</v>
       </c>
@@ -8460,11 +10182,15 @@
       <c r="BB37" s="10">
         <v>0</v>
       </c>
-      <c r="BC37" s="10"/>
+      <c r="BC37" s="10">
+        <v>0</v>
+      </c>
       <c r="BD37" s="10">
         <v>0</v>
       </c>
-      <c r="BE37" s="10"/>
+      <c r="BE37" s="10">
+        <v>0</v>
+      </c>
       <c r="BF37" s="10">
         <v>60</v>
       </c>
@@ -8474,11 +10200,15 @@
       <c r="BH37" s="10">
         <v>0</v>
       </c>
-      <c r="BI37" s="10"/>
+      <c r="BI37" s="10">
+        <v>0</v>
+      </c>
       <c r="BJ37" s="10">
         <v>0</v>
       </c>
-      <c r="BK37" s="10"/>
+      <c r="BK37" s="10">
+        <v>0</v>
+      </c>
       <c r="BL37" s="10">
         <v>60</v>
       </c>
@@ -8488,11 +10218,15 @@
       <c r="BN37" s="10">
         <v>0</v>
       </c>
-      <c r="BO37" s="10"/>
+      <c r="BO37" s="10">
+        <v>0</v>
+      </c>
       <c r="BP37" s="10">
         <v>0</v>
       </c>
-      <c r="BQ37" s="10"/>
+      <c r="BQ37" s="10">
+        <v>0</v>
+      </c>
       <c r="BR37" s="10">
         <v>60</v>
       </c>
@@ -8502,11 +10236,15 @@
       <c r="BT37" s="10">
         <v>0</v>
       </c>
-      <c r="BU37" s="10"/>
+      <c r="BU37" s="10">
+        <v>0</v>
+      </c>
       <c r="BV37" s="10">
         <v>0</v>
       </c>
-      <c r="BW37" s="10"/>
+      <c r="BW37" s="10">
+        <v>0</v>
+      </c>
       <c r="BX37" s="10">
         <v>60</v>
       </c>
@@ -8516,11 +10254,15 @@
       <c r="BZ37" s="10">
         <v>0</v>
       </c>
-      <c r="CA37" s="10"/>
+      <c r="CA37" s="10">
+        <v>0</v>
+      </c>
       <c r="CB37" s="10">
         <v>0</v>
       </c>
-      <c r="CC37" s="10"/>
+      <c r="CC37" s="10">
+        <v>0</v>
+      </c>
       <c r="CD37" s="10">
         <v>60</v>
       </c>
@@ -8544,11 +10286,15 @@
       <c r="F38" s="10">
         <v>100</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
       <c r="H38" s="10">
         <v>100</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="10">
+        <v>100</v>
+      </c>
       <c r="J38" s="10">
         <v>100</v>
       </c>
@@ -8558,11 +10304,15 @@
       <c r="L38" s="10">
         <v>100</v>
       </c>
-      <c r="M38" s="10"/>
+      <c r="M38" s="10">
+        <v>100</v>
+      </c>
       <c r="N38" s="10">
         <v>100</v>
       </c>
-      <c r="O38" s="10"/>
+      <c r="O38" s="10">
+        <v>100</v>
+      </c>
       <c r="P38" s="10">
         <v>100</v>
       </c>
@@ -8572,11 +10322,15 @@
       <c r="R38" s="10">
         <v>100</v>
       </c>
-      <c r="S38" s="10"/>
+      <c r="S38" s="10">
+        <v>100</v>
+      </c>
       <c r="T38" s="10">
         <v>100</v>
       </c>
-      <c r="U38" s="10"/>
+      <c r="U38" s="10">
+        <v>100</v>
+      </c>
       <c r="V38" s="10">
         <v>100</v>
       </c>
@@ -8586,11 +10340,15 @@
       <c r="X38" s="10">
         <v>100</v>
       </c>
-      <c r="Y38" s="10"/>
+      <c r="Y38" s="10">
+        <v>100</v>
+      </c>
       <c r="Z38" s="10">
         <v>100</v>
       </c>
-      <c r="AA38" s="10"/>
+      <c r="AA38" s="10">
+        <v>100</v>
+      </c>
       <c r="AB38" s="10">
         <v>100</v>
       </c>
@@ -8600,11 +10358,15 @@
       <c r="AD38" s="10">
         <v>100</v>
       </c>
-      <c r="AE38" s="10"/>
+      <c r="AE38" s="10">
+        <v>100</v>
+      </c>
       <c r="AF38" s="10">
         <v>100</v>
       </c>
-      <c r="AG38" s="10"/>
+      <c r="AG38" s="10">
+        <v>100</v>
+      </c>
       <c r="AH38" s="10">
         <v>100</v>
       </c>
@@ -8614,11 +10376,15 @@
       <c r="AJ38" s="10">
         <v>100</v>
       </c>
-      <c r="AK38" s="10"/>
+      <c r="AK38" s="10">
+        <v>100</v>
+      </c>
       <c r="AL38" s="10">
         <v>100</v>
       </c>
-      <c r="AM38" s="10"/>
+      <c r="AM38" s="10">
+        <v>100</v>
+      </c>
       <c r="AN38" s="10">
         <v>100</v>
       </c>
@@ -8628,11 +10394,15 @@
       <c r="AP38" s="10">
         <v>100</v>
       </c>
-      <c r="AQ38" s="10"/>
+      <c r="AQ38" s="10">
+        <v>100</v>
+      </c>
       <c r="AR38" s="10">
         <v>100</v>
       </c>
-      <c r="AS38" s="10"/>
+      <c r="AS38" s="10">
+        <v>100</v>
+      </c>
       <c r="AT38" s="10">
         <v>100</v>
       </c>
@@ -8642,11 +10412,15 @@
       <c r="AV38" s="10">
         <v>100</v>
       </c>
-      <c r="AW38" s="10"/>
+      <c r="AW38" s="10">
+        <v>100</v>
+      </c>
       <c r="AX38" s="10">
         <v>100</v>
       </c>
-      <c r="AY38" s="10"/>
+      <c r="AY38" s="10">
+        <v>100</v>
+      </c>
       <c r="AZ38" s="10">
         <v>100</v>
       </c>
@@ -8656,11 +10430,15 @@
       <c r="BB38" s="10">
         <v>100</v>
       </c>
-      <c r="BC38" s="10"/>
+      <c r="BC38" s="10">
+        <v>100</v>
+      </c>
       <c r="BD38" s="10">
         <v>100</v>
       </c>
-      <c r="BE38" s="10"/>
+      <c r="BE38" s="10">
+        <v>100</v>
+      </c>
       <c r="BF38" s="10">
         <v>100</v>
       </c>
@@ -8670,11 +10448,15 @@
       <c r="BH38" s="10">
         <v>100</v>
       </c>
-      <c r="BI38" s="10"/>
+      <c r="BI38" s="10">
+        <v>100</v>
+      </c>
       <c r="BJ38" s="10">
         <v>100</v>
       </c>
-      <c r="BK38" s="10"/>
+      <c r="BK38" s="10">
+        <v>100</v>
+      </c>
       <c r="BL38" s="10">
         <v>100</v>
       </c>
@@ -8684,11 +10466,15 @@
       <c r="BN38" s="10">
         <v>100</v>
       </c>
-      <c r="BO38" s="10"/>
+      <c r="BO38" s="10">
+        <v>100</v>
+      </c>
       <c r="BP38" s="10">
         <v>100</v>
       </c>
-      <c r="BQ38" s="10"/>
+      <c r="BQ38" s="10">
+        <v>100</v>
+      </c>
       <c r="BR38" s="10">
         <v>100</v>
       </c>
@@ -8698,11 +10484,15 @@
       <c r="BT38" s="10">
         <v>100</v>
       </c>
-      <c r="BU38" s="10"/>
+      <c r="BU38" s="10">
+        <v>100</v>
+      </c>
       <c r="BV38" s="10">
         <v>100</v>
       </c>
-      <c r="BW38" s="10"/>
+      <c r="BW38" s="10">
+        <v>100</v>
+      </c>
       <c r="BX38" s="10">
         <v>100</v>
       </c>
@@ -8712,11 +10502,15 @@
       <c r="BZ38" s="10">
         <v>100</v>
       </c>
-      <c r="CA38" s="10"/>
+      <c r="CA38" s="10">
+        <v>100</v>
+      </c>
       <c r="CB38" s="10">
         <v>100</v>
       </c>
-      <c r="CC38" s="10"/>
+      <c r="CC38" s="10">
+        <v>100</v>
+      </c>
       <c r="CD38" s="10">
         <v>100</v>
       </c>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF558CC-6FE4-46B2-9559-2122052172AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCE8DC-C66E-46FF-9473-C76B5B6301E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="198">
   <si>
     <t>Matemáticas y emprendimiento</t>
   </si>
@@ -1026,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CD1000"/>
+  <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="BX8" sqref="BX8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1040,7 +1040,7 @@
     <col min="11" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1053,242 +1053,245 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS1" s="13">
-        <v>45592</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU1" s="13">
-        <v>45593</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AW1" s="13">
-        <v>45594</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY1" s="13">
-        <v>45595</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BA1" s="13">
-        <v>45596</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BC1" s="13">
-        <v>45597</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BE1" s="13">
-        <v>45598</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG1" s="13">
-        <v>45599</v>
-      </c>
-      <c r="BH1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="BI1" s="13">
-        <v>45600</v>
-      </c>
-      <c r="BJ1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK1" s="13">
-        <v>45601</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM1" s="13">
-        <v>45602</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BO1" s="13">
-        <v>45603</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ1" s="13">
-        <v>45604</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS1" s="13">
-        <v>45605</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU1" s="13">
-        <v>45606</v>
-      </c>
-      <c r="BV1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BW1" s="13">
-        <v>45607</v>
-      </c>
-      <c r="BX1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BY1" s="13">
-        <v>45608</v>
-      </c>
-      <c r="BZ1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="CA1" s="13">
-        <v>45609</v>
-      </c>
-      <c r="CB1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CC1" s="13">
-        <v>45610</v>
-      </c>
-      <c r="CD1" s="2" t="s">
-        <v>197</v>
+      <c r="E1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AP1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR1" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="BH1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="BI1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="BK1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV1" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BY1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="CB1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="CC1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="CD1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="CE1" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1301,242 +1304,245 @@
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="13">
+        <v>45592</v>
+      </c>
+      <c r="AT2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU2" s="13">
+        <v>45593</v>
+      </c>
+      <c r="AV2" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AW2" s="13">
+        <v>45594</v>
+      </c>
+      <c r="AX2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY2" s="13">
+        <v>45595</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BA2" s="13">
+        <v>45596</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC2" s="13">
+        <v>45597</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BE2" s="13">
+        <v>45598</v>
+      </c>
+      <c r="BF2" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG2" s="13">
+        <v>45599</v>
+      </c>
+      <c r="BH2" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI2" s="13">
+        <v>45600</v>
+      </c>
+      <c r="BJ2" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BK2" s="13">
+        <v>45601</v>
+      </c>
+      <c r="BL2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM2" s="13">
+        <v>45602</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BO2" s="13">
+        <v>45603</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BQ2" s="13">
+        <v>45604</v>
+      </c>
+      <c r="BR2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="BS2" s="13">
+        <v>45605</v>
+      </c>
+      <c r="BT2" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BU2" s="13">
+        <v>45606</v>
+      </c>
+      <c r="BV2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW2" s="13">
+        <v>45607</v>
+      </c>
+      <c r="BX2" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BY2" s="13">
+        <v>45608</v>
+      </c>
+      <c r="BZ2" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="CA2" s="13">
+        <v>45609</v>
+      </c>
+      <c r="CB2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC2" s="13">
+        <v>45610</v>
+      </c>
+      <c r="CD2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CE2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="BH2" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="BI2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="BK2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BT2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY2" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BZ2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD2" s="12" t="s">
-        <v>178</v>
-      </c>
     </row>
-    <row r="3" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="str">
         <f>HYPERLINK("https://classroom.google.com/c/NzE5NDMyNzExMjE5", UPPER("Abrir Classroom"))</f>
         <v>ABRIR CLASSROOM</v>
@@ -1756,8 +1762,11 @@
       <c r="CD3" s="2">
         <v>100</v>
       </c>
+      <c r="CE3" s="12" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -2004,8 +2013,11 @@
       <c r="CD4" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="CE4" s="12" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2330,8 +2342,11 @@
         <f t="shared" ref="CD5" si="75">AVERAGE(CD6:CD38)</f>
         <v>49.151515151515149</v>
       </c>
+      <c r="CE5" s="12" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2578,8 +2593,11 @@
       <c r="CD6" s="10">
         <v>0</v>
       </c>
+      <c r="CE6" s="12" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2826,8 +2844,11 @@
       <c r="CD7" s="10">
         <v>0</v>
       </c>
+      <c r="CE7" s="12" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3074,8 +3095,11 @@
       <c r="CD8" s="10">
         <v>100</v>
       </c>
+      <c r="CE8" s="12" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -3322,8 +3346,11 @@
       <c r="CD9" s="10">
         <v>0</v>
       </c>
+      <c r="CE9" s="12" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3570,8 +3597,11 @@
       <c r="CD10" s="10">
         <v>100</v>
       </c>
+      <c r="CE10" s="12" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3818,8 +3848,11 @@
       <c r="CD11" s="10">
         <v>85</v>
       </c>
+      <c r="CE11" s="12" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -4066,8 +4099,11 @@
       <c r="CD12" s="10">
         <v>0</v>
       </c>
+      <c r="CE12" s="12" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -4314,8 +4350,11 @@
       <c r="CD13" s="10">
         <v>0</v>
       </c>
+      <c r="CE13" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -4562,8 +4601,11 @@
       <c r="CD14" s="10">
         <v>40</v>
       </c>
+      <c r="CE14" s="12" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -4810,8 +4852,11 @@
       <c r="CD15" s="10">
         <v>100</v>
       </c>
+      <c r="CE15" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -5058,8 +5103,11 @@
       <c r="CD16" s="10">
         <v>60</v>
       </c>
+      <c r="CE16" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -5306,8 +5354,11 @@
       <c r="CD17" s="10">
         <v>100</v>
       </c>
+      <c r="CE17" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
@@ -5554,8 +5605,11 @@
       <c r="CD18" s="10">
         <v>0</v>
       </c>
+      <c r="CE18" s="12" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
@@ -5802,8 +5856,11 @@
       <c r="CD19" s="10">
         <v>80</v>
       </c>
+      <c r="CE19" s="12" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -6050,8 +6107,11 @@
       <c r="CD20" s="10">
         <v>0</v>
       </c>
+      <c r="CE20" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -6298,8 +6358,11 @@
       <c r="CD21" s="10">
         <v>90</v>
       </c>
+      <c r="CE21" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
@@ -6546,8 +6609,11 @@
       <c r="CD22" s="10">
         <v>90</v>
       </c>
+      <c r="CE22" s="12" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
@@ -6794,8 +6860,11 @@
       <c r="CD23" s="10">
         <v>90</v>
       </c>
+      <c r="CE23" s="12" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
@@ -7042,8 +7111,11 @@
       <c r="CD24" s="10">
         <v>70</v>
       </c>
+      <c r="CE24" s="12" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>65</v>
       </c>
@@ -7290,8 +7362,11 @@
       <c r="CD25" s="10">
         <v>0</v>
       </c>
+      <c r="CE25" s="12" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>68</v>
       </c>
@@ -7538,8 +7613,11 @@
       <c r="CD26" s="10">
         <v>100</v>
       </c>
+      <c r="CE26" s="12" t="s">
+        <v>130</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>70</v>
       </c>
@@ -7786,8 +7864,11 @@
       <c r="CD27" s="10">
         <v>70</v>
       </c>
+      <c r="CE27" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>73</v>
       </c>
@@ -8034,8 +8115,11 @@
       <c r="CD28" s="10">
         <v>0</v>
       </c>
+      <c r="CE28" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
@@ -8282,8 +8366,11 @@
       <c r="CD29" s="10">
         <v>0</v>
       </c>
+      <c r="CE29" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="30" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
@@ -8530,8 +8617,11 @@
       <c r="CD30" s="10">
         <v>0</v>
       </c>
+      <c r="CE30" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
-    <row r="31" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>82</v>
       </c>
@@ -8778,8 +8868,11 @@
       <c r="CD31" s="10">
         <v>90</v>
       </c>
+      <c r="CE31" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="32" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>85</v>
       </c>
@@ -9026,8 +9119,11 @@
       <c r="CD32" s="10">
         <v>0</v>
       </c>
+      <c r="CE32" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
-    <row r="33" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>87</v>
       </c>
@@ -9274,8 +9370,11 @@
       <c r="CD33" s="10">
         <v>0</v>
       </c>
+      <c r="CE33" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="34" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
@@ -9522,8 +9621,11 @@
       <c r="CD34" s="10">
         <v>100</v>
       </c>
+      <c r="CE34" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
-    <row r="35" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>93</v>
       </c>
@@ -9770,8 +9872,11 @@
       <c r="CD35" s="10">
         <v>97</v>
       </c>
+      <c r="CE35" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
-    <row r="36" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>96</v>
       </c>
@@ -10018,8 +10123,11 @@
       <c r="CD36" s="10">
         <v>0</v>
       </c>
+      <c r="CE36" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
-    <row r="37" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>99</v>
       </c>
@@ -10266,8 +10374,11 @@
       <c r="CD37" s="10">
         <v>60</v>
       </c>
+      <c r="CE37" s="12" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="38" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -10514,49 +10625,212 @@
       <c r="CD38" s="10">
         <v>100</v>
       </c>
+      <c r="CE38" s="12" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="39" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" spans="1:82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="67" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="68" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="69" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE39" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE40" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE41" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE42" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE43" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE44" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE45" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE46" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE47" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE48" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE49" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE50" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="51" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE51" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE52" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE53" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE54" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE55" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE56" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE57" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE58" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE59" s="12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE60" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE61" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE62" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE63" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE64" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="65" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE65" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE66" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE67" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE68" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE69" s="12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE70" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE71" s="12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="72" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE72" s="12" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE73" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE74" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE75" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE76" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE77" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="78" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="CE78" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="79" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="81" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABCE8DC-C66E-46FF-9473-C76B5B6301E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CCEBEC-E6C5-4EF7-A823-042AD3660445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BM1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="BX8" sqref="BX8"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CCEBEC-E6C5-4EF7-A823-042AD3660445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC1E3B-454C-4F40-BE23-6908F09C9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1028,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FC1E3B-454C-4F40-BE23-6908F09C9517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BA4D7-E855-4A12-861F-5D15A0EFAE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="171">
   <si>
     <t>Matemáticas y emprendimiento</t>
   </si>
@@ -518,60 +518,6 @@
     <t>EG26-030202 Experimentar de forma iterativa con las alternativas de solución emprendedoras.</t>
   </si>
   <si>
-    <t>EG26-040000 Comunicación</t>
-  </si>
-  <si>
-    <t>EG26-040100 Comunicación escrita</t>
-  </si>
-  <si>
-    <t>EG26-040101 Planear la redacción de textos tomando en cuenta el propósito de comunicación y el contexto.</t>
-  </si>
-  <si>
-    <t>EG26-040102 Elaborar escritos cuidando la coherencia, la corrección gramatical y respetando los requisitos y formatos solicitados.</t>
-  </si>
-  <si>
-    <t>EG26-040103 Utilizar de forma responsable tecnologías y medios digitales para la comunicación escrita humana y no humana.</t>
-  </si>
-  <si>
-    <t>EG26-040200 Comunicación oral</t>
-  </si>
-  <si>
-    <t>EG26-040201 Comprender estrategias verbales de comunicación.</t>
-  </si>
-  <si>
-    <t>EG26-040202 Transmitir mensajes de manera clara, elocuente, responsable y contextualizada.</t>
-  </si>
-  <si>
-    <t>EG26-040203 Emplear estrategias verbales y no verbales para dialogar, negociar, persuadir e inspirar.</t>
-  </si>
-  <si>
-    <t>EG26-050000 Pensamiento crítico</t>
-  </si>
-  <si>
-    <t>EG26-050100 Análisis de información</t>
-  </si>
-  <si>
-    <t>EG26-050101 Evaluar las fuentes de información disponibles.</t>
-  </si>
-  <si>
-    <t>EG26-050102 Identificar ideas, afirmaciones y razones en la información.</t>
-  </si>
-  <si>
-    <t>EG26-050103 Interpretar la información a partir de parámetros o procedimientos propios del contexto.</t>
-  </si>
-  <si>
-    <t>EG26-050200 Generación de conclusiones</t>
-  </si>
-  <si>
-    <t>EG26-050201 Valorar la credibilidad de las afirmaciones y argumentos.</t>
-  </si>
-  <si>
-    <t>EG26-050202 Utilizar metodologías en la evaluación de argumentos y evidencias.</t>
-  </si>
-  <si>
-    <t>EG26-050203 Plantear conclusiones fundamentadas en argumentos validados.</t>
-  </si>
-  <si>
     <t>27 oct</t>
   </si>
   <si>
@@ -600,33 +546,6 @@
   </si>
   <si>
     <t>36 oct</t>
-  </si>
-  <si>
-    <t>37 oct</t>
-  </si>
-  <si>
-    <t>38 oct</t>
-  </si>
-  <si>
-    <t>39 oct</t>
-  </si>
-  <si>
-    <t>40 oct</t>
-  </si>
-  <si>
-    <t>41 oct</t>
-  </si>
-  <si>
-    <t>42 oct</t>
-  </si>
-  <si>
-    <t>43 oct</t>
-  </si>
-  <si>
-    <t>44 oct</t>
-  </si>
-  <si>
-    <t>45 oct</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE1000"/>
+  <dimension ref="A1:BN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AD33" sqref="AD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1040,7 +959,7 @@
     <col min="11" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1234,64 +1153,13 @@
         <v>160</v>
       </c>
       <c r="BM1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BO1" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="BQ1" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="BR1" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BS1" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BT1" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BU1" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BV1" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BW1" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BX1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BY1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BZ1" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="CA1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="CB1" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="CC1" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="CD1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="CE1" s="12" t="s">
         <v>105</v>
       </c>
+      <c r="BN1">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1428,121 +1296,70 @@
         <v>45592</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="AU2" s="13">
         <v>45593</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="AW2" s="13">
         <v>45594</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="AY2" s="13">
         <v>45595</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="BA2" s="13">
         <v>45596</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="13">
         <v>45597</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="BE2" s="13">
         <v>45598</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="BG2" s="13">
         <v>45599</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="BI2" s="13">
         <v>45600</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="BK2" s="13">
         <v>45601</v>
       </c>
       <c r="BL2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BM2" s="13">
-        <v>45602</v>
-      </c>
-      <c r="BN2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="BO2" s="13">
-        <v>45603</v>
-      </c>
-      <c r="BP2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BQ2" s="13">
-        <v>45604</v>
-      </c>
-      <c r="BR2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="BS2" s="13">
-        <v>45605</v>
-      </c>
-      <c r="BT2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU2" s="13">
-        <v>45606</v>
-      </c>
-      <c r="BV2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="BW2" s="13">
-        <v>45607</v>
-      </c>
-      <c r="BX2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="BY2" s="13">
-        <v>45608</v>
-      </c>
-      <c r="BZ2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="CA2" s="13">
-        <v>45609</v>
-      </c>
-      <c r="CB2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="CC2" s="13">
-        <v>45610</v>
-      </c>
-      <c r="CD2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="CE2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM2" s="12" t="s">
         <v>106</v>
       </c>
+      <c r="BN2">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="str">
         <f>HYPERLINK("https://classroom.google.com/c/NzE5NDMyNzExMjE5", UPPER("Abrir Classroom"))</f>
         <v>ABRIR CLASSROOM</v>
@@ -1716,57 +1533,14 @@
       <c r="BL3" s="2">
         <v>100</v>
       </c>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BO3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BP3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BS3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BT3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BU3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BV3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BY3" s="2">
-        <v>100</v>
-      </c>
-      <c r="BZ3" s="2">
-        <v>100</v>
-      </c>
-      <c r="CA3" s="2">
-        <v>100</v>
-      </c>
-      <c r="CB3" s="2">
-        <v>100</v>
-      </c>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2">
-        <v>100</v>
-      </c>
-      <c r="CE3" s="12" t="s">
+      <c r="BM3" s="12" t="s">
         <v>107</v>
       </c>
+      <c r="BN3">
+        <v>50.757575757575758</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1959,65 +1733,14 @@
       <c r="BL4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="BM4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BV4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BX4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BY4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BZ4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CB4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CC4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CD4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="CE4" s="12" t="s">
+      <c r="BM4" s="12" t="s">
         <v>108</v>
       </c>
+      <c r="BN4">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2270,83 +1993,14 @@
         <f t="shared" ref="BL5" si="57">AVERAGE(BL6:BL38)</f>
         <v>49.151515151515149</v>
       </c>
-      <c r="BM5" s="9">
-        <f t="shared" ref="BM5" si="58">AVERAGE(BM6:BM38)</f>
-        <v>61.424242424242422</v>
-      </c>
-      <c r="BN5" s="9">
-        <f t="shared" ref="BN5" si="59">AVERAGE(BN6:BN38)</f>
+      <c r="BM5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="BN5">
         <v>55.363636363636367</v>
       </c>
-      <c r="BO5" s="9">
-        <f t="shared" ref="BO5" si="60">AVERAGE(BO6:BO38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="BP5" s="9">
-        <f t="shared" ref="BP5" si="61">AVERAGE(BP6:BP38)</f>
-        <v>55.060606060606062</v>
-      </c>
-      <c r="BQ5" s="9">
-        <f t="shared" ref="BQ5" si="62">AVERAGE(BQ6:BQ38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="BR5" s="9">
-        <f t="shared" ref="BR5" si="63">AVERAGE(BR6:BR38)</f>
-        <v>49.151515151515149</v>
-      </c>
-      <c r="BS5" s="9">
-        <f t="shared" ref="BS5" si="64">AVERAGE(BS6:BS38)</f>
-        <v>61.424242424242422</v>
-      </c>
-      <c r="BT5" s="9">
-        <f t="shared" ref="BT5" si="65">AVERAGE(BT6:BT38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="BU5" s="9">
-        <f t="shared" ref="BU5" si="66">AVERAGE(BU6:BU38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="BV5" s="9">
-        <f t="shared" ref="BV5" si="67">AVERAGE(BV6:BV38)</f>
-        <v>55.060606060606062</v>
-      </c>
-      <c r="BW5" s="9">
-        <f t="shared" ref="BW5" si="68">AVERAGE(BW6:BW38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="BX5" s="9">
-        <f t="shared" ref="BX5" si="69">AVERAGE(BX6:BX38)</f>
-        <v>49.151515151515149</v>
-      </c>
-      <c r="BY5" s="9">
-        <f t="shared" ref="BY5" si="70">AVERAGE(BY6:BY38)</f>
-        <v>61.424242424242422</v>
-      </c>
-      <c r="BZ5" s="9">
-        <f t="shared" ref="BZ5" si="71">AVERAGE(BZ6:BZ38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="CA5" s="9">
-        <f t="shared" ref="CA5" si="72">AVERAGE(CA6:CA38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="CB5" s="9">
-        <f t="shared" ref="CB5" si="73">AVERAGE(CB6:CB38)</f>
-        <v>55.060606060606062</v>
-      </c>
-      <c r="CC5" s="9">
-        <f t="shared" ref="CC5" si="74">AVERAGE(CC6:CC38)</f>
-        <v>55.363636363636367</v>
-      </c>
-      <c r="CD5" s="9">
-        <f t="shared" ref="CD5" si="75">AVERAGE(CD6:CD38)</f>
-        <v>49.151515151515149</v>
-      </c>
-      <c r="CE5" s="12" t="s">
-        <v>109</v>
-      </c>
     </row>
-    <row r="6" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -2539,65 +2193,14 @@
       <c r="BL6" s="10">
         <v>0</v>
       </c>
-      <c r="BM6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA6" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB6" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD6" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE6" s="12" t="s">
+      <c r="BM6" s="12" t="s">
         <v>110</v>
       </c>
+      <c r="BN6">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2790,65 +2393,14 @@
       <c r="BL7" s="10">
         <v>0</v>
       </c>
-      <c r="BM7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA7" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB7" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE7" s="12" t="s">
+      <c r="BM7" s="12" t="s">
         <v>111</v>
       </c>
+      <c r="BN7">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>15</v>
       </c>
@@ -3041,65 +2593,14 @@
       <c r="BL8" s="10">
         <v>100</v>
       </c>
-      <c r="BM8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX8" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ8" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA8" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB8" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC8" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD8" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE8" s="12" t="s">
+      <c r="BM8" s="12" t="s">
         <v>112</v>
       </c>
+      <c r="BN8">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -3292,65 +2793,14 @@
       <c r="BL9" s="10">
         <v>0</v>
       </c>
-      <c r="BM9" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BO9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BP9" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BR9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS9" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BU9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BV9" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW9" s="10">
-        <v>95</v>
-      </c>
-      <c r="BX9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY9" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ9" s="10">
-        <v>95</v>
-      </c>
-      <c r="CA9" s="10">
-        <v>95</v>
-      </c>
-      <c r="CB9" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC9" s="10">
-        <v>95</v>
-      </c>
-      <c r="CD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE9" s="12" t="s">
+      <c r="BM9" s="12" t="s">
         <v>113</v>
       </c>
+      <c r="BN9">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -3543,65 +2993,14 @@
       <c r="BL10" s="10">
         <v>100</v>
       </c>
-      <c r="BM10" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS10" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX10" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY10" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ10" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA10" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB10" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC10" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD10" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE10" s="12" t="s">
+      <c r="BM10" s="12" t="s">
         <v>114</v>
       </c>
+      <c r="BN10">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>24</v>
       </c>
@@ -3794,65 +3193,14 @@
       <c r="BL11" s="10">
         <v>85</v>
       </c>
-      <c r="BM11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BO11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BP11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BR11" s="10">
-        <v>85</v>
-      </c>
-      <c r="BS11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BU11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BV11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW11" s="10">
-        <v>80</v>
-      </c>
-      <c r="BX11" s="10">
-        <v>85</v>
-      </c>
-      <c r="BY11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="10">
-        <v>80</v>
-      </c>
-      <c r="CA11" s="10">
-        <v>80</v>
-      </c>
-      <c r="CB11" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC11" s="10">
-        <v>80</v>
-      </c>
-      <c r="CD11" s="10">
-        <v>85</v>
-      </c>
-      <c r="CE11" s="12" t="s">
+      <c r="BM11" s="12" t="s">
         <v>115</v>
       </c>
+      <c r="BN11">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -4045,65 +3393,14 @@
       <c r="BL12" s="10">
         <v>0</v>
       </c>
-      <c r="BM12" s="10">
-        <v>79</v>
-      </c>
-      <c r="BN12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BO12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BP12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BR12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS12" s="10">
-        <v>79</v>
-      </c>
-      <c r="BT12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BU12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BV12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW12" s="10">
-        <v>85</v>
-      </c>
-      <c r="BX12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY12" s="10">
-        <v>79</v>
-      </c>
-      <c r="BZ12" s="10">
-        <v>85</v>
-      </c>
-      <c r="CA12" s="10">
-        <v>85</v>
-      </c>
-      <c r="CB12" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="10">
-        <v>85</v>
-      </c>
-      <c r="CD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="12" t="s">
+      <c r="BM12" s="12" t="s">
         <v>116</v>
       </c>
+      <c r="BN12">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
@@ -4296,65 +3593,14 @@
       <c r="BL13" s="10">
         <v>0</v>
       </c>
-      <c r="BM13" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="12" t="s">
+      <c r="BM13" s="12" t="s">
         <v>117</v>
       </c>
+      <c r="BN13">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -4547,65 +3793,14 @@
       <c r="BL14" s="10">
         <v>40</v>
       </c>
-      <c r="BM14" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BO14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BP14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BR14" s="10">
-        <v>40</v>
-      </c>
-      <c r="BS14" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BU14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BV14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW14" s="10">
-        <v>70</v>
-      </c>
-      <c r="BX14" s="10">
-        <v>40</v>
-      </c>
-      <c r="BY14" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ14" s="10">
-        <v>70</v>
-      </c>
-      <c r="CA14" s="10">
-        <v>70</v>
-      </c>
-      <c r="CB14" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC14" s="10">
-        <v>70</v>
-      </c>
-      <c r="CD14" s="10">
-        <v>40</v>
-      </c>
-      <c r="CE14" s="12" t="s">
+      <c r="BM14" s="12" t="s">
         <v>118</v>
       </c>
+      <c r="BN14">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
@@ -4798,65 +3993,14 @@
       <c r="BL15" s="10">
         <v>100</v>
       </c>
-      <c r="BM15" s="10">
-        <v>97</v>
-      </c>
-      <c r="BN15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS15" s="10">
-        <v>97</v>
-      </c>
-      <c r="BT15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX15" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY15" s="10">
-        <v>97</v>
-      </c>
-      <c r="BZ15" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA15" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB15" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC15" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD15" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE15" s="12" t="s">
+      <c r="BM15" s="12" t="s">
         <v>119</v>
       </c>
+      <c r="BN15">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
@@ -5049,65 +4193,14 @@
       <c r="BL16" s="10">
         <v>60</v>
       </c>
-      <c r="BM16" s="10">
-        <v>60</v>
-      </c>
-      <c r="BN16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP16" s="10">
-        <v>97</v>
-      </c>
-      <c r="BQ16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR16" s="10">
-        <v>60</v>
-      </c>
-      <c r="BS16" s="10">
-        <v>60</v>
-      </c>
-      <c r="BT16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV16" s="10">
-        <v>97</v>
-      </c>
-      <c r="BW16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX16" s="10">
-        <v>60</v>
-      </c>
-      <c r="BY16" s="10">
-        <v>60</v>
-      </c>
-      <c r="BZ16" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA16" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB16" s="10">
-        <v>97</v>
-      </c>
-      <c r="CC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD16" s="10">
-        <v>60</v>
-      </c>
-      <c r="CE16" s="12" t="s">
+      <c r="BM16" s="12" t="s">
         <v>120</v>
       </c>
+      <c r="BN16">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="17" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>41</v>
       </c>
@@ -5300,65 +4393,14 @@
       <c r="BL17" s="10">
         <v>100</v>
       </c>
-      <c r="BM17" s="10">
-        <v>85</v>
-      </c>
-      <c r="BN17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS17" s="10">
-        <v>85</v>
-      </c>
-      <c r="BT17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX17" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY17" s="10">
-        <v>85</v>
-      </c>
-      <c r="BZ17" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA17" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB17" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC17" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD17" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE17" s="12" t="s">
+      <c r="BM17" s="12" t="s">
         <v>121</v>
       </c>
+      <c r="BN17">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="18" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
@@ -5551,65 +4593,14 @@
       <c r="BL18" s="10">
         <v>0</v>
       </c>
-      <c r="BM18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB18" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE18" s="12" t="s">
+      <c r="BM18" s="12" t="s">
         <v>122</v>
       </c>
+      <c r="BN18">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="19" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
@@ -5802,65 +4793,14 @@
       <c r="BL19" s="10">
         <v>80</v>
       </c>
-      <c r="BM19" s="10">
-        <v>92</v>
-      </c>
-      <c r="BN19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BO19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BP19" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BR19" s="10">
-        <v>80</v>
-      </c>
-      <c r="BS19" s="10">
-        <v>92</v>
-      </c>
-      <c r="BT19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BU19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BV19" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW19" s="10">
-        <v>95</v>
-      </c>
-      <c r="BX19" s="10">
-        <v>80</v>
-      </c>
-      <c r="BY19" s="10">
-        <v>92</v>
-      </c>
-      <c r="BZ19" s="10">
-        <v>95</v>
-      </c>
-      <c r="CA19" s="10">
-        <v>95</v>
-      </c>
-      <c r="CB19" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC19" s="10">
-        <v>95</v>
-      </c>
-      <c r="CD19" s="10">
-        <v>80</v>
-      </c>
-      <c r="CE19" s="12" t="s">
+      <c r="BM19" s="12" t="s">
         <v>123</v>
       </c>
+      <c r="BN19">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="20" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>50</v>
       </c>
@@ -6053,65 +4993,14 @@
       <c r="BL20" s="10">
         <v>0</v>
       </c>
-      <c r="BM20" s="10">
-        <v>92</v>
-      </c>
-      <c r="BN20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP20" s="10">
-        <v>95</v>
-      </c>
-      <c r="BQ20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS20" s="10">
-        <v>92</v>
-      </c>
-      <c r="BT20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV20" s="10">
-        <v>95</v>
-      </c>
-      <c r="BW20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY20" s="10">
-        <v>92</v>
-      </c>
-      <c r="BZ20" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA20" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB20" s="10">
-        <v>95</v>
-      </c>
-      <c r="CC20" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD20" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE20" s="12" t="s">
+      <c r="BM20" s="12" t="s">
         <v>124</v>
       </c>
+      <c r="BN20">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="21" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -6304,65 +5193,14 @@
       <c r="BL21" s="10">
         <v>90</v>
       </c>
-      <c r="BM21" s="10">
-        <v>98</v>
-      </c>
-      <c r="BN21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR21" s="10">
-        <v>90</v>
-      </c>
-      <c r="BS21" s="10">
-        <v>98</v>
-      </c>
-      <c r="BT21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW21" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX21" s="10">
-        <v>90</v>
-      </c>
-      <c r="BY21" s="10">
-        <v>98</v>
-      </c>
-      <c r="BZ21" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA21" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB21" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC21" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD21" s="10">
-        <v>90</v>
-      </c>
-      <c r="CE21" s="12" t="s">
+      <c r="BM21" s="12" t="s">
         <v>125</v>
       </c>
+      <c r="BN21">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="22" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>56</v>
       </c>
@@ -6555,65 +5393,14 @@
       <c r="BL22" s="10">
         <v>90</v>
       </c>
-      <c r="BM22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR22" s="10">
-        <v>90</v>
-      </c>
-      <c r="BS22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX22" s="10">
-        <v>90</v>
-      </c>
-      <c r="BY22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ22" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA22" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB22" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC22" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="10">
-        <v>90</v>
-      </c>
-      <c r="CE22" s="12" t="s">
+      <c r="BM22" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="BN22">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="23" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
@@ -6806,65 +5593,14 @@
       <c r="BL23" s="10">
         <v>90</v>
       </c>
-      <c r="BM23" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BO23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BP23" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BR23" s="10">
-        <v>90</v>
-      </c>
-      <c r="BS23" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BU23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BV23" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW23" s="10">
-        <v>97</v>
-      </c>
-      <c r="BX23" s="10">
-        <v>90</v>
-      </c>
-      <c r="BY23" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ23" s="10">
-        <v>97</v>
-      </c>
-      <c r="CA23" s="10">
-        <v>97</v>
-      </c>
-      <c r="CB23" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC23" s="10">
-        <v>97</v>
-      </c>
-      <c r="CD23" s="10">
-        <v>90</v>
-      </c>
-      <c r="CE23" s="12" t="s">
+      <c r="BM23" s="12" t="s">
         <v>127</v>
       </c>
+      <c r="BN23">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="24" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>62</v>
       </c>
@@ -7057,65 +5793,14 @@
       <c r="BL24" s="10">
         <v>70</v>
       </c>
-      <c r="BM24" s="10">
-        <v>60</v>
-      </c>
-      <c r="BN24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP24" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR24" s="10">
-        <v>70</v>
-      </c>
-      <c r="BS24" s="10">
-        <v>60</v>
-      </c>
-      <c r="BT24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV24" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX24" s="10">
-        <v>70</v>
-      </c>
-      <c r="BY24" s="10">
-        <v>60</v>
-      </c>
-      <c r="BZ24" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA24" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB24" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD24" s="10">
-        <v>70</v>
-      </c>
-      <c r="CE24" s="12" t="s">
+      <c r="BM24" s="12" t="s">
         <v>128</v>
       </c>
+      <c r="BN24">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="25" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>65</v>
       </c>
@@ -7308,65 +5993,14 @@
       <c r="BL25" s="10">
         <v>0</v>
       </c>
-      <c r="BM25" s="10">
-        <v>95</v>
-      </c>
-      <c r="BN25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BO25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BP25" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BR25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS25" s="10">
-        <v>95</v>
-      </c>
-      <c r="BT25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BU25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BV25" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW25" s="10">
-        <v>90</v>
-      </c>
-      <c r="BX25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY25" s="10">
-        <v>95</v>
-      </c>
-      <c r="BZ25" s="10">
-        <v>90</v>
-      </c>
-      <c r="CA25" s="10">
-        <v>90</v>
-      </c>
-      <c r="CB25" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC25" s="10">
-        <v>90</v>
-      </c>
-      <c r="CD25" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE25" s="12" t="s">
+      <c r="BM25" s="12" t="s">
         <v>129</v>
       </c>
+      <c r="BN25">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="26" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>68</v>
       </c>
@@ -7559,65 +6193,14 @@
       <c r="BL26" s="10">
         <v>100</v>
       </c>
-      <c r="BM26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BO26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BP26" s="10">
-        <v>85</v>
-      </c>
-      <c r="BQ26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BR26" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BU26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BV26" s="10">
-        <v>85</v>
-      </c>
-      <c r="BW26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BX26" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY26" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ26" s="10">
-        <v>90</v>
-      </c>
-      <c r="CA26" s="10">
-        <v>90</v>
-      </c>
-      <c r="CB26" s="10">
-        <v>85</v>
-      </c>
-      <c r="CC26" s="10">
-        <v>90</v>
-      </c>
-      <c r="CD26" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE26" s="12" t="s">
+      <c r="BM26" s="12" t="s">
         <v>130</v>
       </c>
+      <c r="BN26">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="27" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>70</v>
       </c>
@@ -7810,65 +6393,14 @@
       <c r="BL27" s="10">
         <v>70</v>
       </c>
-      <c r="BM27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP27" s="10">
-        <v>40</v>
-      </c>
-      <c r="BQ27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR27" s="10">
-        <v>70</v>
-      </c>
-      <c r="BS27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV27" s="10">
-        <v>40</v>
-      </c>
-      <c r="BW27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX27" s="10">
-        <v>70</v>
-      </c>
-      <c r="BY27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ27" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA27" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB27" s="10">
-        <v>40</v>
-      </c>
-      <c r="CC27" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD27" s="10">
-        <v>70</v>
-      </c>
-      <c r="CE27" s="12" t="s">
+      <c r="BM27" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="BN27">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="28" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>73</v>
       </c>
@@ -8061,65 +6593,14 @@
       <c r="BL28" s="10">
         <v>0</v>
       </c>
-      <c r="BM28" s="10">
-        <v>75</v>
-      </c>
-      <c r="BN28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BO28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BP28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BR28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS28" s="10">
-        <v>75</v>
-      </c>
-      <c r="BT28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BU28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BV28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW28" s="10">
-        <v>80</v>
-      </c>
-      <c r="BX28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY28" s="10">
-        <v>75</v>
-      </c>
-      <c r="BZ28" s="10">
-        <v>80</v>
-      </c>
-      <c r="CA28" s="10">
-        <v>80</v>
-      </c>
-      <c r="CB28" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC28" s="10">
-        <v>80</v>
-      </c>
-      <c r="CD28" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE28" s="12" t="s">
+      <c r="BM28" s="12" t="s">
         <v>131</v>
       </c>
+      <c r="BN28">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="29" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>76</v>
       </c>
@@ -8312,65 +6793,14 @@
       <c r="BL29" s="10">
         <v>0</v>
       </c>
-      <c r="BM29" s="10">
-        <v>95</v>
-      </c>
-      <c r="BN29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BO29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BP29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BR29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS29" s="10">
-        <v>95</v>
-      </c>
-      <c r="BT29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BU29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BV29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW29" s="10">
-        <v>80</v>
-      </c>
-      <c r="BX29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY29" s="10">
-        <v>95</v>
-      </c>
-      <c r="BZ29" s="10">
-        <v>80</v>
-      </c>
-      <c r="CA29" s="10">
-        <v>80</v>
-      </c>
-      <c r="CB29" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC29" s="10">
-        <v>80</v>
-      </c>
-      <c r="CD29" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE29" s="12" t="s">
+      <c r="BM29" s="12" t="s">
         <v>132</v>
       </c>
+      <c r="BN29">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="30" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>79</v>
       </c>
@@ -8563,65 +6993,14 @@
       <c r="BL30" s="10">
         <v>0</v>
       </c>
-      <c r="BM30" s="10">
-        <v>95</v>
-      </c>
-      <c r="BN30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BO30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BP30" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BR30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS30" s="10">
-        <v>95</v>
-      </c>
-      <c r="BT30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BU30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BV30" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW30" s="10">
-        <v>80</v>
-      </c>
-      <c r="BX30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY30" s="10">
-        <v>95</v>
-      </c>
-      <c r="BZ30" s="10">
-        <v>80</v>
-      </c>
-      <c r="CA30" s="10">
-        <v>80</v>
-      </c>
-      <c r="CB30" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC30" s="10">
-        <v>80</v>
-      </c>
-      <c r="CD30" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE30" s="12" t="s">
+      <c r="BM30" s="12" t="s">
         <v>132</v>
       </c>
+      <c r="BN30">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="31" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>82</v>
       </c>
@@ -8814,65 +7193,14 @@
       <c r="BL31" s="10">
         <v>90</v>
       </c>
-      <c r="BM31" s="10">
-        <v>80</v>
-      </c>
-      <c r="BN31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BO31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BP31" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BR31" s="10">
-        <v>90</v>
-      </c>
-      <c r="BS31" s="10">
-        <v>80</v>
-      </c>
-      <c r="BT31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BU31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BV31" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW31" s="10">
-        <v>85</v>
-      </c>
-      <c r="BX31" s="10">
-        <v>90</v>
-      </c>
-      <c r="BY31" s="10">
-        <v>80</v>
-      </c>
-      <c r="BZ31" s="10">
-        <v>85</v>
-      </c>
-      <c r="CA31" s="10">
-        <v>85</v>
-      </c>
-      <c r="CB31" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC31" s="10">
-        <v>85</v>
-      </c>
-      <c r="CD31" s="10">
-        <v>90</v>
-      </c>
-      <c r="CE31" s="12" t="s">
+      <c r="BM31" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="BN31">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="32" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>85</v>
       </c>
@@ -9065,65 +7393,14 @@
       <c r="BL32" s="10">
         <v>0</v>
       </c>
-      <c r="BM32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ32" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA32" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB32" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE32" s="12" t="s">
+      <c r="BM32" s="12" t="s">
         <v>133</v>
       </c>
+      <c r="BN32">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="33" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>87</v>
       </c>
@@ -9316,65 +7593,14 @@
       <c r="BL33" s="10">
         <v>0</v>
       </c>
-      <c r="BM33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ33" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA33" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB33" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC33" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD33" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE33" s="12" t="s">
+      <c r="BM33" s="12" t="s">
         <v>134</v>
       </c>
+      <c r="BN33">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="34" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>90</v>
       </c>
@@ -9567,65 +7793,14 @@
       <c r="BL34" s="10">
         <v>100</v>
       </c>
-      <c r="BM34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BN34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BT34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY34" s="10">
-        <v>100</v>
-      </c>
-      <c r="BZ34" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA34" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB34" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC34" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD34" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE34" s="12" t="s">
+      <c r="BM34" s="12" t="s">
         <v>134</v>
       </c>
+      <c r="BN34">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="35" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>93</v>
       </c>
@@ -9818,65 +7993,14 @@
       <c r="BL35" s="10">
         <v>97</v>
       </c>
-      <c r="BM35" s="10">
-        <v>99</v>
-      </c>
-      <c r="BN35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR35" s="10">
-        <v>97</v>
-      </c>
-      <c r="BS35" s="10">
-        <v>99</v>
-      </c>
-      <c r="BT35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW35" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX35" s="10">
-        <v>97</v>
-      </c>
-      <c r="BY35" s="10">
-        <v>99</v>
-      </c>
-      <c r="BZ35" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA35" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB35" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC35" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD35" s="10">
-        <v>97</v>
-      </c>
-      <c r="CE35" s="12" t="s">
+      <c r="BM35" s="12" t="s">
         <v>135</v>
       </c>
+      <c r="BN35">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="36" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>96</v>
       </c>
@@ -10069,65 +8193,14 @@
       <c r="BL36" s="10">
         <v>0</v>
       </c>
-      <c r="BM36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BS36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BT36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BZ36" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA36" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB36" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC36" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD36" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE36" s="12" t="s">
+      <c r="BM36" s="12" t="s">
         <v>136</v>
       </c>
+      <c r="BN36">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="37" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>99</v>
       </c>
@@ -10320,65 +8393,14 @@
       <c r="BL37" s="10">
         <v>60</v>
       </c>
-      <c r="BM37" s="10">
-        <v>95</v>
-      </c>
-      <c r="BN37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BO37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BP37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BQ37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR37" s="10">
-        <v>60</v>
-      </c>
-      <c r="BS37" s="10">
-        <v>95</v>
-      </c>
-      <c r="BT37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BV37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BX37" s="10">
-        <v>60</v>
-      </c>
-      <c r="BY37" s="10">
-        <v>95</v>
-      </c>
-      <c r="BZ37" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA37" s="10">
-        <v>0</v>
-      </c>
-      <c r="CB37" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="CD37" s="10">
-        <v>60</v>
-      </c>
-      <c r="CE37" s="12" t="s">
+      <c r="BM37" s="12" t="s">
         <v>137</v>
       </c>
+      <c r="BN37">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="38" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>102</v>
       </c>
@@ -10571,266 +8593,209 @@
       <c r="BL38" s="10">
         <v>100</v>
       </c>
-      <c r="BM38" s="10">
-        <v>90</v>
-      </c>
-      <c r="BN38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BO38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BP38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BQ38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BR38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BS38" s="10">
-        <v>90</v>
-      </c>
-      <c r="BT38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BU38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BV38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BW38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BX38" s="10">
-        <v>100</v>
-      </c>
-      <c r="BY38" s="10">
-        <v>90</v>
-      </c>
-      <c r="BZ38" s="10">
-        <v>100</v>
-      </c>
-      <c r="CA38" s="10">
-        <v>100</v>
-      </c>
-      <c r="CB38" s="10">
-        <v>100</v>
-      </c>
-      <c r="CC38" s="10">
-        <v>100</v>
-      </c>
-      <c r="CD38" s="10">
-        <v>100</v>
-      </c>
-      <c r="CE38" s="12" t="s">
+      <c r="BM38" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="BN38">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="39" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE39" s="12" t="s">
+    <row r="39" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM39" s="12" t="s">
         <v>139</v>
       </c>
+      <c r="BN39">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="40" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE40" s="12" t="s">
+    <row r="40" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM40" s="12" t="s">
         <v>140</v>
       </c>
+      <c r="BN40">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="41" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE41" s="12" t="s">
+    <row r="41" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM41" s="12" t="s">
         <v>141</v>
       </c>
+      <c r="BN41">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="42" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE42" s="12" t="s">
+    <row r="42" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM42" s="12" t="s">
         <v>142</v>
       </c>
+      <c r="BN42">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="43" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE43" s="12" t="s">
+    <row r="43" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM43" s="12" t="s">
         <v>143</v>
       </c>
+      <c r="BN43">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="44" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE44" s="12" t="s">
+    <row r="44" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM44" s="12" t="s">
         <v>144</v>
       </c>
+      <c r="BN44">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="45" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE45" s="12" t="s">
+    <row r="45" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM45" s="12" t="s">
         <v>145</v>
       </c>
+      <c r="BN45">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="46" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE46" s="12" t="s">
+    <row r="46" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM46" s="12" t="s">
         <v>146</v>
       </c>
+      <c r="BN46">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="47" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE47" s="12" t="s">
+    <row r="47" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM47" s="12" t="s">
         <v>147</v>
       </c>
+      <c r="BN47">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="48" spans="1:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE48" s="12" t="s">
+    <row r="48" spans="1:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM48" s="12" t="s">
         <v>148</v>
       </c>
+      <c r="BN48">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="49" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE49" s="12" t="s">
+    <row r="49" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM49" s="12" t="s">
         <v>149</v>
       </c>
+      <c r="BN49">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="50" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE50" s="12" t="s">
+    <row r="50" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM50" s="12" t="s">
         <v>150</v>
       </c>
+      <c r="BN50">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="51" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE51" s="12" t="s">
+    <row r="51" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM51" s="12" t="s">
         <v>151</v>
       </c>
+      <c r="BN51">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="52" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE52" s="12" t="s">
+    <row r="52" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM52" s="12" t="s">
         <v>152</v>
       </c>
+      <c r="BN52">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="53" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE53" s="12" t="s">
+    <row r="53" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM53" s="12" t="s">
         <v>153</v>
       </c>
+      <c r="BN53">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="54" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE54" s="12" t="s">
+    <row r="54" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM54" s="12" t="s">
         <v>154</v>
       </c>
+      <c r="BN54">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="55" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE55" s="12" t="s">
+    <row r="55" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM55" s="12" t="s">
         <v>155</v>
       </c>
+      <c r="BN55">
+        <v>61.424242424242422</v>
+      </c>
     </row>
-    <row r="56" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE56" s="12" t="s">
+    <row r="56" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM56" s="12" t="s">
         <v>156</v>
       </c>
+      <c r="BN56">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="57" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE57" s="12" t="s">
+    <row r="57" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM57" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="BN57">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="58" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE58" s="12" t="s">
+    <row r="58" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM58" s="12" t="s">
         <v>158</v>
       </c>
+      <c r="BN58">
+        <v>55.060606060606062</v>
+      </c>
     </row>
-    <row r="59" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE59" s="12" t="s">
+    <row r="59" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM59" s="12" t="s">
         <v>159</v>
       </c>
+      <c r="BN59">
+        <v>55.363636363636367</v>
+      </c>
     </row>
-    <row r="60" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE60" s="12" t="s">
+    <row r="60" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BM60" s="12" t="s">
         <v>160</v>
       </c>
+      <c r="BN60">
+        <v>49.151515151515149</v>
+      </c>
     </row>
-    <row r="61" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE61" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE62" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE63" s="12" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE64" s="12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="65" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE65" s="12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE66" s="12" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE67" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE68" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE69" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE70" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE71" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="72" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE72" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="73" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE73" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="74" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE74" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE75" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE76" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE77" s="12" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="78" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="CE78" s="12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="79" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="83:83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="65:66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="65" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="67" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="68" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="81" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="82" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="83" ht="24" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/app/utilities/calificaciones1.xlsx
+++ b/app/utilities/calificaciones1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andre\Desktop\Lyra\app\utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3BA4D7-E855-4A12-861F-5D15A0EFAE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7153C17-628A-4DC6-B37A-277EA8DA39FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="28" zoomScaleNormal="45" workbookViewId="0">
-      <selection activeCell="AD33" sqref="AD33"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="53" zoomScaleNormal="45" workbookViewId="0">
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1755,19 +1755,19 @@
       </c>
       <c r="E5" s="9">
         <f>AVERAGE(E6:E38)</f>
-        <v>61.424242424242422</v>
+        <v>79.606060606060609</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" ref="F5:G5" si="0">AVERAGE(F6:F38)</f>
+        <f t="shared" ref="F5" si="0">AVERAGE(F6:F38)</f>
         <v>55.363636363636367</v>
       </c>
       <c r="G5" s="9">
-        <f t="shared" si="0"/>
-        <v>50.757575757575758</v>
+        <f>AVERAGE(G6:G15)</f>
+        <v>44.5</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" ref="H5" si="1">AVERAGE(H6:H38)</f>
-        <v>55.060606060606062</v>
+        <v>91.424242424242422</v>
       </c>
       <c r="I5" s="9">
         <f t="shared" ref="I5" si="2">AVERAGE(I6:I38)</f>
@@ -1899,15 +1899,15 @@
       </c>
       <c r="AO5" s="9">
         <f t="shared" ref="AO5" si="34">AVERAGE(AO6:AO38)</f>
-        <v>61.424242424242422</v>
+        <v>48.272727272727273</v>
       </c>
       <c r="AP5" s="9">
         <f t="shared" ref="AP5" si="35">AVERAGE(AP6:AP38)</f>
-        <v>55.363636363636367</v>
+        <v>100</v>
       </c>
       <c r="AQ5" s="9">
         <f t="shared" ref="AQ5" si="36">AVERAGE(AQ6:AQ38)</f>
-        <v>55.363636363636367</v>
+        <v>100</v>
       </c>
       <c r="AR5" s="9">
         <f t="shared" ref="AR5" si="37">AVERAGE(AR6:AR38)</f>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="AT5" s="9">
         <f t="shared" ref="AT5" si="39">AVERAGE(AT6:AT38)</f>
-        <v>49.151515151515149</v>
+        <v>99.696969696969703</v>
       </c>
       <c r="AU5" s="9">
         <f t="shared" ref="AU5" si="40">AVERAGE(AU6:AU38)</f>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="AX5" s="9">
         <f t="shared" ref="AX5" si="43">AVERAGE(AX6:AX38)</f>
-        <v>55.060606060606062</v>
+        <v>98.484848484848484</v>
       </c>
       <c r="AY5" s="9">
         <f t="shared" ref="AY5" si="44">AVERAGE(AY6:AY38)</f>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="BB5" s="9">
         <f t="shared" ref="BB5" si="47">AVERAGE(BB6:BB38)</f>
-        <v>55.363636363636367</v>
+        <v>33.242424242424242</v>
       </c>
       <c r="BC5" s="9">
         <f t="shared" ref="BC5" si="48">AVERAGE(BC6:BC38)</f>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="BI5" s="9">
         <f t="shared" ref="BI5" si="54">AVERAGE(BI6:BI38)</f>
-        <v>55.363636363636367</v>
+        <v>93.939393939393938</v>
       </c>
       <c r="BJ5" s="9">
         <f t="shared" ref="BJ5" si="55">AVERAGE(BJ6:BJ38)</f>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="BK5" s="9">
         <f t="shared" ref="BK5" si="56">AVERAGE(BK6:BK38)</f>
-        <v>55.363636363636367</v>
+        <v>32.787878787878789</v>
       </c>
       <c r="BL5" s="9">
         <f t="shared" ref="BL5" si="57">AVERAGE(BL6:BL38)</f>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="10">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I6" s="10">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="AP6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR6" s="10">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="AT6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU6" s="10">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY6" s="10">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="BI6" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ6" s="10">
         <v>0</v>
@@ -2214,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F7" s="10">
         <v>0</v>
       </c>
       <c r="G7" s="10">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -2325,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="AP7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR7" s="10">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU7" s="10">
         <v>0</v>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
       <c r="AX7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY7" s="10">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="BI7" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ7" s="10">
         <v>0</v>
@@ -2414,13 +2414,13 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F8" s="10">
         <v>100</v>
       </c>
       <c r="G8" s="10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="H8" s="10">
         <v>100</v>
@@ -2537,7 +2537,7 @@
         <v>100</v>
       </c>
       <c r="AT8" s="10">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AU8" s="10">
         <v>0</v>
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="BB8" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC8" s="10">
         <v>100</v>
@@ -2620,7 +2620,7 @@
         <v>95</v>
       </c>
       <c r="G9" s="10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H9" s="10">
         <v>100</v>
@@ -2722,13 +2722,13 @@
         <v>0</v>
       </c>
       <c r="AO9" s="10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AP9" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AQ9" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AR9" s="10">
         <v>100</v>
@@ -2737,7 +2737,7 @@
         <v>95</v>
       </c>
       <c r="AT9" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU9" s="10">
         <v>90</v>
@@ -2761,7 +2761,7 @@
         <v>90</v>
       </c>
       <c r="BB9" s="10">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="10">
         <v>95</v>
@@ -2782,7 +2782,7 @@
         <v>95</v>
       </c>
       <c r="BI9" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BJ9" s="10">
         <v>100</v>
@@ -2820,7 +2820,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="H10" s="10">
         <v>100</v>
@@ -2922,7 +2922,7 @@
         <v>100</v>
       </c>
       <c r="AO10" s="10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="10">
         <v>100</v>
@@ -2961,7 +2961,7 @@
         <v>90</v>
       </c>
       <c r="BB10" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC10" s="10">
         <v>100</v>
@@ -2988,7 +2988,7 @@
         <v>100</v>
       </c>
       <c r="BK10" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="10">
         <v>100</v>
@@ -3020,10 +3020,10 @@
         <v>80</v>
       </c>
       <c r="G11" s="10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H11" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" s="10">
         <v>80</v>
@@ -3125,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="AP11" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AQ11" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR11" s="10">
         <v>0</v>
@@ -3137,7 +3137,7 @@
         <v>80</v>
       </c>
       <c r="AT11" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AU11" s="10">
         <v>0</v>
@@ -3149,7 +3149,7 @@
         <v>80</v>
       </c>
       <c r="AX11" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY11" s="10">
         <v>80</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="BB11" s="10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BC11" s="10">
         <v>80</v>
@@ -3182,7 +3182,7 @@
         <v>80</v>
       </c>
       <c r="BI11" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BJ11" s="10">
         <v>0</v>
@@ -3223,7 +3223,7 @@
         <v>100</v>
       </c>
       <c r="H12" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I12" s="10">
         <v>85</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="AO12" s="10">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="AP12" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AQ12" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AR12" s="10">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>85</v>
       </c>
       <c r="AT12" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU12" s="10">
         <v>79</v>
@@ -3349,7 +3349,7 @@
         <v>85</v>
       </c>
       <c r="AX12" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY12" s="10">
         <v>85</v>
@@ -3361,7 +3361,7 @@
         <v>79</v>
       </c>
       <c r="BB12" s="10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="BC12" s="10">
         <v>85</v>
@@ -3382,13 +3382,13 @@
         <v>85</v>
       </c>
       <c r="BI12" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="BJ12" s="10">
         <v>0</v>
       </c>
       <c r="BK12" s="10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="10">
         <v>0</v>
@@ -3420,10 +3420,10 @@
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I13" s="10">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>90</v>
       </c>
       <c r="AP13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR13" s="10">
         <v>0</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AT13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU13" s="10">
         <v>90</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY13" s="10">
         <v>0</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="BI13" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ13" s="10">
         <v>0</v>
@@ -3620,10 +3620,10 @@
         <v>70</v>
       </c>
       <c r="G14" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="10">
         <v>70</v>
@@ -3725,10 +3725,10 @@
         <v>90</v>
       </c>
       <c r="AP14" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AQ14" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AR14" s="10">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         <v>70</v>
       </c>
       <c r="AT14" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AU14" s="10">
         <v>90</v>
@@ -3749,7 +3749,7 @@
         <v>70</v>
       </c>
       <c r="AX14" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY14" s="10">
         <v>70</v>
@@ -3761,7 +3761,7 @@
         <v>90</v>
       </c>
       <c r="BB14" s="10">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="10">
         <v>70</v>
@@ -3782,7 +3782,7 @@
         <v>70</v>
       </c>
       <c r="BI14" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BJ14" s="10">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>97</v>
       </c>
       <c r="BB15" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="10">
         <v>100</v>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H16" s="10">
         <v>97</v>
@@ -4125,10 +4125,10 @@
         <v>60</v>
       </c>
       <c r="AP16" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ16" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR16" s="10">
         <v>97</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AU16" s="10">
         <v>60</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="AX16" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AY16" s="10">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="BI16" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ16" s="10">
         <v>97</v>
@@ -4220,7 +4220,7 @@
         <v>100</v>
       </c>
       <c r="G17" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H17" s="10">
         <v>100</v>
@@ -4322,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="AO17" s="10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="10">
         <v>100</v>
@@ -4361,7 +4361,7 @@
         <v>85</v>
       </c>
       <c r="BB17" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BC17" s="10">
         <v>100</v>
@@ -4388,7 +4388,7 @@
         <v>100</v>
       </c>
       <c r="BK17" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL17" s="10">
         <v>100</v>
@@ -4420,10 +4420,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="10">
         <v>0</v>
@@ -4525,10 +4525,10 @@
         <v>0</v>
       </c>
       <c r="AP18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR18" s="10">
         <v>0</v>
@@ -4537,7 +4537,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU18" s="10">
         <v>0</v>
@@ -4549,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="AX18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY18" s="10">
         <v>0</v>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="BI18" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ18" s="10">
         <v>0</v>
@@ -4620,7 +4620,7 @@
         <v>95</v>
       </c>
       <c r="G19" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H19" s="10">
         <v>100</v>
@@ -4725,10 +4725,10 @@
         <v>92</v>
       </c>
       <c r="AP19" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AQ19" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AR19" s="10">
         <v>100</v>
@@ -4737,7 +4737,7 @@
         <v>95</v>
       </c>
       <c r="AT19" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AU19" s="10">
         <v>92</v>
@@ -4749,7 +4749,7 @@
         <v>95</v>
       </c>
       <c r="AX19" s="10">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AY19" s="10">
         <v>95</v>
@@ -4782,7 +4782,7 @@
         <v>95</v>
       </c>
       <c r="BI19" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="BJ19" s="10">
         <v>100</v>
@@ -4820,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H20" s="10">
         <v>95</v>
@@ -4925,10 +4925,10 @@
         <v>92</v>
       </c>
       <c r="AP20" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ20" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR20" s="10">
         <v>95</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU20" s="10">
         <v>92</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="AX20" s="10">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AY20" s="10">
         <v>0</v>
@@ -4982,7 +4982,7 @@
         <v>0</v>
       </c>
       <c r="BI20" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ20" s="10">
         <v>95</v>
@@ -5137,7 +5137,7 @@
         <v>100</v>
       </c>
       <c r="AT21" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AU21" s="10">
         <v>98</v>
@@ -5214,16 +5214,16 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="E22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="10">
         <v>0</v>
       </c>
       <c r="G22" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="10">
         <v>0</v>
@@ -5325,10 +5325,10 @@
         <v>0</v>
       </c>
       <c r="AP22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR22" s="10">
         <v>0</v>
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="AT22" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AU22" s="10">
         <v>0</v>
@@ -5349,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="AX22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY22" s="10">
         <v>0</v>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ22" s="10">
         <v>0</v>
@@ -5420,7 +5420,7 @@
         <v>97</v>
       </c>
       <c r="G23" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="10">
         <v>100</v>
@@ -5522,13 +5522,13 @@
         <v>90</v>
       </c>
       <c r="AO23" s="10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AQ23" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AR23" s="10">
         <v>100</v>
@@ -5537,7 +5537,7 @@
         <v>97</v>
       </c>
       <c r="AT23" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AU23" s="10">
         <v>90</v>
@@ -5582,7 +5582,7 @@
         <v>97</v>
       </c>
       <c r="BI23" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="BJ23" s="10">
         <v>100</v>
@@ -5620,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="10">
         <v>100</v>
@@ -5725,10 +5725,10 @@
         <v>60</v>
       </c>
       <c r="AP24" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ24" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR24" s="10">
         <v>100</v>
@@ -5737,7 +5737,7 @@
         <v>0</v>
       </c>
       <c r="AT24" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AU24" s="10">
         <v>60</v>
@@ -5782,7 +5782,7 @@
         <v>0</v>
       </c>
       <c r="BI24" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ24" s="10">
         <v>100</v>
@@ -5820,7 +5820,7 @@
         <v>90</v>
       </c>
       <c r="G25" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H25" s="10">
         <v>100</v>
@@ -5925,10 +5925,10 @@
         <v>95</v>
       </c>
       <c r="AP25" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ25" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR25" s="10">
         <v>100</v>
@@ -5937,7 +5937,7 @@
         <v>90</v>
       </c>
       <c r="AT25" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU25" s="10">
         <v>95</v>
@@ -5982,7 +5982,7 @@
         <v>90</v>
       </c>
       <c r="BI25" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BJ25" s="10">
         <v>100</v>
@@ -6125,10 +6125,10 @@
         <v>90</v>
       </c>
       <c r="AP26" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AQ26" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AR26" s="10">
         <v>85</v>
@@ -6149,7 +6149,7 @@
         <v>90</v>
       </c>
       <c r="AX26" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AY26" s="10">
         <v>90</v>
@@ -6182,7 +6182,7 @@
         <v>90</v>
       </c>
       <c r="BI26" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BJ26" s="10">
         <v>85</v>
@@ -6220,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H27" s="10">
         <v>40</v>
@@ -6325,10 +6325,10 @@
         <v>0</v>
       </c>
       <c r="AP27" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ27" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR27" s="10">
         <v>40</v>
@@ -6337,7 +6337,7 @@
         <v>0</v>
       </c>
       <c r="AT27" s="10">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AU27" s="10">
         <v>0</v>
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="AX27" s="10">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AY27" s="10">
         <v>0</v>
@@ -6382,7 +6382,7 @@
         <v>0</v>
       </c>
       <c r="BI27" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ27" s="10">
         <v>40</v>
@@ -6525,10 +6525,10 @@
         <v>75</v>
       </c>
       <c r="AP28" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AQ28" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR28" s="10">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>80</v>
       </c>
       <c r="AT28" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU28" s="10">
         <v>75</v>
@@ -6549,7 +6549,7 @@
         <v>80</v>
       </c>
       <c r="AX28" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY28" s="10">
         <v>80</v>
@@ -6582,7 +6582,7 @@
         <v>80</v>
       </c>
       <c r="BI28" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BJ28" s="10">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>80</v>
       </c>
       <c r="G29" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H29" s="10">
         <v>0</v>
@@ -6725,10 +6725,10 @@
         <v>95</v>
       </c>
       <c r="AP29" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AQ29" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR29" s="10">
         <v>0</v>
@@ -6737,7 +6737,7 @@
         <v>80</v>
       </c>
       <c r="AT29" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU29" s="10">
         <v>95</v>
@@ -6749,7 +6749,7 @@
         <v>80</v>
       </c>
       <c r="AX29" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY29" s="10">
         <v>80</v>
@@ -6782,13 +6782,13 @@
         <v>80</v>
       </c>
       <c r="BI29" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BJ29" s="10">
         <v>0</v>
       </c>
       <c r="BK29" s="10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BL29" s="10">
         <v>0</v>
@@ -6820,7 +6820,7 @@
         <v>80</v>
       </c>
       <c r="G30" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H30" s="10">
         <v>100</v>
@@ -6925,10 +6925,10 @@
         <v>95</v>
       </c>
       <c r="AP30" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AQ30" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AR30" s="10">
         <v>100</v>
@@ -6937,7 +6937,7 @@
         <v>80</v>
       </c>
       <c r="AT30" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU30" s="10">
         <v>95</v>
@@ -6982,13 +6982,13 @@
         <v>80</v>
       </c>
       <c r="BI30" s="10">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BJ30" s="10">
         <v>100</v>
       </c>
       <c r="BK30" s="10">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="BL30" s="10">
         <v>0</v>
@@ -7020,7 +7020,7 @@
         <v>85</v>
       </c>
       <c r="G31" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H31" s="10">
         <v>100</v>
@@ -7125,10 +7125,10 @@
         <v>80</v>
       </c>
       <c r="AP31" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AQ31" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AR31" s="10">
         <v>100</v>
@@ -7137,7 +7137,7 @@
         <v>85</v>
       </c>
       <c r="AT31" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AU31" s="10">
         <v>80</v>
@@ -7182,7 +7182,7 @@
         <v>85</v>
       </c>
       <c r="BI31" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="BJ31" s="10">
         <v>100</v>
@@ -7214,16 +7214,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="10">
         <v>0</v>
       </c>
       <c r="G32" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="10">
         <v>0</v>
@@ -7325,10 +7325,10 @@
         <v>0</v>
       </c>
       <c r="AP32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR32" s="10">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>0</v>
       </c>
       <c r="AT32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU32" s="10">
         <v>0</v>
@@ -7349,7 +7349,7 @@
         <v>0</v>
       </c>
       <c r="AX32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY32" s="10">
         <v>0</v>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ32" s="10">
         <v>0</v>
@@ -7420,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="10">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="10">
         <v>0</v>
@@ -7525,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="AP33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR33" s="10">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="AT33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU33" s="10">
         <v>0</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="AX33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY33" s="10">
         <v>0</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="BI33" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="BJ33" s="10">
         <v>0</v>
@@ -7620,7 +7620,7 @@
         <v>100</v>
       </c>
       <c r="G34" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H34" s="10">
         <v>100</v>
@@ -7788,7 +7788,7 @@
         <v>100</v>
       </c>
       <c r="BK34" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="10">
         <v>100</v>
@@ -7937,7 +7937,7 @@
         <v>100</v>
       </c>
       <c r="AT35" s="10">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AU35" s="10">
         <v>99</v>
@@ -7988,7 +7988,7 @@
         <v>100</v>
       </c>
       <c r="BK35" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="10">
         <v>97</v>
@@ -8014,16 +8014,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F36" s="10">
         <v>0</v>
       </c>
       <c r="G36" s="10">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I36" s="10">
         <v>0</v>
@@ -8125,10 +8125,10 @@
         <v>0</v>
       </c>
       <c r="AP36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR36" s="10">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU36" s="10">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="AX36" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY36" s="10">
         <v>0</v>
@@ -8220,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H37" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I37" s="10">
         <v>0</v>
@@ -8325,10 +8325,10 @@
         <v>95</v>
       </c>
       <c r="AP37" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AQ37" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AR37" s="10">
         <v>0</v>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="10">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AU37" s="10">
         <v>95</v>
@@ -8349,7 +8349,7 @@
         <v>0</v>
       </c>
       <c r="AX37" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AY37" s="10">
         <v>0</v>
@@ -8420,7 +8420,7 @@
         <v>100</v>
       </c>
       <c r="G38" s="10">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H38" s="10">
         <v>100</v>
@@ -8588,7 +8588,7 @@
         <v>100</v>
       </c>
       <c r="BK38" s="10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="BL38" s="10">
         <v>100</v>
